--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>PRMRF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>680000</v>
+        <v>586000</v>
       </c>
       <c r="E8" s="3">
-        <v>348300</v>
+        <v>656400</v>
       </c>
       <c r="F8" s="3">
-        <v>185800</v>
+        <v>336200</v>
       </c>
       <c r="G8" s="3">
-        <v>315600</v>
+        <v>179400</v>
       </c>
       <c r="H8" s="3">
-        <v>252400</v>
+        <v>304600</v>
       </c>
       <c r="I8" s="3">
-        <v>162600</v>
+        <v>243700</v>
       </c>
       <c r="J8" s="3">
+        <v>156900</v>
+      </c>
+      <c r="K8" s="3">
         <v>121600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>149200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>356800</v>
+        <v>342000</v>
       </c>
       <c r="E9" s="3">
-        <v>163300</v>
+        <v>344400</v>
       </c>
       <c r="F9" s="3">
-        <v>115600</v>
+        <v>157600</v>
       </c>
       <c r="G9" s="3">
-        <v>117300</v>
+        <v>111600</v>
       </c>
       <c r="H9" s="3">
-        <v>80700</v>
+        <v>113200</v>
       </c>
       <c r="I9" s="3">
-        <v>69600</v>
+        <v>77900</v>
       </c>
       <c r="J9" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K9" s="3">
         <v>57100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>323200</v>
+        <v>244000</v>
       </c>
       <c r="E10" s="3">
-        <v>185100</v>
+        <v>312000</v>
       </c>
       <c r="F10" s="3">
-        <v>70300</v>
+        <v>178600</v>
       </c>
       <c r="G10" s="3">
-        <v>198300</v>
+        <v>67800</v>
       </c>
       <c r="H10" s="3">
-        <v>171700</v>
+        <v>191400</v>
       </c>
       <c r="I10" s="3">
-        <v>93000</v>
+        <v>165800</v>
       </c>
       <c r="J10" s="3">
+        <v>89800</v>
+      </c>
+      <c r="K10" s="3">
         <v>64600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>85500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>9400</v>
+        <v>8000</v>
       </c>
       <c r="E12" s="3">
-        <v>7000</v>
+        <v>9100</v>
       </c>
       <c r="F12" s="3">
-        <v>13500</v>
+        <v>6800</v>
       </c>
       <c r="G12" s="3">
-        <v>15900</v>
+        <v>13000</v>
       </c>
       <c r="H12" s="3">
-        <v>13000</v>
+        <v>15400</v>
       </c>
       <c r="I12" s="3">
-        <v>15900</v>
+        <v>12500</v>
       </c>
       <c r="J12" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K12" s="3">
         <v>16700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20900</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>380100</v>
+        <v>3500</v>
       </c>
       <c r="E14" s="3">
-        <v>-53200</v>
+        <v>367000</v>
       </c>
       <c r="F14" s="3">
-        <v>-68900</v>
+        <v>-51400</v>
       </c>
       <c r="G14" s="3">
-        <v>407800</v>
+        <v>-66500</v>
       </c>
       <c r="H14" s="3">
-        <v>36400</v>
+        <v>393600</v>
       </c>
       <c r="I14" s="3">
-        <v>7600</v>
+        <v>35200</v>
       </c>
       <c r="J14" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K14" s="3">
         <v>79900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8900</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>357400</v>
+        <v>265100</v>
       </c>
       <c r="E15" s="3">
-        <v>227300</v>
+        <v>345000</v>
       </c>
       <c r="F15" s="3">
-        <v>162700</v>
+        <v>219400</v>
       </c>
       <c r="G15" s="3">
-        <v>275200</v>
+        <v>157000</v>
       </c>
       <c r="H15" s="3">
-        <v>157400</v>
+        <v>265700</v>
       </c>
       <c r="I15" s="3">
-        <v>117200</v>
+        <v>152000</v>
       </c>
       <c r="J15" s="3">
+        <v>113100</v>
+      </c>
+      <c r="K15" s="3">
         <v>224100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>114000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>1108400</v>
+        <v>558000</v>
       </c>
       <c r="E17" s="3">
-        <v>203100</v>
+        <v>1069900</v>
       </c>
       <c r="F17" s="3">
-        <v>-819400</v>
+        <v>196100</v>
       </c>
       <c r="G17" s="3">
-        <v>988700</v>
+        <v>-791000</v>
       </c>
       <c r="H17" s="3">
-        <v>311100</v>
+        <v>954400</v>
       </c>
       <c r="I17" s="3">
-        <v>266000</v>
+        <v>300300</v>
       </c>
       <c r="J17" s="3">
+        <v>256800</v>
+      </c>
+      <c r="K17" s="3">
         <v>314900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>426900</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-428400</v>
+        <v>28000</v>
       </c>
       <c r="E18" s="3">
-        <v>145200</v>
+        <v>-413500</v>
       </c>
       <c r="F18" s="3">
-        <v>1005200</v>
+        <v>140200</v>
       </c>
       <c r="G18" s="3">
-        <v>-673100</v>
+        <v>970400</v>
       </c>
       <c r="H18" s="3">
-        <v>-58700</v>
+        <v>-649800</v>
       </c>
       <c r="I18" s="3">
-        <v>-103500</v>
+        <v>-56700</v>
       </c>
       <c r="J18" s="3">
+        <v>-99900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-193200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-277700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>6400</v>
+        <v>-10300</v>
       </c>
       <c r="E20" s="3">
-        <v>46600</v>
+        <v>6100</v>
       </c>
       <c r="F20" s="3">
-        <v>-10500</v>
+        <v>45000</v>
       </c>
       <c r="G20" s="3">
-        <v>-14800</v>
+        <v>-10100</v>
       </c>
       <c r="H20" s="3">
-        <v>2500</v>
+        <v>-14300</v>
       </c>
       <c r="I20" s="3">
-        <v>23900</v>
+        <v>2400</v>
       </c>
       <c r="J20" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K20" s="3">
         <v>126200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>314000</v>
+        <v>283000</v>
       </c>
       <c r="E21" s="3">
-        <v>479200</v>
+        <v>303400</v>
       </c>
       <c r="F21" s="3">
-        <v>1052300</v>
+        <v>462700</v>
       </c>
       <c r="G21" s="3">
-        <v>-218000</v>
+        <v>1015800</v>
       </c>
       <c r="H21" s="3">
-        <v>116800</v>
+        <v>-210300</v>
       </c>
       <c r="I21" s="3">
-        <v>35600</v>
+        <v>112800</v>
       </c>
       <c r="J21" s="3">
+        <v>34400</v>
+      </c>
+      <c r="K21" s="3">
         <v>147000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-422000</v>
+        <v>17700</v>
       </c>
       <c r="E23" s="3">
-        <v>191900</v>
+        <v>-407400</v>
       </c>
       <c r="F23" s="3">
-        <v>994700</v>
+        <v>185200</v>
       </c>
       <c r="G23" s="3">
-        <v>-687900</v>
+        <v>960200</v>
       </c>
       <c r="H23" s="3">
-        <v>-56200</v>
+        <v>-664000</v>
       </c>
       <c r="I23" s="3">
-        <v>-79600</v>
+        <v>-54300</v>
       </c>
       <c r="J23" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-67000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-258000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-145600</v>
+        <v>81600</v>
       </c>
       <c r="E24" s="3">
-        <v>-61800</v>
+        <v>-140600</v>
       </c>
       <c r="F24" s="3">
-        <v>117500</v>
+        <v>-59600</v>
       </c>
       <c r="G24" s="3">
-        <v>-9400</v>
+        <v>113400</v>
       </c>
       <c r="H24" s="3">
-        <v>-2300</v>
+        <v>-9100</v>
       </c>
       <c r="I24" s="3">
-        <v>-14000</v>
+        <v>-2200</v>
       </c>
       <c r="J24" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-18300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-61100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-276400</v>
+        <v>-63800</v>
       </c>
       <c r="E26" s="3">
-        <v>253600</v>
+        <v>-266800</v>
       </c>
       <c r="F26" s="3">
-        <v>877200</v>
+        <v>244800</v>
       </c>
       <c r="G26" s="3">
-        <v>-678500</v>
+        <v>846800</v>
       </c>
       <c r="H26" s="3">
-        <v>-54000</v>
+        <v>-655000</v>
       </c>
       <c r="I26" s="3">
-        <v>-65600</v>
+        <v>-52100</v>
       </c>
       <c r="J26" s="3">
+        <v>-63300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-48700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-196900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-276400</v>
+        <v>-63800</v>
       </c>
       <c r="E27" s="3">
-        <v>253600</v>
+        <v>-266800</v>
       </c>
       <c r="F27" s="3">
-        <v>877200</v>
+        <v>244800</v>
       </c>
       <c r="G27" s="3">
-        <v>-678500</v>
+        <v>846800</v>
       </c>
       <c r="H27" s="3">
-        <v>-54000</v>
+        <v>-655000</v>
       </c>
       <c r="I27" s="3">
-        <v>-65600</v>
+        <v>-52100</v>
       </c>
       <c r="J27" s="3">
+        <v>-63300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-48700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-196900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1304,21 +1364,24 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="3">
-        <v>21100</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K29" s="3">
         <v>2100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>18700</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6400</v>
+        <v>10300</v>
       </c>
       <c r="E32" s="3">
-        <v>-46600</v>
+        <v>-6100</v>
       </c>
       <c r="F32" s="3">
-        <v>10500</v>
+        <v>-45000</v>
       </c>
       <c r="G32" s="3">
-        <v>14800</v>
+        <v>10100</v>
       </c>
       <c r="H32" s="3">
-        <v>-2500</v>
+        <v>14300</v>
       </c>
       <c r="I32" s="3">
-        <v>-23900</v>
+        <v>-2400</v>
       </c>
       <c r="J32" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-126200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-276400</v>
+        <v>-63800</v>
       </c>
       <c r="E33" s="3">
-        <v>253600</v>
+        <v>-266800</v>
       </c>
       <c r="F33" s="3">
-        <v>877200</v>
+        <v>244800</v>
       </c>
       <c r="G33" s="3">
-        <v>-678500</v>
+        <v>846800</v>
       </c>
       <c r="H33" s="3">
-        <v>-54000</v>
+        <v>-655000</v>
       </c>
       <c r="I33" s="3">
-        <v>-44500</v>
+        <v>-52100</v>
       </c>
       <c r="J33" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-46600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-178200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-276400</v>
+        <v>-63800</v>
       </c>
       <c r="E35" s="3">
-        <v>253600</v>
+        <v>-266800</v>
       </c>
       <c r="F35" s="3">
-        <v>877200</v>
+        <v>244800</v>
       </c>
       <c r="G35" s="3">
-        <v>-678500</v>
+        <v>846800</v>
       </c>
       <c r="H35" s="3">
-        <v>-54000</v>
+        <v>-655000</v>
       </c>
       <c r="I35" s="3">
-        <v>-44500</v>
+        <v>-52100</v>
       </c>
       <c r="J35" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-46600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-178200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,52 +1645,56 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14500</v>
+        <v>4400</v>
       </c>
       <c r="E41" s="3">
-        <v>92800</v>
+        <v>14000</v>
       </c>
       <c r="F41" s="3">
-        <v>468100</v>
+        <v>89600</v>
       </c>
       <c r="G41" s="3">
-        <v>9000</v>
+        <v>451600</v>
       </c>
       <c r="H41" s="3">
-        <v>13800</v>
+        <v>8700</v>
       </c>
       <c r="I41" s="3">
-        <v>8100</v>
+        <v>13300</v>
       </c>
       <c r="J41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K41" s="3">
         <v>110400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>89600</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>86400</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>24</v>
@@ -1619,39 +1708,45 @@
       <c r="K42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>91300</v>
+        <v>86200</v>
       </c>
       <c r="E43" s="3">
-        <v>128200</v>
+        <v>88100</v>
       </c>
       <c r="F43" s="3">
-        <v>18000</v>
+        <v>123700</v>
       </c>
       <c r="G43" s="3">
-        <v>36700</v>
+        <v>17400</v>
       </c>
       <c r="H43" s="3">
-        <v>42900</v>
+        <v>35400</v>
       </c>
       <c r="I43" s="3">
-        <v>29600</v>
+        <v>41400</v>
       </c>
       <c r="J43" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K43" s="3">
         <v>24700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,129 +1774,144 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55800</v>
+        <v>12400</v>
       </c>
       <c r="E45" s="3">
-        <v>6800</v>
+        <v>53800</v>
       </c>
       <c r="F45" s="3">
-        <v>1300</v>
+        <v>6600</v>
       </c>
       <c r="G45" s="3">
-        <v>34100</v>
+        <v>1200</v>
       </c>
       <c r="H45" s="3">
-        <v>3700</v>
+        <v>32900</v>
       </c>
       <c r="I45" s="3">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="J45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K45" s="3">
         <v>11200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>161600</v>
+        <v>102900</v>
       </c>
       <c r="E46" s="3">
-        <v>227900</v>
+        <v>155900</v>
       </c>
       <c r="F46" s="3">
-        <v>577000</v>
+        <v>219800</v>
       </c>
       <c r="G46" s="3">
-        <v>79700</v>
+        <v>556700</v>
       </c>
       <c r="H46" s="3">
-        <v>60400</v>
+        <v>76900</v>
       </c>
       <c r="I46" s="3">
-        <v>39300</v>
+        <v>58300</v>
       </c>
       <c r="J46" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K46" s="3">
         <v>146400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>99800</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>174400</v>
+        <v>117400</v>
       </c>
       <c r="E47" s="3">
-        <v>40100</v>
+        <v>168300</v>
       </c>
       <c r="F47" s="3">
-        <v>81500</v>
+        <v>38700</v>
       </c>
       <c r="G47" s="3">
-        <v>89600</v>
+        <v>78600</v>
       </c>
       <c r="H47" s="3">
-        <v>139500</v>
+        <v>86500</v>
       </c>
       <c r="I47" s="3">
-        <v>188200</v>
+        <v>134600</v>
       </c>
       <c r="J47" s="3">
+        <v>181500</v>
+      </c>
+      <c r="K47" s="3">
         <v>164700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>196200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2181700</v>
+        <v>1862500</v>
       </c>
       <c r="E48" s="3">
-        <v>2665300</v>
+        <v>2104800</v>
       </c>
       <c r="F48" s="3">
-        <v>891500</v>
+        <v>2571400</v>
       </c>
       <c r="G48" s="3">
-        <v>1805200</v>
+        <v>860100</v>
       </c>
       <c r="H48" s="3">
-        <v>2059600</v>
+        <v>1741700</v>
       </c>
       <c r="I48" s="3">
-        <v>1507800</v>
+        <v>1987100</v>
       </c>
       <c r="J48" s="3">
+        <v>1454700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1116800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>921400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1811,27 +1921,30 @@
       <c r="E49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2400</v>
       </c>
-      <c r="H49" s="3">
-        <v>18600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>582300</v>
+        <v>481900</v>
       </c>
       <c r="E52" s="3">
-        <v>439700</v>
+        <v>561800</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>424200</v>
       </c>
       <c r="G52" s="3">
-        <v>116500</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>130300</v>
+        <v>112400</v>
       </c>
       <c r="I52" s="3">
-        <v>105000</v>
+        <v>125700</v>
       </c>
       <c r="J52" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K52" s="3">
         <v>103200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>105700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3100100</v>
+        <v>2564700</v>
       </c>
       <c r="E54" s="3">
-        <v>3372900</v>
+        <v>2990900</v>
       </c>
       <c r="F54" s="3">
-        <v>1550000</v>
+        <v>3254100</v>
       </c>
       <c r="G54" s="3">
-        <v>2093500</v>
+        <v>1495400</v>
       </c>
       <c r="H54" s="3">
-        <v>2408500</v>
+        <v>2019800</v>
       </c>
       <c r="I54" s="3">
-        <v>1842700</v>
+        <v>2323600</v>
       </c>
       <c r="J54" s="3">
+        <v>1777800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1533400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1325700</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>171500</v>
+        <v>129400</v>
       </c>
       <c r="E57" s="3">
-        <v>177500</v>
+        <v>136300</v>
       </c>
       <c r="F57" s="3">
-        <v>61200</v>
+        <v>161200</v>
       </c>
       <c r="G57" s="3">
-        <v>76000</v>
+        <v>58700</v>
       </c>
       <c r="H57" s="3">
-        <v>195400</v>
+        <v>71100</v>
       </c>
       <c r="I57" s="3">
-        <v>150600</v>
+        <v>183300</v>
       </c>
       <c r="J57" s="3">
+        <v>139300</v>
+      </c>
+      <c r="K57" s="3">
         <v>127600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>93400</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>24</v>
+      <c r="D58" s="3">
+        <v>7200</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G58" s="3">
-        <v>76000</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>61400</v>
+        <v>73300</v>
       </c>
       <c r="I58" s="3">
-        <v>56900</v>
+        <v>59200</v>
       </c>
       <c r="J58" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K58" s="3">
         <v>30600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17500</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26600</v>
+        <v>42800</v>
       </c>
       <c r="E59" s="3">
-        <v>36500</v>
+        <v>54900</v>
       </c>
       <c r="F59" s="3">
-        <v>99600</v>
+        <v>45300</v>
       </c>
       <c r="G59" s="3">
-        <v>5000</v>
+        <v>96400</v>
       </c>
       <c r="H59" s="3">
-        <v>5500</v>
+        <v>7100</v>
       </c>
       <c r="I59" s="3">
-        <v>13200</v>
+        <v>10500</v>
       </c>
       <c r="J59" s="3">
+        <v>18700</v>
+      </c>
+      <c r="K59" s="3">
         <v>10900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>198200</v>
+        <v>179300</v>
       </c>
       <c r="E60" s="3">
-        <v>214000</v>
+        <v>191200</v>
       </c>
       <c r="F60" s="3">
-        <v>160800</v>
+        <v>206400</v>
       </c>
       <c r="G60" s="3">
-        <v>157000</v>
+        <v>155200</v>
       </c>
       <c r="H60" s="3">
-        <v>262300</v>
+        <v>151500</v>
       </c>
       <c r="I60" s="3">
-        <v>220600</v>
+        <v>253000</v>
       </c>
       <c r="J60" s="3">
+        <v>212900</v>
+      </c>
+      <c r="K60" s="3">
         <v>169100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>134800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>613500</v>
+        <v>475000</v>
       </c>
       <c r="E61" s="3">
-        <v>528300</v>
+        <v>591900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>509700</v>
       </c>
       <c r="G61" s="3">
-        <v>1317600</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>911100</v>
+        <v>1271100</v>
       </c>
       <c r="I61" s="3">
-        <v>664400</v>
+        <v>879000</v>
       </c>
       <c r="J61" s="3">
+        <v>641000</v>
+      </c>
+      <c r="K61" s="3">
         <v>497400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>328200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>594200</v>
+        <v>397400</v>
       </c>
       <c r="E62" s="3">
-        <v>623600</v>
+        <v>573300</v>
       </c>
       <c r="F62" s="3">
-        <v>158500</v>
+        <v>601600</v>
       </c>
       <c r="G62" s="3">
-        <v>205900</v>
+        <v>152900</v>
       </c>
       <c r="H62" s="3">
-        <v>216400</v>
+        <v>198700</v>
       </c>
       <c r="I62" s="3">
-        <v>180600</v>
+        <v>208700</v>
       </c>
       <c r="J62" s="3">
+        <v>174200</v>
+      </c>
+      <c r="K62" s="3">
         <v>226200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>229900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1405900</v>
+        <v>1051700</v>
       </c>
       <c r="E66" s="3">
-        <v>1365800</v>
+        <v>1356400</v>
       </c>
       <c r="F66" s="3">
-        <v>319300</v>
+        <v>1317700</v>
       </c>
       <c r="G66" s="3">
-        <v>1680500</v>
+        <v>308100</v>
       </c>
       <c r="H66" s="3">
-        <v>1389800</v>
+        <v>1621300</v>
       </c>
       <c r="I66" s="3">
-        <v>1065600</v>
+        <v>1340800</v>
       </c>
       <c r="J66" s="3">
+        <v>1028100</v>
+      </c>
+      <c r="K66" s="3">
         <v>892700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>692800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16000</v>
+        <v>-93300</v>
       </c>
       <c r="E72" s="3">
-        <v>205500</v>
+        <v>15400</v>
       </c>
       <c r="F72" s="3">
-        <v>-114600</v>
+        <v>198200</v>
       </c>
       <c r="G72" s="3">
-        <v>-901600</v>
+        <v>-110500</v>
       </c>
       <c r="H72" s="3">
-        <v>-223100</v>
+        <v>-869800</v>
       </c>
       <c r="I72" s="3">
-        <v>-169100</v>
+        <v>-215200</v>
       </c>
       <c r="J72" s="3">
+        <v>-163100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-124600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-79600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1694200</v>
+        <v>1513000</v>
       </c>
       <c r="E76" s="3">
-        <v>2007100</v>
+        <v>1634500</v>
       </c>
       <c r="F76" s="3">
-        <v>1230600</v>
+        <v>1936400</v>
       </c>
       <c r="G76" s="3">
-        <v>413100</v>
+        <v>1187300</v>
       </c>
       <c r="H76" s="3">
-        <v>1018700</v>
+        <v>398500</v>
       </c>
       <c r="I76" s="3">
-        <v>777100</v>
+        <v>982800</v>
       </c>
       <c r="J76" s="3">
+        <v>749700</v>
+      </c>
+      <c r="K76" s="3">
         <v>640700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>632900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-276400</v>
+        <v>-63800</v>
       </c>
       <c r="E81" s="3">
-        <v>253600</v>
+        <v>-266800</v>
       </c>
       <c r="F81" s="3">
-        <v>877200</v>
+        <v>244800</v>
       </c>
       <c r="G81" s="3">
-        <v>-678500</v>
+        <v>846800</v>
       </c>
       <c r="H81" s="3">
-        <v>-54000</v>
+        <v>-655000</v>
       </c>
       <c r="I81" s="3">
-        <v>-44500</v>
+        <v>-52100</v>
       </c>
       <c r="J81" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-46600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-178200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>735700</v>
+        <v>265100</v>
       </c>
       <c r="E83" s="3">
-        <v>287200</v>
+        <v>710200</v>
       </c>
       <c r="F83" s="3">
-        <v>57500</v>
+        <v>277200</v>
       </c>
       <c r="G83" s="3">
-        <v>469700</v>
+        <v>55500</v>
       </c>
       <c r="H83" s="3">
-        <v>173000</v>
+        <v>453400</v>
       </c>
       <c r="I83" s="3">
-        <v>115100</v>
+        <v>167000</v>
       </c>
       <c r="J83" s="3">
+        <v>111100</v>
+      </c>
+      <c r="K83" s="3">
         <v>213900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>284200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>168200</v>
+        <v>185800</v>
       </c>
       <c r="E89" s="3">
-        <v>95100</v>
+        <v>162400</v>
       </c>
       <c r="F89" s="3">
-        <v>34400</v>
+        <v>91800</v>
       </c>
       <c r="G89" s="3">
-        <v>63400</v>
+        <v>33200</v>
       </c>
       <c r="H89" s="3">
-        <v>89200</v>
+        <v>61200</v>
       </c>
       <c r="I89" s="3">
-        <v>33800</v>
+        <v>86100</v>
       </c>
       <c r="J89" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K89" s="3">
         <v>41600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>65300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-436800</v>
+        <v>-293700</v>
       </c>
       <c r="E91" s="3">
-        <v>-410400</v>
+        <v>-421700</v>
       </c>
       <c r="F91" s="3">
-        <v>-151300</v>
+        <v>-396100</v>
       </c>
       <c r="G91" s="3">
-        <v>-371900</v>
+        <v>-146100</v>
       </c>
       <c r="H91" s="3">
-        <v>-708700</v>
+        <v>-359000</v>
       </c>
       <c r="I91" s="3">
-        <v>-554200</v>
+        <v>-684200</v>
       </c>
       <c r="J91" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-469500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-403500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-279600</v>
+        <v>-71600</v>
       </c>
       <c r="E94" s="3">
-        <v>-643800</v>
+        <v>-269900</v>
       </c>
       <c r="F94" s="3">
-        <v>1380200</v>
+        <v>-621500</v>
       </c>
       <c r="G94" s="3">
-        <v>-466600</v>
+        <v>1332300</v>
       </c>
       <c r="H94" s="3">
-        <v>-597400</v>
+        <v>-450400</v>
       </c>
       <c r="I94" s="3">
-        <v>-489600</v>
+        <v>-576700</v>
       </c>
       <c r="J94" s="3">
+        <v>-472600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-232500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-373900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>31300</v>
+        <v>-123700</v>
       </c>
       <c r="E100" s="3">
-        <v>174600</v>
+        <v>30200</v>
       </c>
       <c r="F100" s="3">
-        <v>-955200</v>
+        <v>168500</v>
       </c>
       <c r="G100" s="3">
-        <v>395800</v>
+        <v>-922100</v>
       </c>
       <c r="H100" s="3">
-        <v>513900</v>
+        <v>382000</v>
       </c>
       <c r="I100" s="3">
-        <v>352700</v>
+        <v>496000</v>
       </c>
       <c r="J100" s="3">
+        <v>340500</v>
+      </c>
+      <c r="K100" s="3">
         <v>280100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>273500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>2600</v>
-      </c>
       <c r="H101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>700</v>
-      </c>
       <c r="J101" s="3">
+        <v>600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-78300</v>
+        <v>-9600</v>
       </c>
       <c r="E102" s="3">
-        <v>-375300</v>
+        <v>-75600</v>
       </c>
       <c r="F102" s="3">
-        <v>459100</v>
+        <v>-362300</v>
       </c>
       <c r="G102" s="3">
-        <v>-4800</v>
+        <v>443200</v>
       </c>
       <c r="H102" s="3">
-        <v>5700</v>
+        <v>-4600</v>
       </c>
       <c r="I102" s="3">
-        <v>-102400</v>
+        <v>5500</v>
       </c>
       <c r="J102" s="3">
+        <v>-98800</v>
+      </c>
+      <c r="K102" s="3">
         <v>88600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-35100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>586000</v>
+        <v>613700</v>
       </c>
       <c r="E8" s="3">
-        <v>656400</v>
+        <v>687500</v>
       </c>
       <c r="F8" s="3">
-        <v>336200</v>
+        <v>352200</v>
       </c>
       <c r="G8" s="3">
-        <v>179400</v>
+        <v>187900</v>
       </c>
       <c r="H8" s="3">
-        <v>304600</v>
+        <v>319000</v>
       </c>
       <c r="I8" s="3">
-        <v>243700</v>
+        <v>255200</v>
       </c>
       <c r="J8" s="3">
-        <v>156900</v>
+        <v>164300</v>
       </c>
       <c r="K8" s="3">
         <v>121600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>342000</v>
+        <v>358200</v>
       </c>
       <c r="E9" s="3">
-        <v>344400</v>
+        <v>360700</v>
       </c>
       <c r="F9" s="3">
-        <v>157600</v>
+        <v>165100</v>
       </c>
       <c r="G9" s="3">
-        <v>111600</v>
+        <v>116800</v>
       </c>
       <c r="H9" s="3">
-        <v>113200</v>
+        <v>118600</v>
       </c>
       <c r="I9" s="3">
-        <v>77900</v>
+        <v>81600</v>
       </c>
       <c r="J9" s="3">
-        <v>67100</v>
+        <v>70300</v>
       </c>
       <c r="K9" s="3">
         <v>57100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>244000</v>
+        <v>255500</v>
       </c>
       <c r="E10" s="3">
-        <v>312000</v>
+        <v>326800</v>
       </c>
       <c r="F10" s="3">
-        <v>178600</v>
+        <v>187100</v>
       </c>
       <c r="G10" s="3">
-        <v>67800</v>
+        <v>71100</v>
       </c>
       <c r="H10" s="3">
-        <v>191400</v>
+        <v>200500</v>
       </c>
       <c r="I10" s="3">
-        <v>165800</v>
+        <v>173600</v>
       </c>
       <c r="J10" s="3">
-        <v>89800</v>
+        <v>94000</v>
       </c>
       <c r="K10" s="3">
         <v>64600</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="E12" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="F12" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="G12" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="H12" s="3">
-        <v>15400</v>
+        <v>16100</v>
       </c>
       <c r="I12" s="3">
-        <v>12500</v>
+        <v>13100</v>
       </c>
       <c r="J12" s="3">
-        <v>15300</v>
+        <v>16100</v>
       </c>
       <c r="K12" s="3">
         <v>16700</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E14" s="3">
-        <v>367000</v>
+        <v>384300</v>
       </c>
       <c r="F14" s="3">
-        <v>-51400</v>
+        <v>-53800</v>
       </c>
       <c r="G14" s="3">
-        <v>-66500</v>
+        <v>-69600</v>
       </c>
       <c r="H14" s="3">
-        <v>393600</v>
+        <v>412300</v>
       </c>
       <c r="I14" s="3">
-        <v>35200</v>
+        <v>36800</v>
       </c>
       <c r="J14" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="K14" s="3">
         <v>79900</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>265100</v>
+        <v>277600</v>
       </c>
       <c r="E15" s="3">
-        <v>345000</v>
+        <v>361300</v>
       </c>
       <c r="F15" s="3">
-        <v>219400</v>
+        <v>229800</v>
       </c>
       <c r="G15" s="3">
-        <v>157000</v>
+        <v>164500</v>
       </c>
       <c r="H15" s="3">
-        <v>265700</v>
+        <v>278200</v>
       </c>
       <c r="I15" s="3">
-        <v>152000</v>
+        <v>159200</v>
       </c>
       <c r="J15" s="3">
-        <v>113100</v>
+        <v>118500</v>
       </c>
       <c r="K15" s="3">
         <v>224100</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>558000</v>
+        <v>584400</v>
       </c>
       <c r="E17" s="3">
-        <v>1069900</v>
+        <v>1120600</v>
       </c>
       <c r="F17" s="3">
-        <v>196100</v>
+        <v>205400</v>
       </c>
       <c r="G17" s="3">
-        <v>-791000</v>
+        <v>-828400</v>
       </c>
       <c r="H17" s="3">
-        <v>954400</v>
+        <v>999600</v>
       </c>
       <c r="I17" s="3">
-        <v>300300</v>
+        <v>314600</v>
       </c>
       <c r="J17" s="3">
-        <v>256800</v>
+        <v>269000</v>
       </c>
       <c r="K17" s="3">
         <v>314900</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>28000</v>
+        <v>29300</v>
       </c>
       <c r="E18" s="3">
-        <v>-413500</v>
+        <v>-433100</v>
       </c>
       <c r="F18" s="3">
-        <v>140200</v>
+        <v>146800</v>
       </c>
       <c r="G18" s="3">
-        <v>970400</v>
+        <v>1016300</v>
       </c>
       <c r="H18" s="3">
-        <v>-649800</v>
+        <v>-680500</v>
       </c>
       <c r="I18" s="3">
-        <v>-56700</v>
+        <v>-59400</v>
       </c>
       <c r="J18" s="3">
-        <v>-99900</v>
+        <v>-104600</v>
       </c>
       <c r="K18" s="3">
         <v>-193200</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-10300</v>
+        <v>-10700</v>
       </c>
       <c r="E20" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="F20" s="3">
-        <v>45000</v>
+        <v>47200</v>
       </c>
       <c r="G20" s="3">
-        <v>-10100</v>
+        <v>-10600</v>
       </c>
       <c r="H20" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="I20" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J20" s="3">
-        <v>23100</v>
+        <v>24200</v>
       </c>
       <c r="K20" s="3">
         <v>126200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>283000</v>
+        <v>295600</v>
       </c>
       <c r="E21" s="3">
-        <v>303400</v>
+        <v>315500</v>
       </c>
       <c r="F21" s="3">
-        <v>462700</v>
+        <v>483700</v>
       </c>
       <c r="G21" s="3">
-        <v>1015800</v>
+        <v>1063700</v>
       </c>
       <c r="H21" s="3">
-        <v>-210300</v>
+        <v>-221700</v>
       </c>
       <c r="I21" s="3">
-        <v>112800</v>
+        <v>117700</v>
       </c>
       <c r="J21" s="3">
-        <v>34400</v>
+        <v>35700</v>
       </c>
       <c r="K21" s="3">
         <v>147000</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>17700</v>
+        <v>18600</v>
       </c>
       <c r="E23" s="3">
-        <v>-407400</v>
+        <v>-426700</v>
       </c>
       <c r="F23" s="3">
-        <v>185200</v>
+        <v>194000</v>
       </c>
       <c r="G23" s="3">
-        <v>960200</v>
+        <v>1005700</v>
       </c>
       <c r="H23" s="3">
-        <v>-664000</v>
+        <v>-695500</v>
       </c>
       <c r="I23" s="3">
-        <v>-54300</v>
+        <v>-56900</v>
       </c>
       <c r="J23" s="3">
-        <v>-76800</v>
+        <v>-80500</v>
       </c>
       <c r="K23" s="3">
         <v>-67000</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>81600</v>
+        <v>85500</v>
       </c>
       <c r="E24" s="3">
-        <v>-140600</v>
+        <v>-147200</v>
       </c>
       <c r="F24" s="3">
-        <v>-59600</v>
+        <v>-62400</v>
       </c>
       <c r="G24" s="3">
-        <v>113400</v>
+        <v>118800</v>
       </c>
       <c r="H24" s="3">
-        <v>-9100</v>
+        <v>-9500</v>
       </c>
       <c r="I24" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="J24" s="3">
-        <v>-13500</v>
+        <v>-14200</v>
       </c>
       <c r="K24" s="3">
         <v>-18300</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-63800</v>
+        <v>-66900</v>
       </c>
       <c r="E26" s="3">
-        <v>-266800</v>
+        <v>-279400</v>
       </c>
       <c r="F26" s="3">
-        <v>244800</v>
+        <v>256400</v>
       </c>
       <c r="G26" s="3">
-        <v>846800</v>
+        <v>886900</v>
       </c>
       <c r="H26" s="3">
-        <v>-655000</v>
+        <v>-686000</v>
       </c>
       <c r="I26" s="3">
-        <v>-52100</v>
+        <v>-54600</v>
       </c>
       <c r="J26" s="3">
-        <v>-63300</v>
+        <v>-66300</v>
       </c>
       <c r="K26" s="3">
         <v>-48700</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-63800</v>
+        <v>-66900</v>
       </c>
       <c r="E27" s="3">
-        <v>-266800</v>
+        <v>-279400</v>
       </c>
       <c r="F27" s="3">
-        <v>244800</v>
+        <v>256400</v>
       </c>
       <c r="G27" s="3">
-        <v>846800</v>
+        <v>886900</v>
       </c>
       <c r="H27" s="3">
-        <v>-655000</v>
+        <v>-686000</v>
       </c>
       <c r="I27" s="3">
-        <v>-52100</v>
+        <v>-54600</v>
       </c>
       <c r="J27" s="3">
-        <v>-63300</v>
+        <v>-66300</v>
       </c>
       <c r="K27" s="3">
         <v>-48700</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>20400</v>
+        <v>21300</v>
       </c>
       <c r="K29" s="3">
         <v>2100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="E32" s="3">
-        <v>-6100</v>
+        <v>-6400</v>
       </c>
       <c r="F32" s="3">
-        <v>-45000</v>
+        <v>-47200</v>
       </c>
       <c r="G32" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="H32" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="I32" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J32" s="3">
-        <v>-23100</v>
+        <v>-24200</v>
       </c>
       <c r="K32" s="3">
         <v>-126200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-63800</v>
+        <v>-66900</v>
       </c>
       <c r="E33" s="3">
-        <v>-266800</v>
+        <v>-279400</v>
       </c>
       <c r="F33" s="3">
-        <v>244800</v>
+        <v>256400</v>
       </c>
       <c r="G33" s="3">
-        <v>846800</v>
+        <v>886900</v>
       </c>
       <c r="H33" s="3">
-        <v>-655000</v>
+        <v>-686000</v>
       </c>
       <c r="I33" s="3">
-        <v>-52100</v>
+        <v>-54600</v>
       </c>
       <c r="J33" s="3">
-        <v>-42900</v>
+        <v>-45000</v>
       </c>
       <c r="K33" s="3">
         <v>-46600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-63800</v>
+        <v>-66900</v>
       </c>
       <c r="E35" s="3">
-        <v>-266800</v>
+        <v>-279400</v>
       </c>
       <c r="F35" s="3">
-        <v>244800</v>
+        <v>256400</v>
       </c>
       <c r="G35" s="3">
-        <v>846800</v>
+        <v>886900</v>
       </c>
       <c r="H35" s="3">
-        <v>-655000</v>
+        <v>-686000</v>
       </c>
       <c r="I35" s="3">
-        <v>-52100</v>
+        <v>-54600</v>
       </c>
       <c r="J35" s="3">
-        <v>-42900</v>
+        <v>-45000</v>
       </c>
       <c r="K35" s="3">
         <v>-46600</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="E41" s="3">
-        <v>14000</v>
+        <v>14700</v>
       </c>
       <c r="F41" s="3">
-        <v>89600</v>
+        <v>93900</v>
       </c>
       <c r="G41" s="3">
-        <v>451600</v>
+        <v>473300</v>
       </c>
       <c r="H41" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="I41" s="3">
-        <v>13300</v>
+        <v>13900</v>
       </c>
       <c r="J41" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="K41" s="3">
         <v>110400</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>86400</v>
+        <v>90600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>24</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>86200</v>
+        <v>90300</v>
       </c>
       <c r="E43" s="3">
-        <v>88100</v>
+        <v>92300</v>
       </c>
       <c r="F43" s="3">
-        <v>123700</v>
+        <v>129600</v>
       </c>
       <c r="G43" s="3">
-        <v>17400</v>
+        <v>18200</v>
       </c>
       <c r="H43" s="3">
-        <v>35400</v>
+        <v>37100</v>
       </c>
       <c r="I43" s="3">
-        <v>41400</v>
+        <v>43400</v>
       </c>
       <c r="J43" s="3">
-        <v>28500</v>
+        <v>29900</v>
       </c>
       <c r="K43" s="3">
         <v>24700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12400</v>
+        <v>13000</v>
       </c>
       <c r="E45" s="3">
-        <v>53800</v>
+        <v>56400</v>
       </c>
       <c r="F45" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="G45" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="H45" s="3">
-        <v>32900</v>
+        <v>34400</v>
       </c>
       <c r="I45" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="J45" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K45" s="3">
         <v>11200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>102900</v>
+        <v>107800</v>
       </c>
       <c r="E46" s="3">
-        <v>155900</v>
+        <v>163400</v>
       </c>
       <c r="F46" s="3">
-        <v>219800</v>
+        <v>230400</v>
       </c>
       <c r="G46" s="3">
-        <v>556700</v>
+        <v>583300</v>
       </c>
       <c r="H46" s="3">
-        <v>76900</v>
+        <v>80600</v>
       </c>
       <c r="I46" s="3">
-        <v>58300</v>
+        <v>61100</v>
       </c>
       <c r="J46" s="3">
-        <v>38000</v>
+        <v>39800</v>
       </c>
       <c r="K46" s="3">
         <v>146400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>117400</v>
+        <v>123000</v>
       </c>
       <c r="E47" s="3">
-        <v>168300</v>
+        <v>176400</v>
       </c>
       <c r="F47" s="3">
-        <v>38700</v>
+        <v>40600</v>
       </c>
       <c r="G47" s="3">
-        <v>78600</v>
+        <v>82400</v>
       </c>
       <c r="H47" s="3">
-        <v>86500</v>
+        <v>90600</v>
       </c>
       <c r="I47" s="3">
-        <v>134600</v>
+        <v>141100</v>
       </c>
       <c r="J47" s="3">
-        <v>181500</v>
+        <v>190300</v>
       </c>
       <c r="K47" s="3">
         <v>164700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1862500</v>
+        <v>1951800</v>
       </c>
       <c r="E48" s="3">
-        <v>2104800</v>
+        <v>2205700</v>
       </c>
       <c r="F48" s="3">
-        <v>2571400</v>
+        <v>2694700</v>
       </c>
       <c r="G48" s="3">
-        <v>860100</v>
+        <v>901300</v>
       </c>
       <c r="H48" s="3">
-        <v>1741700</v>
+        <v>1825200</v>
       </c>
       <c r="I48" s="3">
-        <v>1987100</v>
+        <v>2082300</v>
       </c>
       <c r="J48" s="3">
-        <v>1454700</v>
+        <v>1524400</v>
       </c>
       <c r="K48" s="3">
         <v>1116800</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I49" s="3">
-        <v>18000</v>
+        <v>18800</v>
       </c>
       <c r="J49" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K49" s="3">
         <v>2400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>481900</v>
+        <v>505000</v>
       </c>
       <c r="E52" s="3">
-        <v>561800</v>
+        <v>588800</v>
       </c>
       <c r="F52" s="3">
-        <v>424200</v>
+        <v>444500</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>112400</v>
+        <v>117800</v>
       </c>
       <c r="I52" s="3">
-        <v>125700</v>
+        <v>131800</v>
       </c>
       <c r="J52" s="3">
-        <v>101300</v>
+        <v>106200</v>
       </c>
       <c r="K52" s="3">
         <v>103200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2564700</v>
+        <v>2687600</v>
       </c>
       <c r="E54" s="3">
-        <v>2990900</v>
+        <v>3134200</v>
       </c>
       <c r="F54" s="3">
-        <v>3254100</v>
+        <v>3410100</v>
       </c>
       <c r="G54" s="3">
-        <v>1495400</v>
+        <v>1567100</v>
       </c>
       <c r="H54" s="3">
-        <v>2019800</v>
+        <v>2116600</v>
       </c>
       <c r="I54" s="3">
-        <v>2323600</v>
+        <v>2435100</v>
       </c>
       <c r="J54" s="3">
-        <v>1777800</v>
+        <v>1863000</v>
       </c>
       <c r="K54" s="3">
         <v>1533400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>129400</v>
+        <v>135600</v>
       </c>
       <c r="E57" s="3">
-        <v>136300</v>
+        <v>142800</v>
       </c>
       <c r="F57" s="3">
-        <v>161200</v>
+        <v>168900</v>
       </c>
       <c r="G57" s="3">
-        <v>58700</v>
+        <v>61500</v>
       </c>
       <c r="H57" s="3">
-        <v>71100</v>
+        <v>74500</v>
       </c>
       <c r="I57" s="3">
-        <v>183300</v>
+        <v>192100</v>
       </c>
       <c r="J57" s="3">
-        <v>139300</v>
+        <v>146000</v>
       </c>
       <c r="K57" s="3">
         <v>127600</v>
@@ -2177,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>24</v>
@@ -2189,13 +2189,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>73300</v>
+        <v>76800</v>
       </c>
       <c r="I58" s="3">
-        <v>59200</v>
+        <v>62100</v>
       </c>
       <c r="J58" s="3">
-        <v>54900</v>
+        <v>57500</v>
       </c>
       <c r="K58" s="3">
         <v>30600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42800</v>
+        <v>44800</v>
       </c>
       <c r="E59" s="3">
-        <v>54900</v>
+        <v>57500</v>
       </c>
       <c r="F59" s="3">
-        <v>45300</v>
+        <v>47500</v>
       </c>
       <c r="G59" s="3">
-        <v>96400</v>
+        <v>101000</v>
       </c>
       <c r="H59" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="I59" s="3">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="J59" s="3">
-        <v>18700</v>
+        <v>19600</v>
       </c>
       <c r="K59" s="3">
         <v>10900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>179300</v>
+        <v>187900</v>
       </c>
       <c r="E60" s="3">
-        <v>191200</v>
+        <v>200300</v>
       </c>
       <c r="F60" s="3">
-        <v>206400</v>
+        <v>216300</v>
       </c>
       <c r="G60" s="3">
-        <v>155200</v>
+        <v>162600</v>
       </c>
       <c r="H60" s="3">
-        <v>151500</v>
+        <v>158700</v>
       </c>
       <c r="I60" s="3">
-        <v>253000</v>
+        <v>265100</v>
       </c>
       <c r="J60" s="3">
-        <v>212900</v>
+        <v>223100</v>
       </c>
       <c r="K60" s="3">
         <v>169100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>475000</v>
+        <v>497800</v>
       </c>
       <c r="E61" s="3">
-        <v>591900</v>
+        <v>620300</v>
       </c>
       <c r="F61" s="3">
-        <v>509700</v>
+        <v>534100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1271100</v>
+        <v>1332100</v>
       </c>
       <c r="I61" s="3">
-        <v>879000</v>
+        <v>921200</v>
       </c>
       <c r="J61" s="3">
-        <v>641000</v>
+        <v>671700</v>
       </c>
       <c r="K61" s="3">
         <v>497400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>397400</v>
+        <v>416400</v>
       </c>
       <c r="E62" s="3">
-        <v>573300</v>
+        <v>600800</v>
       </c>
       <c r="F62" s="3">
-        <v>601600</v>
+        <v>630400</v>
       </c>
       <c r="G62" s="3">
-        <v>152900</v>
+        <v>160200</v>
       </c>
       <c r="H62" s="3">
-        <v>198700</v>
+        <v>208200</v>
       </c>
       <c r="I62" s="3">
-        <v>208700</v>
+        <v>218700</v>
       </c>
       <c r="J62" s="3">
-        <v>174200</v>
+        <v>182500</v>
       </c>
       <c r="K62" s="3">
         <v>226200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1051700</v>
+        <v>1102200</v>
       </c>
       <c r="E66" s="3">
-        <v>1356400</v>
+        <v>1421400</v>
       </c>
       <c r="F66" s="3">
-        <v>1317700</v>
+        <v>1380900</v>
       </c>
       <c r="G66" s="3">
-        <v>308100</v>
+        <v>322800</v>
       </c>
       <c r="H66" s="3">
-        <v>1621300</v>
+        <v>1699000</v>
       </c>
       <c r="I66" s="3">
-        <v>1340800</v>
+        <v>1405100</v>
       </c>
       <c r="J66" s="3">
-        <v>1028100</v>
+        <v>1077400</v>
       </c>
       <c r="K66" s="3">
         <v>892700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-93300</v>
+        <v>-97800</v>
       </c>
       <c r="E72" s="3">
-        <v>15400</v>
+        <v>16100</v>
       </c>
       <c r="F72" s="3">
-        <v>198200</v>
+        <v>207700</v>
       </c>
       <c r="G72" s="3">
-        <v>-110500</v>
+        <v>-115800</v>
       </c>
       <c r="H72" s="3">
-        <v>-869800</v>
+        <v>-911500</v>
       </c>
       <c r="I72" s="3">
-        <v>-215200</v>
+        <v>-225500</v>
       </c>
       <c r="J72" s="3">
-        <v>-163100</v>
+        <v>-170900</v>
       </c>
       <c r="K72" s="3">
         <v>-124600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1513000</v>
+        <v>1585500</v>
       </c>
       <c r="E76" s="3">
-        <v>1634500</v>
+        <v>1712900</v>
       </c>
       <c r="F76" s="3">
-        <v>1936400</v>
+        <v>2029300</v>
       </c>
       <c r="G76" s="3">
-        <v>1187300</v>
+        <v>1244200</v>
       </c>
       <c r="H76" s="3">
-        <v>398500</v>
+        <v>417600</v>
       </c>
       <c r="I76" s="3">
-        <v>982800</v>
+        <v>1030000</v>
       </c>
       <c r="J76" s="3">
-        <v>749700</v>
+        <v>785600</v>
       </c>
       <c r="K76" s="3">
         <v>640700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-63800</v>
+        <v>-66900</v>
       </c>
       <c r="E81" s="3">
-        <v>-266800</v>
+        <v>-279400</v>
       </c>
       <c r="F81" s="3">
-        <v>244800</v>
+        <v>256400</v>
       </c>
       <c r="G81" s="3">
-        <v>846800</v>
+        <v>886900</v>
       </c>
       <c r="H81" s="3">
-        <v>-655000</v>
+        <v>-686000</v>
       </c>
       <c r="I81" s="3">
-        <v>-52100</v>
+        <v>-54600</v>
       </c>
       <c r="J81" s="3">
-        <v>-42900</v>
+        <v>-45000</v>
       </c>
       <c r="K81" s="3">
         <v>-46600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>265100</v>
+        <v>277600</v>
       </c>
       <c r="E83" s="3">
-        <v>710200</v>
+        <v>743800</v>
       </c>
       <c r="F83" s="3">
-        <v>277200</v>
+        <v>290400</v>
       </c>
       <c r="G83" s="3">
-        <v>55500</v>
+        <v>58200</v>
       </c>
       <c r="H83" s="3">
-        <v>453400</v>
+        <v>474800</v>
       </c>
       <c r="I83" s="3">
-        <v>167000</v>
+        <v>174900</v>
       </c>
       <c r="J83" s="3">
-        <v>111100</v>
+        <v>116400</v>
       </c>
       <c r="K83" s="3">
         <v>213900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>185800</v>
+        <v>194600</v>
       </c>
       <c r="E89" s="3">
-        <v>162400</v>
+        <v>170000</v>
       </c>
       <c r="F89" s="3">
-        <v>91800</v>
+        <v>96100</v>
       </c>
       <c r="G89" s="3">
-        <v>33200</v>
+        <v>34800</v>
       </c>
       <c r="H89" s="3">
-        <v>61200</v>
+        <v>64100</v>
       </c>
       <c r="I89" s="3">
-        <v>86100</v>
+        <v>90200</v>
       </c>
       <c r="J89" s="3">
-        <v>32600</v>
+        <v>34200</v>
       </c>
       <c r="K89" s="3">
         <v>41600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-293700</v>
+        <v>-307600</v>
       </c>
       <c r="E91" s="3">
-        <v>-421700</v>
+        <v>-441600</v>
       </c>
       <c r="F91" s="3">
-        <v>-396100</v>
+        <v>-414900</v>
       </c>
       <c r="G91" s="3">
-        <v>-146100</v>
+        <v>-153000</v>
       </c>
       <c r="H91" s="3">
-        <v>-359000</v>
+        <v>-376000</v>
       </c>
       <c r="I91" s="3">
-        <v>-684200</v>
+        <v>-716500</v>
       </c>
       <c r="J91" s="3">
-        <v>-535000</v>
+        <v>-560300</v>
       </c>
       <c r="K91" s="3">
         <v>-469500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71600</v>
+        <v>-75000</v>
       </c>
       <c r="E94" s="3">
-        <v>-269900</v>
+        <v>-282700</v>
       </c>
       <c r="F94" s="3">
-        <v>-621500</v>
+        <v>-650900</v>
       </c>
       <c r="G94" s="3">
-        <v>1332300</v>
+        <v>1395400</v>
       </c>
       <c r="H94" s="3">
-        <v>-450400</v>
+        <v>-471700</v>
       </c>
       <c r="I94" s="3">
-        <v>-576700</v>
+        <v>-604000</v>
       </c>
       <c r="J94" s="3">
-        <v>-472600</v>
+        <v>-495000</v>
       </c>
       <c r="K94" s="3">
         <v>-232500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-123700</v>
+        <v>-129600</v>
       </c>
       <c r="E100" s="3">
-        <v>30200</v>
+        <v>31600</v>
       </c>
       <c r="F100" s="3">
-        <v>168500</v>
+        <v>176500</v>
       </c>
       <c r="G100" s="3">
-        <v>-922100</v>
+        <v>-965800</v>
       </c>
       <c r="H100" s="3">
-        <v>382000</v>
+        <v>400100</v>
       </c>
       <c r="I100" s="3">
-        <v>496000</v>
+        <v>519500</v>
       </c>
       <c r="J100" s="3">
-        <v>340500</v>
+        <v>356600</v>
       </c>
       <c r="K100" s="3">
         <v>280100</v>
@@ -3466,7 +3466,7 @@
         <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F101" s="3">
         <v>-1100</v>
@@ -3475,13 +3475,13 @@
         <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9600</v>
+        <v>-10100</v>
       </c>
       <c r="E102" s="3">
-        <v>-75600</v>
+        <v>-79200</v>
       </c>
       <c r="F102" s="3">
-        <v>-362300</v>
+        <v>-379400</v>
       </c>
       <c r="G102" s="3">
-        <v>443200</v>
+        <v>464200</v>
       </c>
       <c r="H102" s="3">
-        <v>-4600</v>
+        <v>-4900</v>
       </c>
       <c r="I102" s="3">
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="J102" s="3">
-        <v>-98800</v>
+        <v>-103500</v>
       </c>
       <c r="K102" s="3">
         <v>88600</v>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>613700</v>
+        <v>620800</v>
       </c>
       <c r="E8" s="3">
-        <v>687500</v>
+        <v>695400</v>
       </c>
       <c r="F8" s="3">
-        <v>352200</v>
+        <v>356200</v>
       </c>
       <c r="G8" s="3">
-        <v>187900</v>
+        <v>190000</v>
       </c>
       <c r="H8" s="3">
-        <v>319000</v>
+        <v>322700</v>
       </c>
       <c r="I8" s="3">
-        <v>255200</v>
+        <v>258100</v>
       </c>
       <c r="J8" s="3">
-        <v>164300</v>
+        <v>166200</v>
       </c>
       <c r="K8" s="3">
         <v>121600</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>358200</v>
+        <v>362300</v>
       </c>
       <c r="E9" s="3">
-        <v>360700</v>
+        <v>364900</v>
       </c>
       <c r="F9" s="3">
-        <v>165100</v>
+        <v>167000</v>
       </c>
       <c r="G9" s="3">
-        <v>116800</v>
+        <v>118200</v>
       </c>
       <c r="H9" s="3">
-        <v>118600</v>
+        <v>119900</v>
       </c>
       <c r="I9" s="3">
-        <v>81600</v>
+        <v>82500</v>
       </c>
       <c r="J9" s="3">
-        <v>70300</v>
+        <v>71100</v>
       </c>
       <c r="K9" s="3">
         <v>57100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>255500</v>
+        <v>258500</v>
       </c>
       <c r="E10" s="3">
-        <v>326800</v>
+        <v>330500</v>
       </c>
       <c r="F10" s="3">
-        <v>187100</v>
+        <v>189200</v>
       </c>
       <c r="G10" s="3">
-        <v>71100</v>
+        <v>71900</v>
       </c>
       <c r="H10" s="3">
-        <v>200500</v>
+        <v>202800</v>
       </c>
       <c r="I10" s="3">
-        <v>173600</v>
+        <v>175600</v>
       </c>
       <c r="J10" s="3">
-        <v>94000</v>
+        <v>95100</v>
       </c>
       <c r="K10" s="3">
         <v>64600</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="E12" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="F12" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="G12" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="H12" s="3">
-        <v>16100</v>
+        <v>16300</v>
       </c>
       <c r="I12" s="3">
-        <v>13100</v>
+        <v>13300</v>
       </c>
       <c r="J12" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="K12" s="3">
         <v>16700</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E14" s="3">
-        <v>384300</v>
+        <v>388700</v>
       </c>
       <c r="F14" s="3">
-        <v>-53800</v>
+        <v>-54400</v>
       </c>
       <c r="G14" s="3">
-        <v>-69600</v>
+        <v>-70400</v>
       </c>
       <c r="H14" s="3">
-        <v>412300</v>
+        <v>417000</v>
       </c>
       <c r="I14" s="3">
-        <v>36800</v>
+        <v>37300</v>
       </c>
       <c r="J14" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="K14" s="3">
         <v>79900</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>277600</v>
+        <v>280800</v>
       </c>
       <c r="E15" s="3">
-        <v>361300</v>
+        <v>365500</v>
       </c>
       <c r="F15" s="3">
-        <v>229800</v>
+        <v>232400</v>
       </c>
       <c r="G15" s="3">
-        <v>164500</v>
+        <v>166300</v>
       </c>
       <c r="H15" s="3">
-        <v>278200</v>
+        <v>281400</v>
       </c>
       <c r="I15" s="3">
-        <v>159200</v>
+        <v>161000</v>
       </c>
       <c r="J15" s="3">
-        <v>118500</v>
+        <v>119900</v>
       </c>
       <c r="K15" s="3">
         <v>224100</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>584400</v>
+        <v>591100</v>
       </c>
       <c r="E17" s="3">
-        <v>1120600</v>
+        <v>1133500</v>
       </c>
       <c r="F17" s="3">
-        <v>205400</v>
+        <v>207700</v>
       </c>
       <c r="G17" s="3">
-        <v>-828400</v>
+        <v>-837900</v>
       </c>
       <c r="H17" s="3">
-        <v>999600</v>
+        <v>1011000</v>
       </c>
       <c r="I17" s="3">
-        <v>314600</v>
+        <v>318200</v>
       </c>
       <c r="J17" s="3">
-        <v>269000</v>
+        <v>272100</v>
       </c>
       <c r="K17" s="3">
         <v>314900</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>29300</v>
+        <v>29700</v>
       </c>
       <c r="E18" s="3">
-        <v>-433100</v>
+        <v>-438100</v>
       </c>
       <c r="F18" s="3">
-        <v>146800</v>
+        <v>148500</v>
       </c>
       <c r="G18" s="3">
-        <v>1016300</v>
+        <v>1027900</v>
       </c>
       <c r="H18" s="3">
-        <v>-680500</v>
+        <v>-688300</v>
       </c>
       <c r="I18" s="3">
-        <v>-59400</v>
+        <v>-60000</v>
       </c>
       <c r="J18" s="3">
-        <v>-104600</v>
+        <v>-105800</v>
       </c>
       <c r="K18" s="3">
         <v>-193200</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>47700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-10700</v>
       </c>
-      <c r="E20" s="3">
-        <v>6400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>47200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H20" s="3">
-        <v>-14900</v>
+        <v>-15100</v>
       </c>
       <c r="I20" s="3">
         <v>2500</v>
       </c>
       <c r="J20" s="3">
-        <v>24200</v>
+        <v>24500</v>
       </c>
       <c r="K20" s="3">
         <v>126200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>295600</v>
+        <v>299100</v>
       </c>
       <c r="E21" s="3">
-        <v>315500</v>
+        <v>319400</v>
       </c>
       <c r="F21" s="3">
-        <v>483700</v>
+        <v>489400</v>
       </c>
       <c r="G21" s="3">
-        <v>1063700</v>
+        <v>1075900</v>
       </c>
       <c r="H21" s="3">
-        <v>-221700</v>
+        <v>-224000</v>
       </c>
       <c r="I21" s="3">
-        <v>117700</v>
+        <v>119100</v>
       </c>
       <c r="J21" s="3">
-        <v>35700</v>
+        <v>36100</v>
       </c>
       <c r="K21" s="3">
         <v>147000</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>18600</v>
+        <v>18800</v>
       </c>
       <c r="E23" s="3">
-        <v>-426700</v>
+        <v>-431600</v>
       </c>
       <c r="F23" s="3">
-        <v>194000</v>
+        <v>196200</v>
       </c>
       <c r="G23" s="3">
-        <v>1005700</v>
+        <v>1017200</v>
       </c>
       <c r="H23" s="3">
-        <v>-695500</v>
+        <v>-703500</v>
       </c>
       <c r="I23" s="3">
-        <v>-56900</v>
+        <v>-57500</v>
       </c>
       <c r="J23" s="3">
-        <v>-80500</v>
+        <v>-81400</v>
       </c>
       <c r="K23" s="3">
         <v>-67000</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>85500</v>
+        <v>86400</v>
       </c>
       <c r="E24" s="3">
-        <v>-147200</v>
+        <v>-148900</v>
       </c>
       <c r="F24" s="3">
-        <v>-62400</v>
+        <v>-63200</v>
       </c>
       <c r="G24" s="3">
-        <v>118800</v>
+        <v>120200</v>
       </c>
       <c r="H24" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="I24" s="3">
         <v>-2300</v>
       </c>
       <c r="J24" s="3">
-        <v>-14200</v>
+        <v>-14300</v>
       </c>
       <c r="K24" s="3">
         <v>-18300</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-66900</v>
+        <v>-67600</v>
       </c>
       <c r="E26" s="3">
-        <v>-279400</v>
+        <v>-282600</v>
       </c>
       <c r="F26" s="3">
-        <v>256400</v>
+        <v>259300</v>
       </c>
       <c r="G26" s="3">
-        <v>886900</v>
+        <v>897100</v>
       </c>
       <c r="H26" s="3">
-        <v>-686000</v>
+        <v>-693800</v>
       </c>
       <c r="I26" s="3">
-        <v>-54600</v>
+        <v>-55200</v>
       </c>
       <c r="J26" s="3">
-        <v>-66300</v>
+        <v>-67100</v>
       </c>
       <c r="K26" s="3">
         <v>-48700</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-66900</v>
+        <v>-67600</v>
       </c>
       <c r="E27" s="3">
-        <v>-279400</v>
+        <v>-282600</v>
       </c>
       <c r="F27" s="3">
-        <v>256400</v>
+        <v>259300</v>
       </c>
       <c r="G27" s="3">
-        <v>886900</v>
+        <v>897100</v>
       </c>
       <c r="H27" s="3">
-        <v>-686000</v>
+        <v>-693800</v>
       </c>
       <c r="I27" s="3">
-        <v>-54600</v>
+        <v>-55200</v>
       </c>
       <c r="J27" s="3">
-        <v>-66300</v>
+        <v>-67100</v>
       </c>
       <c r="K27" s="3">
         <v>-48700</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>21300</v>
+        <v>21600</v>
       </c>
       <c r="K29" s="3">
         <v>2100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="G32" s="3">
         <v>10700</v>
       </c>
-      <c r="E32" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-47200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>10600</v>
-      </c>
       <c r="H32" s="3">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="I32" s="3">
         <v>-2500</v>
       </c>
       <c r="J32" s="3">
-        <v>-24200</v>
+        <v>-24500</v>
       </c>
       <c r="K32" s="3">
         <v>-126200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-66900</v>
+        <v>-67600</v>
       </c>
       <c r="E33" s="3">
-        <v>-279400</v>
+        <v>-282600</v>
       </c>
       <c r="F33" s="3">
-        <v>256400</v>
+        <v>259300</v>
       </c>
       <c r="G33" s="3">
-        <v>886900</v>
+        <v>897100</v>
       </c>
       <c r="H33" s="3">
-        <v>-686000</v>
+        <v>-693800</v>
       </c>
       <c r="I33" s="3">
-        <v>-54600</v>
+        <v>-55200</v>
       </c>
       <c r="J33" s="3">
-        <v>-45000</v>
+        <v>-45500</v>
       </c>
       <c r="K33" s="3">
         <v>-46600</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-66900</v>
+        <v>-67600</v>
       </c>
       <c r="E35" s="3">
-        <v>-279400</v>
+        <v>-282600</v>
       </c>
       <c r="F35" s="3">
-        <v>256400</v>
+        <v>259300</v>
       </c>
       <c r="G35" s="3">
-        <v>886900</v>
+        <v>897100</v>
       </c>
       <c r="H35" s="3">
-        <v>-686000</v>
+        <v>-693800</v>
       </c>
       <c r="I35" s="3">
-        <v>-54600</v>
+        <v>-55200</v>
       </c>
       <c r="J35" s="3">
-        <v>-45000</v>
+        <v>-45500</v>
       </c>
       <c r="K35" s="3">
         <v>-46600</v>
@@ -1655,22 +1655,22 @@
         <v>4600</v>
       </c>
       <c r="E41" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="F41" s="3">
-        <v>93900</v>
+        <v>94900</v>
       </c>
       <c r="G41" s="3">
-        <v>473300</v>
+        <v>478700</v>
       </c>
       <c r="H41" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="I41" s="3">
-        <v>13900</v>
+        <v>14100</v>
       </c>
       <c r="J41" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="K41" s="3">
         <v>110400</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>90600</v>
+        <v>91600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>24</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>90300</v>
+        <v>91300</v>
       </c>
       <c r="E43" s="3">
-        <v>92300</v>
+        <v>93400</v>
       </c>
       <c r="F43" s="3">
-        <v>129600</v>
+        <v>131100</v>
       </c>
       <c r="G43" s="3">
-        <v>18200</v>
+        <v>18400</v>
       </c>
       <c r="H43" s="3">
-        <v>37100</v>
+        <v>37500</v>
       </c>
       <c r="I43" s="3">
-        <v>43400</v>
+        <v>43900</v>
       </c>
       <c r="J43" s="3">
-        <v>29900</v>
+        <v>30300</v>
       </c>
       <c r="K43" s="3">
         <v>24700</v>
@@ -1784,22 +1784,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="E45" s="3">
-        <v>56400</v>
+        <v>57000</v>
       </c>
       <c r="F45" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="G45" s="3">
         <v>1300</v>
       </c>
       <c r="H45" s="3">
-        <v>34400</v>
+        <v>34800</v>
       </c>
       <c r="I45" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J45" s="3">
         <v>1700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>107800</v>
+        <v>109100</v>
       </c>
       <c r="E46" s="3">
-        <v>163400</v>
+        <v>165300</v>
       </c>
       <c r="F46" s="3">
-        <v>230400</v>
+        <v>233000</v>
       </c>
       <c r="G46" s="3">
-        <v>583300</v>
+        <v>590000</v>
       </c>
       <c r="H46" s="3">
-        <v>80600</v>
+        <v>81500</v>
       </c>
       <c r="I46" s="3">
-        <v>61100</v>
+        <v>61800</v>
       </c>
       <c r="J46" s="3">
-        <v>39800</v>
+        <v>40200</v>
       </c>
       <c r="K46" s="3">
         <v>146400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>123000</v>
+        <v>124400</v>
       </c>
       <c r="E47" s="3">
-        <v>176400</v>
+        <v>178400</v>
       </c>
       <c r="F47" s="3">
-        <v>40600</v>
+        <v>41000</v>
       </c>
       <c r="G47" s="3">
-        <v>82400</v>
+        <v>83300</v>
       </c>
       <c r="H47" s="3">
-        <v>90600</v>
+        <v>91700</v>
       </c>
       <c r="I47" s="3">
-        <v>141100</v>
+        <v>142700</v>
       </c>
       <c r="J47" s="3">
-        <v>190300</v>
+        <v>192400</v>
       </c>
       <c r="K47" s="3">
         <v>164700</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1951800</v>
+        <v>1974200</v>
       </c>
       <c r="E48" s="3">
-        <v>2205700</v>
+        <v>2231000</v>
       </c>
       <c r="F48" s="3">
-        <v>2694700</v>
+        <v>2725600</v>
       </c>
       <c r="G48" s="3">
-        <v>901300</v>
+        <v>911700</v>
       </c>
       <c r="H48" s="3">
-        <v>1825200</v>
+        <v>1846100</v>
       </c>
       <c r="I48" s="3">
-        <v>2082300</v>
+        <v>2106200</v>
       </c>
       <c r="J48" s="3">
-        <v>1524400</v>
+        <v>1541900</v>
       </c>
       <c r="K48" s="3">
         <v>1116800</v>
@@ -1931,7 +1931,7 @@
         <v>2400</v>
       </c>
       <c r="I49" s="3">
-        <v>18800</v>
+        <v>19000</v>
       </c>
       <c r="J49" s="3">
         <v>2400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>505000</v>
+        <v>510800</v>
       </c>
       <c r="E52" s="3">
-        <v>588800</v>
+        <v>595500</v>
       </c>
       <c r="F52" s="3">
-        <v>444500</v>
+        <v>449600</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>117800</v>
+        <v>119200</v>
       </c>
       <c r="I52" s="3">
-        <v>131800</v>
+        <v>133300</v>
       </c>
       <c r="J52" s="3">
-        <v>106200</v>
+        <v>107400</v>
       </c>
       <c r="K52" s="3">
         <v>103200</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2687600</v>
+        <v>2718500</v>
       </c>
       <c r="E54" s="3">
-        <v>3134200</v>
+        <v>3170200</v>
       </c>
       <c r="F54" s="3">
-        <v>3410100</v>
+        <v>3449200</v>
       </c>
       <c r="G54" s="3">
-        <v>1567100</v>
+        <v>1585000</v>
       </c>
       <c r="H54" s="3">
-        <v>2116600</v>
+        <v>2140900</v>
       </c>
       <c r="I54" s="3">
-        <v>2435100</v>
+        <v>2463000</v>
       </c>
       <c r="J54" s="3">
-        <v>1863000</v>
+        <v>1884400</v>
       </c>
       <c r="K54" s="3">
         <v>1533400</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>135600</v>
+        <v>137100</v>
       </c>
       <c r="E57" s="3">
-        <v>142800</v>
+        <v>144500</v>
       </c>
       <c r="F57" s="3">
-        <v>168900</v>
+        <v>170800</v>
       </c>
       <c r="G57" s="3">
-        <v>61500</v>
+        <v>62300</v>
       </c>
       <c r="H57" s="3">
-        <v>74500</v>
+        <v>75400</v>
       </c>
       <c r="I57" s="3">
-        <v>192100</v>
+        <v>194300</v>
       </c>
       <c r="J57" s="3">
-        <v>146000</v>
+        <v>147600</v>
       </c>
       <c r="K57" s="3">
         <v>127600</v>
@@ -2177,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>24</v>
@@ -2189,13 +2189,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>76800</v>
+        <v>77700</v>
       </c>
       <c r="I58" s="3">
-        <v>62100</v>
+        <v>62800</v>
       </c>
       <c r="J58" s="3">
-        <v>57500</v>
+        <v>58200</v>
       </c>
       <c r="K58" s="3">
         <v>30600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44800</v>
+        <v>45300</v>
       </c>
       <c r="E59" s="3">
-        <v>57500</v>
+        <v>58200</v>
       </c>
       <c r="F59" s="3">
-        <v>47500</v>
+        <v>48000</v>
       </c>
       <c r="G59" s="3">
-        <v>101000</v>
+        <v>102200</v>
       </c>
       <c r="H59" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I59" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="J59" s="3">
-        <v>19600</v>
+        <v>19800</v>
       </c>
       <c r="K59" s="3">
         <v>10900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>187900</v>
+        <v>190000</v>
       </c>
       <c r="E60" s="3">
-        <v>200300</v>
+        <v>202600</v>
       </c>
       <c r="F60" s="3">
-        <v>216300</v>
+        <v>218800</v>
       </c>
       <c r="G60" s="3">
-        <v>162600</v>
+        <v>164500</v>
       </c>
       <c r="H60" s="3">
-        <v>158700</v>
+        <v>160500</v>
       </c>
       <c r="I60" s="3">
-        <v>265100</v>
+        <v>268200</v>
       </c>
       <c r="J60" s="3">
-        <v>223100</v>
+        <v>225600</v>
       </c>
       <c r="K60" s="3">
         <v>169100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>497800</v>
+        <v>503500</v>
       </c>
       <c r="E61" s="3">
-        <v>620300</v>
+        <v>627400</v>
       </c>
       <c r="F61" s="3">
-        <v>534100</v>
+        <v>540200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1332100</v>
+        <v>1347400</v>
       </c>
       <c r="I61" s="3">
-        <v>921200</v>
+        <v>931800</v>
       </c>
       <c r="J61" s="3">
-        <v>671700</v>
+        <v>679400</v>
       </c>
       <c r="K61" s="3">
         <v>497400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>416400</v>
+        <v>421200</v>
       </c>
       <c r="E62" s="3">
-        <v>600800</v>
+        <v>607700</v>
       </c>
       <c r="F62" s="3">
-        <v>630400</v>
+        <v>637700</v>
       </c>
       <c r="G62" s="3">
-        <v>160200</v>
+        <v>162100</v>
       </c>
       <c r="H62" s="3">
-        <v>208200</v>
+        <v>210600</v>
       </c>
       <c r="I62" s="3">
-        <v>218700</v>
+        <v>221300</v>
       </c>
       <c r="J62" s="3">
-        <v>182500</v>
+        <v>184600</v>
       </c>
       <c r="K62" s="3">
         <v>226200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1102200</v>
+        <v>1114800</v>
       </c>
       <c r="E66" s="3">
-        <v>1421400</v>
+        <v>1437700</v>
       </c>
       <c r="F66" s="3">
-        <v>1380900</v>
+        <v>1396700</v>
       </c>
       <c r="G66" s="3">
-        <v>322800</v>
+        <v>326500</v>
       </c>
       <c r="H66" s="3">
-        <v>1699000</v>
+        <v>1718500</v>
       </c>
       <c r="I66" s="3">
-        <v>1405100</v>
+        <v>1421200</v>
       </c>
       <c r="J66" s="3">
-        <v>1077400</v>
+        <v>1089700</v>
       </c>
       <c r="K66" s="3">
         <v>892700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-97800</v>
+        <v>-98900</v>
       </c>
       <c r="E72" s="3">
-        <v>16100</v>
+        <v>16300</v>
       </c>
       <c r="F72" s="3">
-        <v>207700</v>
+        <v>210100</v>
       </c>
       <c r="G72" s="3">
-        <v>-115800</v>
+        <v>-117200</v>
       </c>
       <c r="H72" s="3">
-        <v>-911500</v>
+        <v>-922000</v>
       </c>
       <c r="I72" s="3">
-        <v>-225500</v>
+        <v>-228100</v>
       </c>
       <c r="J72" s="3">
-        <v>-170900</v>
+        <v>-172900</v>
       </c>
       <c r="K72" s="3">
         <v>-124600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1585500</v>
+        <v>1603700</v>
       </c>
       <c r="E76" s="3">
-        <v>1712900</v>
+        <v>1732500</v>
       </c>
       <c r="F76" s="3">
-        <v>2029300</v>
+        <v>2052500</v>
       </c>
       <c r="G76" s="3">
-        <v>1244200</v>
+        <v>1258500</v>
       </c>
       <c r="H76" s="3">
-        <v>417600</v>
+        <v>422400</v>
       </c>
       <c r="I76" s="3">
-        <v>1030000</v>
+        <v>1041800</v>
       </c>
       <c r="J76" s="3">
-        <v>785600</v>
+        <v>794600</v>
       </c>
       <c r="K76" s="3">
         <v>640700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-66900</v>
+        <v>-67600</v>
       </c>
       <c r="E81" s="3">
-        <v>-279400</v>
+        <v>-282600</v>
       </c>
       <c r="F81" s="3">
-        <v>256400</v>
+        <v>259300</v>
       </c>
       <c r="G81" s="3">
-        <v>886900</v>
+        <v>897100</v>
       </c>
       <c r="H81" s="3">
-        <v>-686000</v>
+        <v>-693800</v>
       </c>
       <c r="I81" s="3">
-        <v>-54600</v>
+        <v>-55200</v>
       </c>
       <c r="J81" s="3">
-        <v>-45000</v>
+        <v>-45500</v>
       </c>
       <c r="K81" s="3">
         <v>-46600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>277600</v>
+        <v>280800</v>
       </c>
       <c r="E83" s="3">
-        <v>743800</v>
+        <v>752300</v>
       </c>
       <c r="F83" s="3">
-        <v>290400</v>
+        <v>293700</v>
       </c>
       <c r="G83" s="3">
-        <v>58200</v>
+        <v>58800</v>
       </c>
       <c r="H83" s="3">
-        <v>474800</v>
+        <v>480300</v>
       </c>
       <c r="I83" s="3">
-        <v>174900</v>
+        <v>176900</v>
       </c>
       <c r="J83" s="3">
-        <v>116400</v>
+        <v>117700</v>
       </c>
       <c r="K83" s="3">
         <v>213900</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>194600</v>
+        <v>196800</v>
       </c>
       <c r="E89" s="3">
-        <v>170000</v>
+        <v>172000</v>
       </c>
       <c r="F89" s="3">
-        <v>96100</v>
+        <v>97200</v>
       </c>
       <c r="G89" s="3">
-        <v>34800</v>
+        <v>35200</v>
       </c>
       <c r="H89" s="3">
-        <v>64100</v>
+        <v>64900</v>
       </c>
       <c r="I89" s="3">
-        <v>90200</v>
+        <v>91200</v>
       </c>
       <c r="J89" s="3">
-        <v>34200</v>
+        <v>34600</v>
       </c>
       <c r="K89" s="3">
         <v>41600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-307600</v>
+        <v>-311100</v>
       </c>
       <c r="E91" s="3">
-        <v>-441600</v>
+        <v>-446700</v>
       </c>
       <c r="F91" s="3">
-        <v>-414900</v>
+        <v>-419600</v>
       </c>
       <c r="G91" s="3">
-        <v>-153000</v>
+        <v>-154700</v>
       </c>
       <c r="H91" s="3">
-        <v>-376000</v>
+        <v>-380300</v>
       </c>
       <c r="I91" s="3">
-        <v>-716500</v>
+        <v>-724800</v>
       </c>
       <c r="J91" s="3">
-        <v>-560300</v>
+        <v>-566700</v>
       </c>
       <c r="K91" s="3">
         <v>-469500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-75000</v>
+        <v>-75800</v>
       </c>
       <c r="E94" s="3">
-        <v>-282700</v>
+        <v>-286000</v>
       </c>
       <c r="F94" s="3">
-        <v>-650900</v>
+        <v>-658400</v>
       </c>
       <c r="G94" s="3">
-        <v>1395400</v>
+        <v>1411400</v>
       </c>
       <c r="H94" s="3">
-        <v>-471700</v>
+        <v>-477200</v>
       </c>
       <c r="I94" s="3">
-        <v>-604000</v>
+        <v>-610900</v>
       </c>
       <c r="J94" s="3">
-        <v>-495000</v>
+        <v>-500600</v>
       </c>
       <c r="K94" s="3">
         <v>-232500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-129600</v>
+        <v>-131000</v>
       </c>
       <c r="E100" s="3">
-        <v>31600</v>
+        <v>32000</v>
       </c>
       <c r="F100" s="3">
-        <v>176500</v>
+        <v>178500</v>
       </c>
       <c r="G100" s="3">
-        <v>-965800</v>
+        <v>-976800</v>
       </c>
       <c r="H100" s="3">
-        <v>400100</v>
+        <v>404700</v>
       </c>
       <c r="I100" s="3">
-        <v>519500</v>
+        <v>525500</v>
       </c>
       <c r="J100" s="3">
-        <v>356600</v>
+        <v>360700</v>
       </c>
       <c r="K100" s="3">
         <v>280100</v>
@@ -3475,7 +3475,7 @@
         <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="E102" s="3">
-        <v>-79200</v>
+        <v>-80100</v>
       </c>
       <c r="F102" s="3">
-        <v>-379400</v>
+        <v>-383800</v>
       </c>
       <c r="G102" s="3">
-        <v>464200</v>
+        <v>469500</v>
       </c>
       <c r="H102" s="3">
         <v>-4900</v>
       </c>
       <c r="I102" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="J102" s="3">
-        <v>-103500</v>
+        <v>-104700</v>
       </c>
       <c r="K102" s="3">
         <v>88600</v>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>PRMRF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>620800</v>
+        <v>478700</v>
       </c>
       <c r="E8" s="3">
-        <v>695400</v>
+        <v>639500</v>
       </c>
       <c r="F8" s="3">
-        <v>356200</v>
+        <v>716300</v>
       </c>
       <c r="G8" s="3">
-        <v>190000</v>
+        <v>366900</v>
       </c>
       <c r="H8" s="3">
-        <v>322700</v>
+        <v>195800</v>
       </c>
       <c r="I8" s="3">
-        <v>258100</v>
+        <v>332400</v>
       </c>
       <c r="J8" s="3">
+        <v>265900</v>
+      </c>
+      <c r="K8" s="3">
         <v>166200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>121600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>149200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>362300</v>
+        <v>315900</v>
       </c>
       <c r="E9" s="3">
-        <v>364900</v>
+        <v>373200</v>
       </c>
       <c r="F9" s="3">
-        <v>167000</v>
+        <v>375900</v>
       </c>
       <c r="G9" s="3">
-        <v>118200</v>
+        <v>172000</v>
       </c>
       <c r="H9" s="3">
-        <v>119900</v>
+        <v>121700</v>
       </c>
       <c r="I9" s="3">
-        <v>82500</v>
+        <v>123500</v>
       </c>
       <c r="J9" s="3">
+        <v>85000</v>
+      </c>
+      <c r="K9" s="3">
         <v>71100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>57100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>63700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>258500</v>
+        <v>162800</v>
       </c>
       <c r="E10" s="3">
-        <v>330500</v>
+        <v>266200</v>
       </c>
       <c r="F10" s="3">
-        <v>189200</v>
+        <v>340500</v>
       </c>
       <c r="G10" s="3">
-        <v>71900</v>
+        <v>195000</v>
       </c>
       <c r="H10" s="3">
-        <v>202800</v>
+        <v>74000</v>
       </c>
       <c r="I10" s="3">
-        <v>175600</v>
+        <v>208900</v>
       </c>
       <c r="J10" s="3">
+        <v>180900</v>
+      </c>
+      <c r="K10" s="3">
         <v>95100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>64600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>85500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>8500</v>
+        <v>6600</v>
       </c>
       <c r="E12" s="3">
-        <v>9600</v>
+        <v>8700</v>
       </c>
       <c r="F12" s="3">
-        <v>7200</v>
+        <v>9900</v>
       </c>
       <c r="G12" s="3">
-        <v>13800</v>
+        <v>7400</v>
       </c>
       <c r="H12" s="3">
-        <v>16300</v>
+        <v>14200</v>
       </c>
       <c r="I12" s="3">
-        <v>13300</v>
+        <v>16800</v>
       </c>
       <c r="J12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K12" s="3">
         <v>16200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20900</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3700</v>
+        <v>-106400</v>
       </c>
       <c r="E14" s="3">
-        <v>388700</v>
+        <v>3800</v>
       </c>
       <c r="F14" s="3">
-        <v>-54400</v>
+        <v>400500</v>
       </c>
       <c r="G14" s="3">
-        <v>-70400</v>
+        <v>-56100</v>
       </c>
       <c r="H14" s="3">
-        <v>417000</v>
+        <v>-72500</v>
       </c>
       <c r="I14" s="3">
-        <v>37300</v>
+        <v>429600</v>
       </c>
       <c r="J14" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K14" s="3">
         <v>7800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>79900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8900</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>280800</v>
+        <v>201400</v>
       </c>
       <c r="E15" s="3">
-        <v>365500</v>
+        <v>289300</v>
       </c>
       <c r="F15" s="3">
-        <v>232400</v>
+        <v>376500</v>
       </c>
       <c r="G15" s="3">
-        <v>166300</v>
+        <v>239400</v>
       </c>
       <c r="H15" s="3">
-        <v>281400</v>
+        <v>171400</v>
       </c>
       <c r="I15" s="3">
-        <v>161000</v>
+        <v>289900</v>
       </c>
       <c r="J15" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K15" s="3">
         <v>119900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>224100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>114000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>591100</v>
+        <v>486100</v>
       </c>
       <c r="E17" s="3">
-        <v>1133500</v>
+        <v>608900</v>
       </c>
       <c r="F17" s="3">
-        <v>207700</v>
+        <v>1167600</v>
       </c>
       <c r="G17" s="3">
-        <v>-837900</v>
+        <v>214000</v>
       </c>
       <c r="H17" s="3">
-        <v>1011000</v>
+        <v>-863200</v>
       </c>
       <c r="I17" s="3">
-        <v>318200</v>
+        <v>1041500</v>
       </c>
       <c r="J17" s="3">
+        <v>327800</v>
+      </c>
+      <c r="K17" s="3">
         <v>272100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>314900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>426900</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>29700</v>
+        <v>-7500</v>
       </c>
       <c r="E18" s="3">
-        <v>-438100</v>
+        <v>30600</v>
       </c>
       <c r="F18" s="3">
-        <v>148500</v>
+        <v>-451300</v>
       </c>
       <c r="G18" s="3">
-        <v>1027900</v>
+        <v>153000</v>
       </c>
       <c r="H18" s="3">
-        <v>-688300</v>
+        <v>1058900</v>
       </c>
       <c r="I18" s="3">
-        <v>-60000</v>
+        <v>-709100</v>
       </c>
       <c r="J18" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-105800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-193200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-277700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-10900</v>
+        <v>-2400</v>
       </c>
       <c r="E20" s="3">
-        <v>6500</v>
+        <v>-11200</v>
       </c>
       <c r="F20" s="3">
-        <v>47700</v>
+        <v>6700</v>
       </c>
       <c r="G20" s="3">
-        <v>-10700</v>
+        <v>49100</v>
       </c>
       <c r="H20" s="3">
-        <v>-15100</v>
+        <v>-11100</v>
       </c>
       <c r="I20" s="3">
-        <v>2500</v>
+        <v>-15600</v>
       </c>
       <c r="J20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K20" s="3">
         <v>24500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>126200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>299100</v>
+        <v>79200</v>
       </c>
       <c r="E21" s="3">
-        <v>319400</v>
+        <v>309400</v>
       </c>
       <c r="F21" s="3">
-        <v>489400</v>
+        <v>332600</v>
       </c>
       <c r="G21" s="3">
-        <v>1075900</v>
+        <v>505500</v>
       </c>
       <c r="H21" s="3">
-        <v>-224000</v>
+        <v>1108600</v>
       </c>
       <c r="I21" s="3">
-        <v>119100</v>
+        <v>-228500</v>
       </c>
       <c r="J21" s="3">
+        <v>123500</v>
+      </c>
+      <c r="K21" s="3">
         <v>36100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>147000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>27600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>18800</v>
+        <v>-9900</v>
       </c>
       <c r="E23" s="3">
-        <v>-431600</v>
+        <v>19400</v>
       </c>
       <c r="F23" s="3">
-        <v>196200</v>
+        <v>-444600</v>
       </c>
       <c r="G23" s="3">
-        <v>1017200</v>
+        <v>202100</v>
       </c>
       <c r="H23" s="3">
-        <v>-703500</v>
+        <v>1047900</v>
       </c>
       <c r="I23" s="3">
-        <v>-57500</v>
+        <v>-724700</v>
       </c>
       <c r="J23" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-81400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-67000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-258000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>86400</v>
+        <v>8100</v>
       </c>
       <c r="E24" s="3">
-        <v>-148900</v>
+        <v>89000</v>
       </c>
       <c r="F24" s="3">
-        <v>-63200</v>
+        <v>-153400</v>
       </c>
       <c r="G24" s="3">
-        <v>120200</v>
+        <v>-65100</v>
       </c>
       <c r="H24" s="3">
-        <v>-9600</v>
+        <v>123800</v>
       </c>
       <c r="I24" s="3">
-        <v>-2300</v>
+        <v>-9900</v>
       </c>
       <c r="J24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-14300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-18300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-61100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-67600</v>
+        <v>-18000</v>
       </c>
       <c r="E26" s="3">
-        <v>-282600</v>
+        <v>-69700</v>
       </c>
       <c r="F26" s="3">
-        <v>259300</v>
+        <v>-291200</v>
       </c>
       <c r="G26" s="3">
-        <v>897100</v>
+        <v>267200</v>
       </c>
       <c r="H26" s="3">
-        <v>-693800</v>
+        <v>924100</v>
       </c>
       <c r="I26" s="3">
-        <v>-55200</v>
+        <v>-714700</v>
       </c>
       <c r="J26" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-67100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-48700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-196900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-67600</v>
+        <v>-18000</v>
       </c>
       <c r="E27" s="3">
-        <v>-282600</v>
+        <v>-69700</v>
       </c>
       <c r="F27" s="3">
-        <v>259300</v>
+        <v>-291200</v>
       </c>
       <c r="G27" s="3">
-        <v>897100</v>
+        <v>267200</v>
       </c>
       <c r="H27" s="3">
-        <v>-693800</v>
+        <v>924100</v>
       </c>
       <c r="I27" s="3">
-        <v>-55200</v>
+        <v>-714700</v>
       </c>
       <c r="J27" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-67100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-48700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-196900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1367,21 +1427,24 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>21600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>2100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>18700</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10900</v>
+        <v>2400</v>
       </c>
       <c r="E32" s="3">
-        <v>-6500</v>
+        <v>11200</v>
       </c>
       <c r="F32" s="3">
-        <v>-47700</v>
+        <v>-6700</v>
       </c>
       <c r="G32" s="3">
-        <v>10700</v>
+        <v>-49100</v>
       </c>
       <c r="H32" s="3">
-        <v>15100</v>
+        <v>11100</v>
       </c>
       <c r="I32" s="3">
-        <v>-2500</v>
+        <v>15600</v>
       </c>
       <c r="J32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-24500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-126200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-67600</v>
+        <v>-18000</v>
       </c>
       <c r="E33" s="3">
-        <v>-282600</v>
+        <v>-69700</v>
       </c>
       <c r="F33" s="3">
-        <v>259300</v>
+        <v>-291200</v>
       </c>
       <c r="G33" s="3">
-        <v>897100</v>
+        <v>267200</v>
       </c>
       <c r="H33" s="3">
-        <v>-693800</v>
+        <v>924100</v>
       </c>
       <c r="I33" s="3">
-        <v>-55200</v>
+        <v>-714700</v>
       </c>
       <c r="J33" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-45500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-46600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-178200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-67600</v>
+        <v>-18000</v>
       </c>
       <c r="E35" s="3">
-        <v>-282600</v>
+        <v>-69700</v>
       </c>
       <c r="F35" s="3">
-        <v>259300</v>
+        <v>-291200</v>
       </c>
       <c r="G35" s="3">
-        <v>897100</v>
+        <v>267200</v>
       </c>
       <c r="H35" s="3">
-        <v>-693800</v>
+        <v>924100</v>
       </c>
       <c r="I35" s="3">
-        <v>-55200</v>
+        <v>-714700</v>
       </c>
       <c r="J35" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-45500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-46600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-178200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,58 +1731,62 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="E41" s="3">
-        <v>14900</v>
+        <v>4800</v>
       </c>
       <c r="F41" s="3">
-        <v>94900</v>
+        <v>15300</v>
       </c>
       <c r="G41" s="3">
-        <v>478700</v>
+        <v>97800</v>
       </c>
       <c r="H41" s="3">
-        <v>9200</v>
+        <v>493200</v>
       </c>
       <c r="I41" s="3">
-        <v>14100</v>
+        <v>9500</v>
       </c>
       <c r="J41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K41" s="3">
         <v>8200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>110400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>91600</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>94400</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>24</v>
@@ -1711,42 +1800,48 @@
       <c r="L42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>91300</v>
+        <v>79300</v>
       </c>
       <c r="E43" s="3">
-        <v>93400</v>
+        <v>94100</v>
       </c>
       <c r="F43" s="3">
-        <v>131100</v>
+        <v>96200</v>
       </c>
       <c r="G43" s="3">
-        <v>18400</v>
+        <v>135100</v>
       </c>
       <c r="H43" s="3">
-        <v>37500</v>
+        <v>18900</v>
       </c>
       <c r="I43" s="3">
-        <v>43900</v>
+        <v>38600</v>
       </c>
       <c r="J43" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K43" s="3">
         <v>30300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,141 +1872,156 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13100</v>
+        <v>8200</v>
       </c>
       <c r="E45" s="3">
-        <v>57000</v>
+        <v>13500</v>
       </c>
       <c r="F45" s="3">
-        <v>7000</v>
+        <v>58700</v>
       </c>
       <c r="G45" s="3">
-        <v>1300</v>
+        <v>7200</v>
       </c>
       <c r="H45" s="3">
-        <v>34800</v>
+        <v>1400</v>
       </c>
       <c r="I45" s="3">
-        <v>3800</v>
+        <v>35900</v>
       </c>
       <c r="J45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>109100</v>
+        <v>91100</v>
       </c>
       <c r="E46" s="3">
-        <v>165300</v>
+        <v>112400</v>
       </c>
       <c r="F46" s="3">
-        <v>233000</v>
+        <v>170300</v>
       </c>
       <c r="G46" s="3">
-        <v>590000</v>
+        <v>240000</v>
       </c>
       <c r="H46" s="3">
-        <v>81500</v>
+        <v>607800</v>
       </c>
       <c r="I46" s="3">
-        <v>61800</v>
+        <v>84000</v>
       </c>
       <c r="J46" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K46" s="3">
         <v>40200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>146400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>99800</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>124400</v>
+        <v>120200</v>
       </c>
       <c r="E47" s="3">
-        <v>178400</v>
+        <v>128200</v>
       </c>
       <c r="F47" s="3">
-        <v>41000</v>
+        <v>183800</v>
       </c>
       <c r="G47" s="3">
-        <v>83300</v>
+        <v>42300</v>
       </c>
       <c r="H47" s="3">
-        <v>91700</v>
+        <v>85800</v>
       </c>
       <c r="I47" s="3">
-        <v>142700</v>
+        <v>94400</v>
       </c>
       <c r="J47" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K47" s="3">
         <v>192400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>164700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>196200</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1974200</v>
+        <v>2039400</v>
       </c>
       <c r="E48" s="3">
-        <v>2231000</v>
+        <v>2033700</v>
       </c>
       <c r="F48" s="3">
-        <v>2725600</v>
+        <v>2298200</v>
       </c>
       <c r="G48" s="3">
-        <v>911700</v>
+        <v>2807700</v>
       </c>
       <c r="H48" s="3">
-        <v>1846100</v>
+        <v>939100</v>
       </c>
       <c r="I48" s="3">
-        <v>2106200</v>
+        <v>1901700</v>
       </c>
       <c r="J48" s="3">
+        <v>2169700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1541900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1116800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>921400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1924,27 +2034,30 @@
       <c r="F49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H49" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>19000</v>
+        <v>2500</v>
       </c>
       <c r="J49" s="3">
-        <v>2400</v>
+        <v>19600</v>
       </c>
       <c r="K49" s="3">
         <v>2400</v>
       </c>
       <c r="L49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M49" s="3">
         <v>2600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>510800</v>
+        <v>522500</v>
       </c>
       <c r="E52" s="3">
-        <v>595500</v>
+        <v>526100</v>
       </c>
       <c r="F52" s="3">
-        <v>449600</v>
+        <v>613500</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>463200</v>
       </c>
       <c r="H52" s="3">
-        <v>119200</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>133300</v>
+        <v>122800</v>
       </c>
       <c r="J52" s="3">
+        <v>137300</v>
+      </c>
+      <c r="K52" s="3">
         <v>107400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>103200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>105700</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2718500</v>
+        <v>2773200</v>
       </c>
       <c r="E54" s="3">
-        <v>3170200</v>
+        <v>2800400</v>
       </c>
       <c r="F54" s="3">
-        <v>3449200</v>
+        <v>3265700</v>
       </c>
       <c r="G54" s="3">
-        <v>1585000</v>
+        <v>3553200</v>
       </c>
       <c r="H54" s="3">
-        <v>2140900</v>
+        <v>1632800</v>
       </c>
       <c r="I54" s="3">
-        <v>2463000</v>
+        <v>2205400</v>
       </c>
       <c r="J54" s="3">
+        <v>2537200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1884400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1533400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1325700</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>137100</v>
+        <v>112000</v>
       </c>
       <c r="E57" s="3">
-        <v>144500</v>
+        <v>141200</v>
       </c>
       <c r="F57" s="3">
-        <v>170800</v>
+        <v>148800</v>
       </c>
       <c r="G57" s="3">
-        <v>62300</v>
+        <v>176000</v>
       </c>
       <c r="H57" s="3">
-        <v>75400</v>
+        <v>64100</v>
       </c>
       <c r="I57" s="3">
-        <v>194300</v>
+        <v>77600</v>
       </c>
       <c r="J57" s="3">
+        <v>200100</v>
+      </c>
+      <c r="K57" s="3">
         <v>147600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>127600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>93400</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7600</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>24</v>
+        <v>7900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7800</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H58" s="3">
-        <v>77700</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>62800</v>
+        <v>80000</v>
       </c>
       <c r="J58" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K58" s="3">
         <v>58200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>30600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17500</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45300</v>
+        <v>52400</v>
       </c>
       <c r="E59" s="3">
-        <v>58200</v>
+        <v>46700</v>
       </c>
       <c r="F59" s="3">
-        <v>48000</v>
+        <v>59900</v>
       </c>
       <c r="G59" s="3">
-        <v>102200</v>
+        <v>49400</v>
       </c>
       <c r="H59" s="3">
-        <v>7500</v>
+        <v>105300</v>
       </c>
       <c r="I59" s="3">
-        <v>11200</v>
+        <v>7700</v>
       </c>
       <c r="J59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K59" s="3">
         <v>19800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>190000</v>
+        <v>172300</v>
       </c>
       <c r="E60" s="3">
-        <v>202600</v>
+        <v>195800</v>
       </c>
       <c r="F60" s="3">
-        <v>218800</v>
+        <v>208700</v>
       </c>
       <c r="G60" s="3">
-        <v>164500</v>
+        <v>225400</v>
       </c>
       <c r="H60" s="3">
-        <v>160500</v>
+        <v>169400</v>
       </c>
       <c r="I60" s="3">
-        <v>268200</v>
+        <v>165400</v>
       </c>
       <c r="J60" s="3">
+        <v>276300</v>
+      </c>
+      <c r="K60" s="3">
         <v>225600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>169100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>134800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>503500</v>
+        <v>654400</v>
       </c>
       <c r="E61" s="3">
-        <v>627400</v>
+        <v>518700</v>
       </c>
       <c r="F61" s="3">
-        <v>540200</v>
+        <v>646300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>556500</v>
       </c>
       <c r="H61" s="3">
-        <v>1347400</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>931800</v>
+        <v>1388000</v>
       </c>
       <c r="J61" s="3">
+        <v>959800</v>
+      </c>
+      <c r="K61" s="3">
         <v>679400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>497400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>328200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>421200</v>
+        <v>330500</v>
       </c>
       <c r="E62" s="3">
-        <v>607700</v>
+        <v>433900</v>
       </c>
       <c r="F62" s="3">
-        <v>637700</v>
+        <v>626000</v>
       </c>
       <c r="G62" s="3">
-        <v>162100</v>
+        <v>656900</v>
       </c>
       <c r="H62" s="3">
-        <v>210600</v>
+        <v>167000</v>
       </c>
       <c r="I62" s="3">
-        <v>221300</v>
+        <v>217000</v>
       </c>
       <c r="J62" s="3">
+        <v>227900</v>
+      </c>
+      <c r="K62" s="3">
         <v>184600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>226200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>229900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1114800</v>
+        <v>1157200</v>
       </c>
       <c r="E66" s="3">
-        <v>1437700</v>
+        <v>1148400</v>
       </c>
       <c r="F66" s="3">
-        <v>1396700</v>
+        <v>1481000</v>
       </c>
       <c r="G66" s="3">
-        <v>326500</v>
+        <v>1438800</v>
       </c>
       <c r="H66" s="3">
-        <v>1718500</v>
+        <v>336400</v>
       </c>
       <c r="I66" s="3">
-        <v>1421200</v>
+        <v>1770300</v>
       </c>
       <c r="J66" s="3">
+        <v>1464000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1089700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>892700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>692800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-98900</v>
+        <v>-186400</v>
       </c>
       <c r="E72" s="3">
-        <v>16300</v>
+        <v>-101900</v>
       </c>
       <c r="F72" s="3">
-        <v>210100</v>
+        <v>16800</v>
       </c>
       <c r="G72" s="3">
-        <v>-117200</v>
+        <v>216400</v>
       </c>
       <c r="H72" s="3">
-        <v>-922000</v>
+        <v>-120700</v>
       </c>
       <c r="I72" s="3">
-        <v>-228100</v>
+        <v>-949700</v>
       </c>
       <c r="J72" s="3">
+        <v>-235000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-172900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-124600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-79600</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1603700</v>
+        <v>1616000</v>
       </c>
       <c r="E76" s="3">
-        <v>1732500</v>
+        <v>1652000</v>
       </c>
       <c r="F76" s="3">
-        <v>2052500</v>
+        <v>1784700</v>
       </c>
       <c r="G76" s="3">
-        <v>1258500</v>
+        <v>2114400</v>
       </c>
       <c r="H76" s="3">
-        <v>422400</v>
+        <v>1296400</v>
       </c>
       <c r="I76" s="3">
-        <v>1041800</v>
+        <v>435100</v>
       </c>
       <c r="J76" s="3">
+        <v>1073200</v>
+      </c>
+      <c r="K76" s="3">
         <v>794600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>640700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>632900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-67600</v>
+        <v>-18000</v>
       </c>
       <c r="E81" s="3">
-        <v>-282600</v>
+        <v>-69700</v>
       </c>
       <c r="F81" s="3">
-        <v>259300</v>
+        <v>-291200</v>
       </c>
       <c r="G81" s="3">
-        <v>897100</v>
+        <v>267200</v>
       </c>
       <c r="H81" s="3">
-        <v>-693800</v>
+        <v>924100</v>
       </c>
       <c r="I81" s="3">
-        <v>-55200</v>
+        <v>-714700</v>
       </c>
       <c r="J81" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-45500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-46600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-178200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>280800</v>
+        <v>88900</v>
       </c>
       <c r="E83" s="3">
-        <v>752300</v>
+        <v>289300</v>
       </c>
       <c r="F83" s="3">
-        <v>293700</v>
+        <v>775000</v>
       </c>
       <c r="G83" s="3">
-        <v>58800</v>
+        <v>302500</v>
       </c>
       <c r="H83" s="3">
-        <v>480300</v>
+        <v>60600</v>
       </c>
       <c r="I83" s="3">
-        <v>176900</v>
+        <v>494800</v>
       </c>
       <c r="J83" s="3">
+        <v>182300</v>
+      </c>
+      <c r="K83" s="3">
         <v>117700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>213900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>284200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>196800</v>
+        <v>64200</v>
       </c>
       <c r="E89" s="3">
-        <v>172000</v>
+        <v>202800</v>
       </c>
       <c r="F89" s="3">
-        <v>97200</v>
+        <v>177200</v>
       </c>
       <c r="G89" s="3">
-        <v>35200</v>
+        <v>100200</v>
       </c>
       <c r="H89" s="3">
-        <v>64900</v>
+        <v>36300</v>
       </c>
       <c r="I89" s="3">
-        <v>91200</v>
+        <v>66800</v>
       </c>
       <c r="J89" s="3">
+        <v>94000</v>
+      </c>
+      <c r="K89" s="3">
         <v>34600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>65300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-311100</v>
+        <v>-175500</v>
       </c>
       <c r="E91" s="3">
-        <v>-446700</v>
+        <v>-320500</v>
       </c>
       <c r="F91" s="3">
-        <v>-419600</v>
+        <v>-460100</v>
       </c>
       <c r="G91" s="3">
-        <v>-154700</v>
+        <v>-432300</v>
       </c>
       <c r="H91" s="3">
-        <v>-380300</v>
+        <v>-159400</v>
       </c>
       <c r="I91" s="3">
-        <v>-724800</v>
+        <v>-391700</v>
       </c>
       <c r="J91" s="3">
+        <v>-746600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-566700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-469500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-403500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-75800</v>
+        <v>-198300</v>
       </c>
       <c r="E94" s="3">
-        <v>-286000</v>
+        <v>-78100</v>
       </c>
       <c r="F94" s="3">
-        <v>-658400</v>
+        <v>-294600</v>
       </c>
       <c r="G94" s="3">
-        <v>1411400</v>
+        <v>-678200</v>
       </c>
       <c r="H94" s="3">
-        <v>-477200</v>
+        <v>1453900</v>
       </c>
       <c r="I94" s="3">
-        <v>-610900</v>
+        <v>-491500</v>
       </c>
       <c r="J94" s="3">
+        <v>-629300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-500600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-232500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-373900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-131000</v>
+        <v>133500</v>
       </c>
       <c r="E100" s="3">
-        <v>32000</v>
+        <v>-135000</v>
       </c>
       <c r="F100" s="3">
-        <v>178500</v>
+        <v>33000</v>
       </c>
       <c r="G100" s="3">
-        <v>-976800</v>
+        <v>183900</v>
       </c>
       <c r="H100" s="3">
-        <v>404700</v>
+        <v>-1006300</v>
       </c>
       <c r="I100" s="3">
-        <v>525500</v>
+        <v>416900</v>
       </c>
       <c r="J100" s="3">
+        <v>541300</v>
+      </c>
+      <c r="K100" s="3">
         <v>360700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>280100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>273500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="F101" s="3">
-        <v>-1100</v>
-      </c>
       <c r="G101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10200</v>
+        <v>-1100</v>
       </c>
       <c r="E102" s="3">
-        <v>-80100</v>
+        <v>-10500</v>
       </c>
       <c r="F102" s="3">
-        <v>-383800</v>
+        <v>-82500</v>
       </c>
       <c r="G102" s="3">
-        <v>469500</v>
+        <v>-395400</v>
       </c>
       <c r="H102" s="3">
-        <v>-4900</v>
+        <v>483700</v>
       </c>
       <c r="I102" s="3">
-        <v>5900</v>
+        <v>-5100</v>
       </c>
       <c r="J102" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-104700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>88600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-35100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>478700</v>
+        <v>500400</v>
       </c>
       <c r="E8" s="3">
-        <v>639500</v>
+        <v>668500</v>
       </c>
       <c r="F8" s="3">
-        <v>716300</v>
+        <v>748900</v>
       </c>
       <c r="G8" s="3">
-        <v>366900</v>
+        <v>383600</v>
       </c>
       <c r="H8" s="3">
-        <v>195800</v>
+        <v>204700</v>
       </c>
       <c r="I8" s="3">
-        <v>332400</v>
+        <v>347500</v>
       </c>
       <c r="J8" s="3">
-        <v>265900</v>
+        <v>278000</v>
       </c>
       <c r="K8" s="3">
         <v>166200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>315900</v>
+        <v>330300</v>
       </c>
       <c r="E9" s="3">
-        <v>373200</v>
+        <v>390200</v>
       </c>
       <c r="F9" s="3">
-        <v>375900</v>
+        <v>393000</v>
       </c>
       <c r="G9" s="3">
-        <v>172000</v>
+        <v>179800</v>
       </c>
       <c r="H9" s="3">
-        <v>121700</v>
+        <v>127300</v>
       </c>
       <c r="I9" s="3">
-        <v>123500</v>
+        <v>129100</v>
       </c>
       <c r="J9" s="3">
-        <v>85000</v>
+        <v>88900</v>
       </c>
       <c r="K9" s="3">
         <v>71100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>162800</v>
+        <v>170100</v>
       </c>
       <c r="E10" s="3">
-        <v>266200</v>
+        <v>278300</v>
       </c>
       <c r="F10" s="3">
-        <v>340500</v>
+        <v>355900</v>
       </c>
       <c r="G10" s="3">
-        <v>195000</v>
+        <v>203800</v>
       </c>
       <c r="H10" s="3">
-        <v>74000</v>
+        <v>77400</v>
       </c>
       <c r="I10" s="3">
-        <v>208900</v>
+        <v>218400</v>
       </c>
       <c r="J10" s="3">
-        <v>180900</v>
+        <v>189100</v>
       </c>
       <c r="K10" s="3">
         <v>95100</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="E12" s="3">
-        <v>8700</v>
+        <v>9100</v>
       </c>
       <c r="F12" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="G12" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="H12" s="3">
-        <v>14200</v>
+        <v>14900</v>
       </c>
       <c r="I12" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="J12" s="3">
-        <v>13700</v>
+        <v>14300</v>
       </c>
       <c r="K12" s="3">
         <v>16200</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-106400</v>
+        <v>-111200</v>
       </c>
       <c r="E14" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="3">
-        <v>400500</v>
+        <v>418700</v>
       </c>
       <c r="G14" s="3">
-        <v>-56100</v>
+        <v>-58600</v>
       </c>
       <c r="H14" s="3">
-        <v>-72500</v>
+        <v>-75800</v>
       </c>
       <c r="I14" s="3">
-        <v>429600</v>
+        <v>449100</v>
       </c>
       <c r="J14" s="3">
-        <v>38400</v>
+        <v>40100</v>
       </c>
       <c r="K14" s="3">
         <v>7800</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>201400</v>
+        <v>210500</v>
       </c>
       <c r="E15" s="3">
-        <v>289300</v>
+        <v>302400</v>
       </c>
       <c r="F15" s="3">
-        <v>376500</v>
+        <v>393600</v>
       </c>
       <c r="G15" s="3">
-        <v>239400</v>
+        <v>250300</v>
       </c>
       <c r="H15" s="3">
-        <v>171400</v>
+        <v>179100</v>
       </c>
       <c r="I15" s="3">
-        <v>289900</v>
+        <v>303100</v>
       </c>
       <c r="J15" s="3">
-        <v>165800</v>
+        <v>173400</v>
       </c>
       <c r="K15" s="3">
         <v>119900</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>486100</v>
+        <v>508200</v>
       </c>
       <c r="E17" s="3">
-        <v>608900</v>
+        <v>636600</v>
       </c>
       <c r="F17" s="3">
-        <v>1167600</v>
+        <v>1220700</v>
       </c>
       <c r="G17" s="3">
-        <v>214000</v>
+        <v>223700</v>
       </c>
       <c r="H17" s="3">
-        <v>-863200</v>
+        <v>-902400</v>
       </c>
       <c r="I17" s="3">
-        <v>1041500</v>
+        <v>1088800</v>
       </c>
       <c r="J17" s="3">
-        <v>327800</v>
+        <v>342700</v>
       </c>
       <c r="K17" s="3">
         <v>272100</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-7500</v>
+        <v>-7800</v>
       </c>
       <c r="E18" s="3">
-        <v>30600</v>
+        <v>31900</v>
       </c>
       <c r="F18" s="3">
-        <v>-451300</v>
+        <v>-471800</v>
       </c>
       <c r="G18" s="3">
-        <v>153000</v>
+        <v>159900</v>
       </c>
       <c r="H18" s="3">
-        <v>1058900</v>
+        <v>1107000</v>
       </c>
       <c r="I18" s="3">
-        <v>-709100</v>
+        <v>-741300</v>
       </c>
       <c r="J18" s="3">
-        <v>-61900</v>
+        <v>-64700</v>
       </c>
       <c r="K18" s="3">
         <v>-105800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="E20" s="3">
-        <v>-11200</v>
+        <v>-11700</v>
       </c>
       <c r="F20" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="G20" s="3">
-        <v>49100</v>
+        <v>51400</v>
       </c>
       <c r="H20" s="3">
-        <v>-11100</v>
+        <v>-11600</v>
       </c>
       <c r="I20" s="3">
-        <v>-15600</v>
+        <v>-16300</v>
       </c>
       <c r="J20" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K20" s="3">
         <v>24500</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>79200</v>
+        <v>82800</v>
       </c>
       <c r="E21" s="3">
-        <v>309400</v>
+        <v>323200</v>
       </c>
       <c r="F21" s="3">
-        <v>332600</v>
+        <v>347000</v>
       </c>
       <c r="G21" s="3">
-        <v>505500</v>
+        <v>528200</v>
       </c>
       <c r="H21" s="3">
-        <v>1108600</v>
+        <v>1159000</v>
       </c>
       <c r="I21" s="3">
-        <v>-228500</v>
+        <v>-239400</v>
       </c>
       <c r="J21" s="3">
-        <v>123500</v>
+        <v>129000</v>
       </c>
       <c r="K21" s="3">
         <v>36100</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-9900</v>
+        <v>-10300</v>
       </c>
       <c r="E23" s="3">
-        <v>19400</v>
+        <v>20200</v>
       </c>
       <c r="F23" s="3">
-        <v>-444600</v>
+        <v>-464800</v>
       </c>
       <c r="G23" s="3">
-        <v>202100</v>
+        <v>211300</v>
       </c>
       <c r="H23" s="3">
-        <v>1047900</v>
+        <v>1095500</v>
       </c>
       <c r="I23" s="3">
-        <v>-724700</v>
+        <v>-757600</v>
       </c>
       <c r="J23" s="3">
-        <v>-59300</v>
+        <v>-61900</v>
       </c>
       <c r="K23" s="3">
         <v>-81400</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="E24" s="3">
-        <v>89000</v>
+        <v>93100</v>
       </c>
       <c r="F24" s="3">
-        <v>-153400</v>
+        <v>-160400</v>
       </c>
       <c r="G24" s="3">
-        <v>-65100</v>
+        <v>-68000</v>
       </c>
       <c r="H24" s="3">
-        <v>123800</v>
+        <v>129400</v>
       </c>
       <c r="I24" s="3">
-        <v>-9900</v>
+        <v>-10400</v>
       </c>
       <c r="J24" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K24" s="3">
         <v>-14300</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-18000</v>
+        <v>-18800</v>
       </c>
       <c r="E26" s="3">
-        <v>-69700</v>
+        <v>-72800</v>
       </c>
       <c r="F26" s="3">
-        <v>-291200</v>
+        <v>-304400</v>
       </c>
       <c r="G26" s="3">
-        <v>267200</v>
+        <v>279300</v>
       </c>
       <c r="H26" s="3">
-        <v>924100</v>
+        <v>966100</v>
       </c>
       <c r="I26" s="3">
-        <v>-714700</v>
+        <v>-747200</v>
       </c>
       <c r="J26" s="3">
-        <v>-56900</v>
+        <v>-59500</v>
       </c>
       <c r="K26" s="3">
         <v>-67100</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-18000</v>
+        <v>-18800</v>
       </c>
       <c r="E27" s="3">
-        <v>-69700</v>
+        <v>-72800</v>
       </c>
       <c r="F27" s="3">
-        <v>-291200</v>
+        <v>-304400</v>
       </c>
       <c r="G27" s="3">
-        <v>267200</v>
+        <v>279300</v>
       </c>
       <c r="H27" s="3">
-        <v>924100</v>
+        <v>966100</v>
       </c>
       <c r="I27" s="3">
-        <v>-714700</v>
+        <v>-747200</v>
       </c>
       <c r="J27" s="3">
-        <v>-56900</v>
+        <v>-59500</v>
       </c>
       <c r="K27" s="3">
         <v>-67100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E32" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="F32" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="G32" s="3">
-        <v>-49100</v>
+        <v>-51400</v>
       </c>
       <c r="H32" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="I32" s="3">
-        <v>15600</v>
+        <v>16300</v>
       </c>
       <c r="J32" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="K32" s="3">
         <v>-24500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18000</v>
+        <v>-18800</v>
       </c>
       <c r="E33" s="3">
-        <v>-69700</v>
+        <v>-72800</v>
       </c>
       <c r="F33" s="3">
-        <v>-291200</v>
+        <v>-304400</v>
       </c>
       <c r="G33" s="3">
-        <v>267200</v>
+        <v>279300</v>
       </c>
       <c r="H33" s="3">
-        <v>924100</v>
+        <v>966100</v>
       </c>
       <c r="I33" s="3">
-        <v>-714700</v>
+        <v>-747200</v>
       </c>
       <c r="J33" s="3">
-        <v>-56900</v>
+        <v>-59500</v>
       </c>
       <c r="K33" s="3">
         <v>-45500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18000</v>
+        <v>-18800</v>
       </c>
       <c r="E35" s="3">
-        <v>-69700</v>
+        <v>-72800</v>
       </c>
       <c r="F35" s="3">
-        <v>-291200</v>
+        <v>-304400</v>
       </c>
       <c r="G35" s="3">
-        <v>267200</v>
+        <v>279300</v>
       </c>
       <c r="H35" s="3">
-        <v>924100</v>
+        <v>966100</v>
       </c>
       <c r="I35" s="3">
-        <v>-714700</v>
+        <v>-747200</v>
       </c>
       <c r="J35" s="3">
-        <v>-56900</v>
+        <v>-59500</v>
       </c>
       <c r="K35" s="3">
         <v>-45500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="E41" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="F41" s="3">
-        <v>15300</v>
+        <v>16000</v>
       </c>
       <c r="G41" s="3">
-        <v>97800</v>
+        <v>102200</v>
       </c>
       <c r="H41" s="3">
-        <v>493200</v>
+        <v>515600</v>
       </c>
       <c r="I41" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="J41" s="3">
-        <v>14500</v>
+        <v>15200</v>
       </c>
       <c r="K41" s="3">
         <v>8200</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>94400</v>
+        <v>98600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>24</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>79300</v>
+        <v>82900</v>
       </c>
       <c r="E43" s="3">
-        <v>94100</v>
+        <v>98400</v>
       </c>
       <c r="F43" s="3">
-        <v>96200</v>
+        <v>100600</v>
       </c>
       <c r="G43" s="3">
-        <v>135100</v>
+        <v>141200</v>
       </c>
       <c r="H43" s="3">
-        <v>18900</v>
+        <v>19800</v>
       </c>
       <c r="I43" s="3">
-        <v>38600</v>
+        <v>40400</v>
       </c>
       <c r="J43" s="3">
-        <v>45200</v>
+        <v>47300</v>
       </c>
       <c r="K43" s="3">
         <v>30300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="E45" s="3">
-        <v>13500</v>
+        <v>14100</v>
       </c>
       <c r="F45" s="3">
-        <v>58700</v>
+        <v>61400</v>
       </c>
       <c r="G45" s="3">
-        <v>7200</v>
+        <v>7500</v>
       </c>
       <c r="H45" s="3">
         <v>1400</v>
       </c>
       <c r="I45" s="3">
-        <v>35900</v>
+        <v>37500</v>
       </c>
       <c r="J45" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K45" s="3">
         <v>1700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>91100</v>
+        <v>95300</v>
       </c>
       <c r="E46" s="3">
-        <v>112400</v>
+        <v>117500</v>
       </c>
       <c r="F46" s="3">
-        <v>170300</v>
+        <v>178000</v>
       </c>
       <c r="G46" s="3">
-        <v>240000</v>
+        <v>250900</v>
       </c>
       <c r="H46" s="3">
-        <v>607800</v>
+        <v>635400</v>
       </c>
       <c r="I46" s="3">
-        <v>84000</v>
+        <v>87800</v>
       </c>
       <c r="J46" s="3">
-        <v>63600</v>
+        <v>66500</v>
       </c>
       <c r="K46" s="3">
         <v>40200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>120200</v>
+        <v>125600</v>
       </c>
       <c r="E47" s="3">
-        <v>128200</v>
+        <v>134000</v>
       </c>
       <c r="F47" s="3">
-        <v>183800</v>
+        <v>192100</v>
       </c>
       <c r="G47" s="3">
-        <v>42300</v>
+        <v>44200</v>
       </c>
       <c r="H47" s="3">
-        <v>85800</v>
+        <v>89700</v>
       </c>
       <c r="I47" s="3">
-        <v>94400</v>
+        <v>98700</v>
       </c>
       <c r="J47" s="3">
-        <v>147000</v>
+        <v>153700</v>
       </c>
       <c r="K47" s="3">
         <v>192400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2039400</v>
+        <v>2132100</v>
       </c>
       <c r="E48" s="3">
-        <v>2033700</v>
+        <v>2126100</v>
       </c>
       <c r="F48" s="3">
-        <v>2298200</v>
+        <v>2402700</v>
       </c>
       <c r="G48" s="3">
-        <v>2807700</v>
+        <v>2935300</v>
       </c>
       <c r="H48" s="3">
-        <v>939100</v>
+        <v>981800</v>
       </c>
       <c r="I48" s="3">
-        <v>1901700</v>
+        <v>1988100</v>
       </c>
       <c r="J48" s="3">
-        <v>2169700</v>
+        <v>2268300</v>
       </c>
       <c r="K48" s="3">
         <v>1541900</v>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J49" s="3">
-        <v>19600</v>
+        <v>20500</v>
       </c>
       <c r="K49" s="3">
         <v>2400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>522500</v>
+        <v>546200</v>
       </c>
       <c r="E52" s="3">
-        <v>526100</v>
+        <v>550100</v>
       </c>
       <c r="F52" s="3">
-        <v>613500</v>
+        <v>641300</v>
       </c>
       <c r="G52" s="3">
-        <v>463200</v>
+        <v>484200</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>122800</v>
+        <v>128400</v>
       </c>
       <c r="J52" s="3">
-        <v>137300</v>
+        <v>143500</v>
       </c>
       <c r="K52" s="3">
         <v>107400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2773200</v>
+        <v>2899200</v>
       </c>
       <c r="E54" s="3">
-        <v>2800400</v>
+        <v>2927600</v>
       </c>
       <c r="F54" s="3">
-        <v>3265700</v>
+        <v>3414100</v>
       </c>
       <c r="G54" s="3">
-        <v>3553200</v>
+        <v>3714600</v>
       </c>
       <c r="H54" s="3">
-        <v>1632800</v>
+        <v>1707000</v>
       </c>
       <c r="I54" s="3">
-        <v>2205400</v>
+        <v>2305600</v>
       </c>
       <c r="J54" s="3">
-        <v>2537200</v>
+        <v>2652500</v>
       </c>
       <c r="K54" s="3">
         <v>1884400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>112000</v>
+        <v>117100</v>
       </c>
       <c r="E57" s="3">
-        <v>141200</v>
+        <v>147700</v>
       </c>
       <c r="F57" s="3">
-        <v>148800</v>
+        <v>155600</v>
       </c>
       <c r="G57" s="3">
-        <v>176000</v>
+        <v>184000</v>
       </c>
       <c r="H57" s="3">
-        <v>64100</v>
+        <v>67000</v>
       </c>
       <c r="I57" s="3">
-        <v>77600</v>
+        <v>81100</v>
       </c>
       <c r="J57" s="3">
-        <v>200100</v>
+        <v>209200</v>
       </c>
       <c r="K57" s="3">
         <v>147600</v>
@@ -2310,10 +2310,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="E58" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>24</v>
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>80000</v>
+        <v>83700</v>
       </c>
       <c r="J58" s="3">
-        <v>64700</v>
+        <v>67600</v>
       </c>
       <c r="K58" s="3">
         <v>58200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52400</v>
+        <v>54800</v>
       </c>
       <c r="E59" s="3">
-        <v>46700</v>
+        <v>48800</v>
       </c>
       <c r="F59" s="3">
-        <v>59900</v>
+        <v>62700</v>
       </c>
       <c r="G59" s="3">
-        <v>49400</v>
+        <v>51700</v>
       </c>
       <c r="H59" s="3">
-        <v>105300</v>
+        <v>110100</v>
       </c>
       <c r="I59" s="3">
-        <v>7700</v>
+        <v>8100</v>
       </c>
       <c r="J59" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="K59" s="3">
         <v>19800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>172300</v>
+        <v>180100</v>
       </c>
       <c r="E60" s="3">
-        <v>195800</v>
+        <v>204700</v>
       </c>
       <c r="F60" s="3">
-        <v>208700</v>
+        <v>218200</v>
       </c>
       <c r="G60" s="3">
-        <v>225400</v>
+        <v>235700</v>
       </c>
       <c r="H60" s="3">
-        <v>169400</v>
+        <v>177100</v>
       </c>
       <c r="I60" s="3">
-        <v>165400</v>
+        <v>172900</v>
       </c>
       <c r="J60" s="3">
-        <v>276300</v>
+        <v>288800</v>
       </c>
       <c r="K60" s="3">
         <v>225600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>654400</v>
+        <v>684200</v>
       </c>
       <c r="E61" s="3">
-        <v>518700</v>
+        <v>542300</v>
       </c>
       <c r="F61" s="3">
-        <v>646300</v>
+        <v>675700</v>
       </c>
       <c r="G61" s="3">
-        <v>556500</v>
+        <v>581800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1388000</v>
+        <v>1451000</v>
       </c>
       <c r="J61" s="3">
-        <v>959800</v>
+        <v>1003400</v>
       </c>
       <c r="K61" s="3">
         <v>679400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>330500</v>
+        <v>345500</v>
       </c>
       <c r="E62" s="3">
-        <v>433900</v>
+        <v>453600</v>
       </c>
       <c r="F62" s="3">
-        <v>626000</v>
+        <v>654400</v>
       </c>
       <c r="G62" s="3">
-        <v>656900</v>
+        <v>686700</v>
       </c>
       <c r="H62" s="3">
-        <v>167000</v>
+        <v>174500</v>
       </c>
       <c r="I62" s="3">
-        <v>217000</v>
+        <v>226800</v>
       </c>
       <c r="J62" s="3">
-        <v>227900</v>
+        <v>238300</v>
       </c>
       <c r="K62" s="3">
         <v>184600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1157200</v>
+        <v>1209800</v>
       </c>
       <c r="E66" s="3">
-        <v>1148400</v>
+        <v>1200600</v>
       </c>
       <c r="F66" s="3">
-        <v>1481000</v>
+        <v>1548300</v>
       </c>
       <c r="G66" s="3">
-        <v>1438800</v>
+        <v>1504200</v>
       </c>
       <c r="H66" s="3">
-        <v>336400</v>
+        <v>351700</v>
       </c>
       <c r="I66" s="3">
-        <v>1770300</v>
+        <v>1850700</v>
       </c>
       <c r="J66" s="3">
-        <v>1464000</v>
+        <v>1530500</v>
       </c>
       <c r="K66" s="3">
         <v>1089700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-186400</v>
+        <v>-194900</v>
       </c>
       <c r="E72" s="3">
-        <v>-101900</v>
+        <v>-106500</v>
       </c>
       <c r="F72" s="3">
-        <v>16800</v>
+        <v>17600</v>
       </c>
       <c r="G72" s="3">
-        <v>216400</v>
+        <v>226300</v>
       </c>
       <c r="H72" s="3">
-        <v>-120700</v>
+        <v>-126200</v>
       </c>
       <c r="I72" s="3">
-        <v>-949700</v>
+        <v>-992900</v>
       </c>
       <c r="J72" s="3">
-        <v>-235000</v>
+        <v>-245700</v>
       </c>
       <c r="K72" s="3">
         <v>-172900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1616000</v>
+        <v>1689400</v>
       </c>
       <c r="E76" s="3">
-        <v>1652000</v>
+        <v>1727100</v>
       </c>
       <c r="F76" s="3">
-        <v>1784700</v>
+        <v>1865800</v>
       </c>
       <c r="G76" s="3">
-        <v>2114400</v>
+        <v>2210500</v>
       </c>
       <c r="H76" s="3">
-        <v>1296400</v>
+        <v>1355300</v>
       </c>
       <c r="I76" s="3">
-        <v>435100</v>
+        <v>454900</v>
       </c>
       <c r="J76" s="3">
-        <v>1073200</v>
+        <v>1121900</v>
       </c>
       <c r="K76" s="3">
         <v>794600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18000</v>
+        <v>-18800</v>
       </c>
       <c r="E81" s="3">
-        <v>-69700</v>
+        <v>-72800</v>
       </c>
       <c r="F81" s="3">
-        <v>-291200</v>
+        <v>-304400</v>
       </c>
       <c r="G81" s="3">
-        <v>267200</v>
+        <v>279300</v>
       </c>
       <c r="H81" s="3">
-        <v>924100</v>
+        <v>966100</v>
       </c>
       <c r="I81" s="3">
-        <v>-714700</v>
+        <v>-747200</v>
       </c>
       <c r="J81" s="3">
-        <v>-56900</v>
+        <v>-59500</v>
       </c>
       <c r="K81" s="3">
         <v>-45500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>88900</v>
+        <v>92900</v>
       </c>
       <c r="E83" s="3">
-        <v>289300</v>
+        <v>302400</v>
       </c>
       <c r="F83" s="3">
-        <v>775000</v>
+        <v>810200</v>
       </c>
       <c r="G83" s="3">
-        <v>302500</v>
+        <v>316300</v>
       </c>
       <c r="H83" s="3">
-        <v>60600</v>
+        <v>63400</v>
       </c>
       <c r="I83" s="3">
-        <v>494800</v>
+        <v>517200</v>
       </c>
       <c r="J83" s="3">
-        <v>182300</v>
+        <v>190500</v>
       </c>
       <c r="K83" s="3">
         <v>117700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>64200</v>
+        <v>67100</v>
       </c>
       <c r="E89" s="3">
-        <v>202800</v>
+        <v>212000</v>
       </c>
       <c r="F89" s="3">
-        <v>177200</v>
+        <v>185200</v>
       </c>
       <c r="G89" s="3">
-        <v>100200</v>
+        <v>104700</v>
       </c>
       <c r="H89" s="3">
-        <v>36300</v>
+        <v>37900</v>
       </c>
       <c r="I89" s="3">
-        <v>66800</v>
+        <v>69900</v>
       </c>
       <c r="J89" s="3">
-        <v>94000</v>
+        <v>98200</v>
       </c>
       <c r="K89" s="3">
         <v>34600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-175500</v>
+        <v>-183400</v>
       </c>
       <c r="E91" s="3">
-        <v>-320500</v>
+        <v>-335000</v>
       </c>
       <c r="F91" s="3">
-        <v>-460100</v>
+        <v>-481000</v>
       </c>
       <c r="G91" s="3">
-        <v>-432300</v>
+        <v>-451900</v>
       </c>
       <c r="H91" s="3">
-        <v>-159400</v>
+        <v>-166600</v>
       </c>
       <c r="I91" s="3">
-        <v>-391700</v>
+        <v>-409500</v>
       </c>
       <c r="J91" s="3">
-        <v>-746600</v>
+        <v>-780500</v>
       </c>
       <c r="K91" s="3">
         <v>-566700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-198300</v>
+        <v>-207300</v>
       </c>
       <c r="E94" s="3">
-        <v>-78100</v>
+        <v>-81700</v>
       </c>
       <c r="F94" s="3">
-        <v>-294600</v>
+        <v>-308000</v>
       </c>
       <c r="G94" s="3">
-        <v>-678200</v>
+        <v>-709000</v>
       </c>
       <c r="H94" s="3">
-        <v>1453900</v>
+        <v>1520000</v>
       </c>
       <c r="I94" s="3">
-        <v>-491500</v>
+        <v>-513900</v>
       </c>
       <c r="J94" s="3">
-        <v>-629300</v>
+        <v>-657900</v>
       </c>
       <c r="K94" s="3">
         <v>-500600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>133500</v>
+        <v>139600</v>
       </c>
       <c r="E100" s="3">
-        <v>-135000</v>
+        <v>-141100</v>
       </c>
       <c r="F100" s="3">
-        <v>33000</v>
+        <v>34500</v>
       </c>
       <c r="G100" s="3">
-        <v>183900</v>
+        <v>192200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1006300</v>
+        <v>-1052000</v>
       </c>
       <c r="I100" s="3">
-        <v>416900</v>
+        <v>435900</v>
       </c>
       <c r="J100" s="3">
-        <v>541300</v>
+        <v>565900</v>
       </c>
       <c r="K100" s="3">
         <v>360700</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
       </c>
       <c r="F101" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G101" s="3">
         <v>-1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I101" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E102" s="3">
-        <v>-10500</v>
+        <v>-11000</v>
       </c>
       <c r="F102" s="3">
-        <v>-82500</v>
+        <v>-86200</v>
       </c>
       <c r="G102" s="3">
-        <v>-395400</v>
+        <v>-413300</v>
       </c>
       <c r="H102" s="3">
-        <v>483700</v>
+        <v>505700</v>
       </c>
       <c r="I102" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="J102" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="K102" s="3">
         <v>-104700</v>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500400</v>
+        <v>470600</v>
       </c>
       <c r="E8" s="3">
-        <v>668500</v>
+        <v>628700</v>
       </c>
       <c r="F8" s="3">
-        <v>748900</v>
+        <v>704300</v>
       </c>
       <c r="G8" s="3">
-        <v>383600</v>
+        <v>360800</v>
       </c>
       <c r="H8" s="3">
-        <v>204700</v>
+        <v>192500</v>
       </c>
       <c r="I8" s="3">
-        <v>347500</v>
+        <v>326800</v>
       </c>
       <c r="J8" s="3">
-        <v>278000</v>
+        <v>261400</v>
       </c>
       <c r="K8" s="3">
         <v>166200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>330300</v>
+        <v>310600</v>
       </c>
       <c r="E9" s="3">
-        <v>390200</v>
+        <v>367000</v>
       </c>
       <c r="F9" s="3">
-        <v>393000</v>
+        <v>369500</v>
       </c>
       <c r="G9" s="3">
-        <v>179800</v>
+        <v>169100</v>
       </c>
       <c r="H9" s="3">
-        <v>127300</v>
+        <v>119700</v>
       </c>
       <c r="I9" s="3">
-        <v>129100</v>
+        <v>121400</v>
       </c>
       <c r="J9" s="3">
-        <v>88900</v>
+        <v>83600</v>
       </c>
       <c r="K9" s="3">
         <v>71100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>170100</v>
+        <v>160000</v>
       </c>
       <c r="E10" s="3">
-        <v>278300</v>
+        <v>261800</v>
       </c>
       <c r="F10" s="3">
-        <v>355900</v>
+        <v>334700</v>
       </c>
       <c r="G10" s="3">
-        <v>203800</v>
+        <v>191700</v>
       </c>
       <c r="H10" s="3">
-        <v>77400</v>
+        <v>72800</v>
       </c>
       <c r="I10" s="3">
-        <v>218400</v>
+        <v>205400</v>
       </c>
       <c r="J10" s="3">
-        <v>189100</v>
+        <v>177900</v>
       </c>
       <c r="K10" s="3">
         <v>95100</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="E12" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="F12" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="G12" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="H12" s="3">
-        <v>14900</v>
+        <v>14000</v>
       </c>
       <c r="I12" s="3">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="J12" s="3">
-        <v>14300</v>
+        <v>13400</v>
       </c>
       <c r="K12" s="3">
         <v>16200</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-111200</v>
+        <v>-104600</v>
       </c>
       <c r="E14" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="F14" s="3">
-        <v>418700</v>
+        <v>393700</v>
       </c>
       <c r="G14" s="3">
-        <v>-58600</v>
+        <v>-55100</v>
       </c>
       <c r="H14" s="3">
-        <v>-75800</v>
+        <v>-71300</v>
       </c>
       <c r="I14" s="3">
-        <v>449100</v>
+        <v>422300</v>
       </c>
       <c r="J14" s="3">
-        <v>40100</v>
+        <v>37700</v>
       </c>
       <c r="K14" s="3">
         <v>7800</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>210500</v>
+        <v>198000</v>
       </c>
       <c r="E15" s="3">
-        <v>302400</v>
+        <v>284400</v>
       </c>
       <c r="F15" s="3">
-        <v>393600</v>
+        <v>370100</v>
       </c>
       <c r="G15" s="3">
-        <v>250300</v>
+        <v>235400</v>
       </c>
       <c r="H15" s="3">
-        <v>179100</v>
+        <v>168500</v>
       </c>
       <c r="I15" s="3">
-        <v>303100</v>
+        <v>285000</v>
       </c>
       <c r="J15" s="3">
-        <v>173400</v>
+        <v>163000</v>
       </c>
       <c r="K15" s="3">
         <v>119900</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>508200</v>
+        <v>478000</v>
       </c>
       <c r="E17" s="3">
-        <v>636600</v>
+        <v>598700</v>
       </c>
       <c r="F17" s="3">
-        <v>1220700</v>
+        <v>1148000</v>
       </c>
       <c r="G17" s="3">
-        <v>223700</v>
+        <v>210400</v>
       </c>
       <c r="H17" s="3">
-        <v>-902400</v>
+        <v>-848600</v>
       </c>
       <c r="I17" s="3">
-        <v>1088800</v>
+        <v>1024000</v>
       </c>
       <c r="J17" s="3">
-        <v>342700</v>
+        <v>322200</v>
       </c>
       <c r="K17" s="3">
         <v>272100</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-7800</v>
+        <v>-7300</v>
       </c>
       <c r="E18" s="3">
-        <v>31900</v>
+        <v>30000</v>
       </c>
       <c r="F18" s="3">
-        <v>-471800</v>
+        <v>-443700</v>
       </c>
       <c r="G18" s="3">
-        <v>159900</v>
+        <v>150400</v>
       </c>
       <c r="H18" s="3">
-        <v>1107000</v>
+        <v>1041100</v>
       </c>
       <c r="I18" s="3">
-        <v>-741300</v>
+        <v>-697200</v>
       </c>
       <c r="J18" s="3">
-        <v>-64700</v>
+        <v>-60800</v>
       </c>
       <c r="K18" s="3">
         <v>-105800</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="E20" s="3">
-        <v>-11700</v>
+        <v>-11000</v>
       </c>
       <c r="F20" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="G20" s="3">
-        <v>51400</v>
+        <v>48300</v>
       </c>
       <c r="H20" s="3">
-        <v>-11600</v>
+        <v>-10900</v>
       </c>
       <c r="I20" s="3">
-        <v>-16300</v>
+        <v>-15300</v>
       </c>
       <c r="J20" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K20" s="3">
         <v>24500</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>82800</v>
+        <v>78800</v>
       </c>
       <c r="E21" s="3">
-        <v>323200</v>
+        <v>307300</v>
       </c>
       <c r="F21" s="3">
-        <v>347000</v>
+        <v>335200</v>
       </c>
       <c r="G21" s="3">
-        <v>528200</v>
+        <v>500200</v>
       </c>
       <c r="H21" s="3">
-        <v>1159000</v>
+        <v>1090600</v>
       </c>
       <c r="I21" s="3">
-        <v>-239400</v>
+        <v>-219500</v>
       </c>
       <c r="J21" s="3">
-        <v>129000</v>
+        <v>123300</v>
       </c>
       <c r="K21" s="3">
         <v>36100</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-10300</v>
+        <v>-9700</v>
       </c>
       <c r="E23" s="3">
-        <v>20200</v>
+        <v>19000</v>
       </c>
       <c r="F23" s="3">
-        <v>-464800</v>
+        <v>-437100</v>
       </c>
       <c r="G23" s="3">
-        <v>211300</v>
+        <v>198700</v>
       </c>
       <c r="H23" s="3">
-        <v>1095500</v>
+        <v>1030200</v>
       </c>
       <c r="I23" s="3">
-        <v>-757600</v>
+        <v>-712500</v>
       </c>
       <c r="J23" s="3">
-        <v>-61900</v>
+        <v>-58300</v>
       </c>
       <c r="K23" s="3">
         <v>-81400</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="E24" s="3">
-        <v>93100</v>
+        <v>87500</v>
       </c>
       <c r="F24" s="3">
-        <v>-160400</v>
+        <v>-150800</v>
       </c>
       <c r="G24" s="3">
-        <v>-68000</v>
+        <v>-64000</v>
       </c>
       <c r="H24" s="3">
-        <v>129400</v>
+        <v>121700</v>
       </c>
       <c r="I24" s="3">
-        <v>-10400</v>
+        <v>-9700</v>
       </c>
       <c r="J24" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="K24" s="3">
         <v>-14300</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-18800</v>
+        <v>-17700</v>
       </c>
       <c r="E26" s="3">
-        <v>-72800</v>
+        <v>-68500</v>
       </c>
       <c r="F26" s="3">
-        <v>-304400</v>
+        <v>-286300</v>
       </c>
       <c r="G26" s="3">
-        <v>279300</v>
+        <v>262700</v>
       </c>
       <c r="H26" s="3">
-        <v>966100</v>
+        <v>908500</v>
       </c>
       <c r="I26" s="3">
-        <v>-747200</v>
+        <v>-702700</v>
       </c>
       <c r="J26" s="3">
-        <v>-59500</v>
+        <v>-55900</v>
       </c>
       <c r="K26" s="3">
         <v>-67100</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-18800</v>
+        <v>-17700</v>
       </c>
       <c r="E27" s="3">
-        <v>-72800</v>
+        <v>-68500</v>
       </c>
       <c r="F27" s="3">
-        <v>-304400</v>
+        <v>-286300</v>
       </c>
       <c r="G27" s="3">
-        <v>279300</v>
+        <v>262700</v>
       </c>
       <c r="H27" s="3">
-        <v>966100</v>
+        <v>908500</v>
       </c>
       <c r="I27" s="3">
-        <v>-747200</v>
+        <v>-702700</v>
       </c>
       <c r="J27" s="3">
-        <v>-59500</v>
+        <v>-55900</v>
       </c>
       <c r="K27" s="3">
         <v>-67100</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E32" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="F32" s="3">
-        <v>-7000</v>
+        <v>-6600</v>
       </c>
       <c r="G32" s="3">
-        <v>-51400</v>
+        <v>-48300</v>
       </c>
       <c r="H32" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="I32" s="3">
-        <v>16300</v>
+        <v>15300</v>
       </c>
       <c r="J32" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="K32" s="3">
         <v>-24500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-18800</v>
+        <v>-17700</v>
       </c>
       <c r="E33" s="3">
-        <v>-72800</v>
+        <v>-68500</v>
       </c>
       <c r="F33" s="3">
-        <v>-304400</v>
+        <v>-286300</v>
       </c>
       <c r="G33" s="3">
-        <v>279300</v>
+        <v>262700</v>
       </c>
       <c r="H33" s="3">
-        <v>966100</v>
+        <v>908500</v>
       </c>
       <c r="I33" s="3">
-        <v>-747200</v>
+        <v>-702700</v>
       </c>
       <c r="J33" s="3">
-        <v>-59500</v>
+        <v>-55900</v>
       </c>
       <c r="K33" s="3">
         <v>-45500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-18800</v>
+        <v>-17700</v>
       </c>
       <c r="E35" s="3">
-        <v>-72800</v>
+        <v>-68500</v>
       </c>
       <c r="F35" s="3">
-        <v>-304400</v>
+        <v>-286300</v>
       </c>
       <c r="G35" s="3">
-        <v>279300</v>
+        <v>262700</v>
       </c>
       <c r="H35" s="3">
-        <v>966100</v>
+        <v>908500</v>
       </c>
       <c r="I35" s="3">
-        <v>-747200</v>
+        <v>-702700</v>
       </c>
       <c r="J35" s="3">
-        <v>-59500</v>
+        <v>-55900</v>
       </c>
       <c r="K35" s="3">
         <v>-45500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="E41" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="F41" s="3">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="G41" s="3">
-        <v>102200</v>
+        <v>96200</v>
       </c>
       <c r="H41" s="3">
-        <v>515600</v>
+        <v>484900</v>
       </c>
       <c r="I41" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="J41" s="3">
-        <v>15200</v>
+        <v>14300</v>
       </c>
       <c r="K41" s="3">
         <v>8200</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>98600</v>
+        <v>92800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>24</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>82900</v>
+        <v>78000</v>
       </c>
       <c r="E43" s="3">
-        <v>98400</v>
+        <v>92500</v>
       </c>
       <c r="F43" s="3">
-        <v>100600</v>
+        <v>94600</v>
       </c>
       <c r="G43" s="3">
-        <v>141200</v>
+        <v>132800</v>
       </c>
       <c r="H43" s="3">
-        <v>19800</v>
+        <v>18600</v>
       </c>
       <c r="I43" s="3">
-        <v>40400</v>
+        <v>38000</v>
       </c>
       <c r="J43" s="3">
-        <v>47300</v>
+        <v>44500</v>
       </c>
       <c r="K43" s="3">
         <v>30300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="E45" s="3">
-        <v>14100</v>
+        <v>13300</v>
       </c>
       <c r="F45" s="3">
-        <v>61400</v>
+        <v>57800</v>
       </c>
       <c r="G45" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="H45" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I45" s="3">
-        <v>37500</v>
+        <v>35300</v>
       </c>
       <c r="J45" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K45" s="3">
         <v>1700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>95300</v>
+        <v>89600</v>
       </c>
       <c r="E46" s="3">
-        <v>117500</v>
+        <v>110500</v>
       </c>
       <c r="F46" s="3">
-        <v>178000</v>
+        <v>167400</v>
       </c>
       <c r="G46" s="3">
-        <v>250900</v>
+        <v>236000</v>
       </c>
       <c r="H46" s="3">
-        <v>635400</v>
+        <v>597600</v>
       </c>
       <c r="I46" s="3">
-        <v>87800</v>
+        <v>82600</v>
       </c>
       <c r="J46" s="3">
-        <v>66500</v>
+        <v>62600</v>
       </c>
       <c r="K46" s="3">
         <v>40200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>125600</v>
+        <v>118100</v>
       </c>
       <c r="E47" s="3">
-        <v>134000</v>
+        <v>126000</v>
       </c>
       <c r="F47" s="3">
-        <v>192100</v>
+        <v>180700</v>
       </c>
       <c r="G47" s="3">
-        <v>44200</v>
+        <v>41600</v>
       </c>
       <c r="H47" s="3">
-        <v>89700</v>
+        <v>84400</v>
       </c>
       <c r="I47" s="3">
-        <v>98700</v>
+        <v>92800</v>
       </c>
       <c r="J47" s="3">
-        <v>153700</v>
+        <v>144500</v>
       </c>
       <c r="K47" s="3">
         <v>192400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2132100</v>
+        <v>2005100</v>
       </c>
       <c r="E48" s="3">
-        <v>2126100</v>
+        <v>1999500</v>
       </c>
       <c r="F48" s="3">
-        <v>2402700</v>
+        <v>2259600</v>
       </c>
       <c r="G48" s="3">
-        <v>2935300</v>
+        <v>2760400</v>
       </c>
       <c r="H48" s="3">
-        <v>981800</v>
+        <v>923300</v>
       </c>
       <c r="I48" s="3">
-        <v>1988100</v>
+        <v>1869700</v>
       </c>
       <c r="J48" s="3">
-        <v>2268300</v>
+        <v>2133200</v>
       </c>
       <c r="K48" s="3">
         <v>1541900</v>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="J49" s="3">
-        <v>20500</v>
+        <v>19300</v>
       </c>
       <c r="K49" s="3">
         <v>2400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>546200</v>
+        <v>513700</v>
       </c>
       <c r="E52" s="3">
-        <v>550100</v>
+        <v>517300</v>
       </c>
       <c r="F52" s="3">
-        <v>641300</v>
+        <v>603100</v>
       </c>
       <c r="G52" s="3">
-        <v>484200</v>
+        <v>455400</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>128400</v>
+        <v>120700</v>
       </c>
       <c r="J52" s="3">
-        <v>143500</v>
+        <v>135000</v>
       </c>
       <c r="K52" s="3">
         <v>107400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2899200</v>
+        <v>2726500</v>
       </c>
       <c r="E54" s="3">
-        <v>2927600</v>
+        <v>2753300</v>
       </c>
       <c r="F54" s="3">
-        <v>3414100</v>
+        <v>3210800</v>
       </c>
       <c r="G54" s="3">
-        <v>3714600</v>
+        <v>3493400</v>
       </c>
       <c r="H54" s="3">
-        <v>1707000</v>
+        <v>1605300</v>
       </c>
       <c r="I54" s="3">
-        <v>2305600</v>
+        <v>2168300</v>
       </c>
       <c r="J54" s="3">
-        <v>2652500</v>
+        <v>2494500</v>
       </c>
       <c r="K54" s="3">
         <v>1884400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>117100</v>
+        <v>110100</v>
       </c>
       <c r="E57" s="3">
-        <v>147700</v>
+        <v>138900</v>
       </c>
       <c r="F57" s="3">
-        <v>155600</v>
+        <v>146300</v>
       </c>
       <c r="G57" s="3">
-        <v>184000</v>
+        <v>173000</v>
       </c>
       <c r="H57" s="3">
-        <v>67000</v>
+        <v>63100</v>
       </c>
       <c r="I57" s="3">
-        <v>81100</v>
+        <v>76300</v>
       </c>
       <c r="J57" s="3">
-        <v>209200</v>
+        <v>196700</v>
       </c>
       <c r="K57" s="3">
         <v>147600</v>
@@ -2310,10 +2310,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="E58" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>24</v>
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>83700</v>
+        <v>78700</v>
       </c>
       <c r="J58" s="3">
-        <v>67600</v>
+        <v>63600</v>
       </c>
       <c r="K58" s="3">
         <v>58200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>54800</v>
+        <v>51500</v>
       </c>
       <c r="E59" s="3">
-        <v>48800</v>
+        <v>45900</v>
       </c>
       <c r="F59" s="3">
-        <v>62700</v>
+        <v>58900</v>
       </c>
       <c r="G59" s="3">
-        <v>51700</v>
+        <v>48600</v>
       </c>
       <c r="H59" s="3">
-        <v>110100</v>
+        <v>103500</v>
       </c>
       <c r="I59" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="J59" s="3">
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="K59" s="3">
         <v>19800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>180100</v>
+        <v>169400</v>
       </c>
       <c r="E60" s="3">
-        <v>204700</v>
+        <v>192500</v>
       </c>
       <c r="F60" s="3">
-        <v>218200</v>
+        <v>205200</v>
       </c>
       <c r="G60" s="3">
-        <v>235700</v>
+        <v>221600</v>
       </c>
       <c r="H60" s="3">
-        <v>177100</v>
+        <v>166600</v>
       </c>
       <c r="I60" s="3">
-        <v>172900</v>
+        <v>162600</v>
       </c>
       <c r="J60" s="3">
-        <v>288800</v>
+        <v>271600</v>
       </c>
       <c r="K60" s="3">
         <v>225600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>684200</v>
+        <v>643400</v>
       </c>
       <c r="E61" s="3">
-        <v>542300</v>
+        <v>510000</v>
       </c>
       <c r="F61" s="3">
-        <v>675700</v>
+        <v>635400</v>
       </c>
       <c r="G61" s="3">
-        <v>581800</v>
+        <v>547100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1451000</v>
+        <v>1364600</v>
       </c>
       <c r="J61" s="3">
-        <v>1003400</v>
+        <v>943700</v>
       </c>
       <c r="K61" s="3">
         <v>679400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>345500</v>
+        <v>324900</v>
       </c>
       <c r="E62" s="3">
-        <v>453600</v>
+        <v>426600</v>
       </c>
       <c r="F62" s="3">
-        <v>654400</v>
+        <v>615400</v>
       </c>
       <c r="G62" s="3">
-        <v>686700</v>
+        <v>645800</v>
       </c>
       <c r="H62" s="3">
-        <v>174500</v>
+        <v>164200</v>
       </c>
       <c r="I62" s="3">
-        <v>226800</v>
+        <v>213300</v>
       </c>
       <c r="J62" s="3">
-        <v>238300</v>
+        <v>224100</v>
       </c>
       <c r="K62" s="3">
         <v>184600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1209800</v>
+        <v>1137700</v>
       </c>
       <c r="E66" s="3">
-        <v>1200600</v>
+        <v>1129100</v>
       </c>
       <c r="F66" s="3">
-        <v>1548300</v>
+        <v>1456100</v>
       </c>
       <c r="G66" s="3">
-        <v>1504200</v>
+        <v>1414600</v>
       </c>
       <c r="H66" s="3">
-        <v>351700</v>
+        <v>330700</v>
       </c>
       <c r="I66" s="3">
-        <v>1850700</v>
+        <v>1740500</v>
       </c>
       <c r="J66" s="3">
-        <v>1530500</v>
+        <v>1439400</v>
       </c>
       <c r="K66" s="3">
         <v>1089700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-194900</v>
+        <v>-183300</v>
       </c>
       <c r="E72" s="3">
-        <v>-106500</v>
+        <v>-100200</v>
       </c>
       <c r="F72" s="3">
-        <v>17600</v>
+        <v>16500</v>
       </c>
       <c r="G72" s="3">
-        <v>226300</v>
+        <v>212800</v>
       </c>
       <c r="H72" s="3">
-        <v>-126200</v>
+        <v>-118700</v>
       </c>
       <c r="I72" s="3">
-        <v>-992900</v>
+        <v>-933800</v>
       </c>
       <c r="J72" s="3">
-        <v>-245700</v>
+        <v>-231000</v>
       </c>
       <c r="K72" s="3">
         <v>-172900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1689400</v>
+        <v>1588800</v>
       </c>
       <c r="E76" s="3">
-        <v>1727100</v>
+        <v>1624200</v>
       </c>
       <c r="F76" s="3">
-        <v>1865800</v>
+        <v>1754700</v>
       </c>
       <c r="G76" s="3">
-        <v>2210500</v>
+        <v>2078800</v>
       </c>
       <c r="H76" s="3">
-        <v>1355300</v>
+        <v>1274600</v>
       </c>
       <c r="I76" s="3">
-        <v>454900</v>
+        <v>427800</v>
       </c>
       <c r="J76" s="3">
-        <v>1121900</v>
+        <v>1055100</v>
       </c>
       <c r="K76" s="3">
         <v>794600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-18800</v>
+        <v>-17700</v>
       </c>
       <c r="E81" s="3">
-        <v>-72800</v>
+        <v>-68500</v>
       </c>
       <c r="F81" s="3">
-        <v>-304400</v>
+        <v>-286300</v>
       </c>
       <c r="G81" s="3">
-        <v>279300</v>
+        <v>262700</v>
       </c>
       <c r="H81" s="3">
-        <v>966100</v>
+        <v>908500</v>
       </c>
       <c r="I81" s="3">
-        <v>-747200</v>
+        <v>-702700</v>
       </c>
       <c r="J81" s="3">
-        <v>-59500</v>
+        <v>-55900</v>
       </c>
       <c r="K81" s="3">
         <v>-45500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>92900</v>
+        <v>87400</v>
       </c>
       <c r="E83" s="3">
-        <v>302400</v>
+        <v>284400</v>
       </c>
       <c r="F83" s="3">
-        <v>810200</v>
+        <v>762000</v>
       </c>
       <c r="G83" s="3">
-        <v>316300</v>
+        <v>297400</v>
       </c>
       <c r="H83" s="3">
-        <v>63400</v>
+        <v>59600</v>
       </c>
       <c r="I83" s="3">
-        <v>517200</v>
+        <v>486400</v>
       </c>
       <c r="J83" s="3">
-        <v>190500</v>
+        <v>179200</v>
       </c>
       <c r="K83" s="3">
         <v>117700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>67100</v>
+        <v>63100</v>
       </c>
       <c r="E89" s="3">
-        <v>212000</v>
+        <v>199400</v>
       </c>
       <c r="F89" s="3">
-        <v>185200</v>
+        <v>174200</v>
       </c>
       <c r="G89" s="3">
-        <v>104700</v>
+        <v>98500</v>
       </c>
       <c r="H89" s="3">
-        <v>37900</v>
+        <v>35700</v>
       </c>
       <c r="I89" s="3">
-        <v>69900</v>
+        <v>65700</v>
       </c>
       <c r="J89" s="3">
-        <v>98200</v>
+        <v>92400</v>
       </c>
       <c r="K89" s="3">
         <v>34600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-183400</v>
+        <v>-172500</v>
       </c>
       <c r="E91" s="3">
-        <v>-335000</v>
+        <v>-315100</v>
       </c>
       <c r="F91" s="3">
-        <v>-481000</v>
+        <v>-452400</v>
       </c>
       <c r="G91" s="3">
-        <v>-451900</v>
+        <v>-425000</v>
       </c>
       <c r="H91" s="3">
-        <v>-166600</v>
+        <v>-156700</v>
       </c>
       <c r="I91" s="3">
-        <v>-409500</v>
+        <v>-385100</v>
       </c>
       <c r="J91" s="3">
-        <v>-780500</v>
+        <v>-734000</v>
       </c>
       <c r="K91" s="3">
         <v>-566700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-207300</v>
+        <v>-194900</v>
       </c>
       <c r="E94" s="3">
-        <v>-81700</v>
+        <v>-76800</v>
       </c>
       <c r="F94" s="3">
-        <v>-308000</v>
+        <v>-289600</v>
       </c>
       <c r="G94" s="3">
-        <v>-709000</v>
+        <v>-666800</v>
       </c>
       <c r="H94" s="3">
-        <v>1520000</v>
+        <v>1429400</v>
       </c>
       <c r="I94" s="3">
-        <v>-513900</v>
+        <v>-483300</v>
       </c>
       <c r="J94" s="3">
-        <v>-657900</v>
+        <v>-618700</v>
       </c>
       <c r="K94" s="3">
         <v>-500600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>139600</v>
+        <v>131300</v>
       </c>
       <c r="E100" s="3">
-        <v>-141100</v>
+        <v>-132700</v>
       </c>
       <c r="F100" s="3">
-        <v>34500</v>
+        <v>32400</v>
       </c>
       <c r="G100" s="3">
-        <v>192200</v>
+        <v>180800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1052000</v>
+        <v>-989300</v>
       </c>
       <c r="I100" s="3">
-        <v>435900</v>
+        <v>409900</v>
       </c>
       <c r="J100" s="3">
-        <v>565900</v>
+        <v>532200</v>
       </c>
       <c r="K100" s="3">
         <v>360700</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
       </c>
       <c r="F101" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G101" s="3">
         <v>-1200</v>
       </c>
       <c r="H101" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I101" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="E102" s="3">
-        <v>-11000</v>
+        <v>-10400</v>
       </c>
       <c r="F102" s="3">
-        <v>-86200</v>
+        <v>-81100</v>
       </c>
       <c r="G102" s="3">
-        <v>-413300</v>
+        <v>-388700</v>
       </c>
       <c r="H102" s="3">
-        <v>505700</v>
+        <v>475500</v>
       </c>
       <c r="I102" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="J102" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="K102" s="3">
         <v>-104700</v>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>470600</v>
+        <v>473800</v>
       </c>
       <c r="E8" s="3">
-        <v>628700</v>
+        <v>633100</v>
       </c>
       <c r="F8" s="3">
-        <v>704300</v>
+        <v>709100</v>
       </c>
       <c r="G8" s="3">
-        <v>360800</v>
+        <v>363300</v>
       </c>
       <c r="H8" s="3">
-        <v>192500</v>
+        <v>193800</v>
       </c>
       <c r="I8" s="3">
-        <v>326800</v>
+        <v>329100</v>
       </c>
       <c r="J8" s="3">
-        <v>261400</v>
+        <v>263200</v>
       </c>
       <c r="K8" s="3">
         <v>166200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>310600</v>
+        <v>312700</v>
       </c>
       <c r="E9" s="3">
-        <v>367000</v>
+        <v>369500</v>
       </c>
       <c r="F9" s="3">
-        <v>369500</v>
+        <v>372100</v>
       </c>
       <c r="G9" s="3">
-        <v>169100</v>
+        <v>170300</v>
       </c>
       <c r="H9" s="3">
-        <v>119700</v>
+        <v>120500</v>
       </c>
       <c r="I9" s="3">
-        <v>121400</v>
+        <v>122300</v>
       </c>
       <c r="J9" s="3">
-        <v>83600</v>
+        <v>84100</v>
       </c>
       <c r="K9" s="3">
         <v>71100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>160000</v>
+        <v>161100</v>
       </c>
       <c r="E10" s="3">
-        <v>261800</v>
+        <v>263600</v>
       </c>
       <c r="F10" s="3">
-        <v>334700</v>
+        <v>337100</v>
       </c>
       <c r="G10" s="3">
-        <v>191700</v>
+        <v>193000</v>
       </c>
       <c r="H10" s="3">
-        <v>72800</v>
+        <v>73300</v>
       </c>
       <c r="I10" s="3">
-        <v>205400</v>
+        <v>206800</v>
       </c>
       <c r="J10" s="3">
-        <v>177900</v>
+        <v>179100</v>
       </c>
       <c r="K10" s="3">
         <v>95100</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>6500</v>
+        <v>26700</v>
       </c>
       <c r="E12" s="3">
         <v>8600</v>
       </c>
       <c r="F12" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="G12" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="H12" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="I12" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="J12" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="K12" s="3">
         <v>16200</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-104600</v>
+        <v>-105300</v>
       </c>
       <c r="E14" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F14" s="3">
-        <v>393700</v>
+        <v>396400</v>
       </c>
       <c r="G14" s="3">
-        <v>-55100</v>
+        <v>-55500</v>
       </c>
       <c r="H14" s="3">
-        <v>-71300</v>
+        <v>-71800</v>
       </c>
       <c r="I14" s="3">
-        <v>422300</v>
+        <v>425200</v>
       </c>
       <c r="J14" s="3">
-        <v>37700</v>
+        <v>38000</v>
       </c>
       <c r="K14" s="3">
         <v>7800</v>
@@ -952,25 +952,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>198000</v>
+        <v>199300</v>
       </c>
       <c r="E15" s="3">
-        <v>284400</v>
+        <v>286400</v>
       </c>
       <c r="F15" s="3">
-        <v>370100</v>
+        <v>372700</v>
       </c>
       <c r="G15" s="3">
-        <v>235400</v>
+        <v>237000</v>
       </c>
       <c r="H15" s="3">
-        <v>168500</v>
+        <v>169600</v>
       </c>
       <c r="I15" s="3">
-        <v>285000</v>
+        <v>287000</v>
       </c>
       <c r="J15" s="3">
-        <v>163000</v>
+        <v>164200</v>
       </c>
       <c r="K15" s="3">
         <v>119900</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>478000</v>
+        <v>481200</v>
       </c>
       <c r="E17" s="3">
-        <v>598700</v>
+        <v>602800</v>
       </c>
       <c r="F17" s="3">
-        <v>1148000</v>
+        <v>1155900</v>
       </c>
       <c r="G17" s="3">
-        <v>210400</v>
+        <v>211800</v>
       </c>
       <c r="H17" s="3">
-        <v>-848600</v>
+        <v>-854500</v>
       </c>
       <c r="I17" s="3">
-        <v>1024000</v>
+        <v>1031000</v>
       </c>
       <c r="J17" s="3">
-        <v>322200</v>
+        <v>324500</v>
       </c>
       <c r="K17" s="3">
         <v>272100</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="E18" s="3">
-        <v>30000</v>
+        <v>30300</v>
       </c>
       <c r="F18" s="3">
-        <v>-443700</v>
+        <v>-446700</v>
       </c>
       <c r="G18" s="3">
-        <v>150400</v>
+        <v>151400</v>
       </c>
       <c r="H18" s="3">
-        <v>1041100</v>
+        <v>1048300</v>
       </c>
       <c r="I18" s="3">
-        <v>-697200</v>
+        <v>-702000</v>
       </c>
       <c r="J18" s="3">
-        <v>-60800</v>
+        <v>-61200</v>
       </c>
       <c r="K18" s="3">
         <v>-105800</v>
@@ -1092,19 +1092,19 @@
         <v>-2400</v>
       </c>
       <c r="E20" s="3">
-        <v>-11000</v>
+        <v>-11100</v>
       </c>
       <c r="F20" s="3">
         <v>6600</v>
       </c>
       <c r="G20" s="3">
-        <v>48300</v>
+        <v>48600</v>
       </c>
       <c r="H20" s="3">
         <v>-10900</v>
       </c>
       <c r="I20" s="3">
-        <v>-15300</v>
+        <v>-15400</v>
       </c>
       <c r="J20" s="3">
         <v>2600</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>78800</v>
+        <v>77900</v>
       </c>
       <c r="E21" s="3">
-        <v>307300</v>
+        <v>304500</v>
       </c>
       <c r="F21" s="3">
-        <v>335200</v>
+        <v>324200</v>
       </c>
       <c r="G21" s="3">
-        <v>500200</v>
+        <v>498400</v>
       </c>
       <c r="H21" s="3">
-        <v>1090600</v>
+        <v>1097100</v>
       </c>
       <c r="I21" s="3">
-        <v>-219500</v>
+        <v>-229400</v>
       </c>
       <c r="J21" s="3">
-        <v>123300</v>
+        <v>121100</v>
       </c>
       <c r="K21" s="3">
         <v>36100</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="E23" s="3">
-        <v>19000</v>
+        <v>19200</v>
       </c>
       <c r="F23" s="3">
-        <v>-437100</v>
+        <v>-440100</v>
       </c>
       <c r="G23" s="3">
-        <v>198700</v>
+        <v>200100</v>
       </c>
       <c r="H23" s="3">
-        <v>1030200</v>
+        <v>1037300</v>
       </c>
       <c r="I23" s="3">
-        <v>-712500</v>
+        <v>-717400</v>
       </c>
       <c r="J23" s="3">
-        <v>-58300</v>
+        <v>-58700</v>
       </c>
       <c r="K23" s="3">
         <v>-81400</v>
@@ -1236,22 +1236,22 @@
         <v>8000</v>
       </c>
       <c r="E24" s="3">
-        <v>87500</v>
+        <v>88100</v>
       </c>
       <c r="F24" s="3">
-        <v>-150800</v>
+        <v>-151900</v>
       </c>
       <c r="G24" s="3">
-        <v>-64000</v>
+        <v>-64400</v>
       </c>
       <c r="H24" s="3">
-        <v>121700</v>
+        <v>122500</v>
       </c>
       <c r="I24" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="J24" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K24" s="3">
         <v>-14300</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="E26" s="3">
-        <v>-68500</v>
+        <v>-69000</v>
       </c>
       <c r="F26" s="3">
-        <v>-286300</v>
+        <v>-288200</v>
       </c>
       <c r="G26" s="3">
-        <v>262700</v>
+        <v>264500</v>
       </c>
       <c r="H26" s="3">
-        <v>908500</v>
+        <v>914800</v>
       </c>
       <c r="I26" s="3">
-        <v>-702700</v>
+        <v>-707600</v>
       </c>
       <c r="J26" s="3">
-        <v>-55900</v>
+        <v>-56300</v>
       </c>
       <c r="K26" s="3">
         <v>-67100</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="E27" s="3">
-        <v>-68500</v>
+        <v>-69000</v>
       </c>
       <c r="F27" s="3">
-        <v>-286300</v>
+        <v>-288200</v>
       </c>
       <c r="G27" s="3">
-        <v>262700</v>
+        <v>264500</v>
       </c>
       <c r="H27" s="3">
-        <v>908500</v>
+        <v>914800</v>
       </c>
       <c r="I27" s="3">
-        <v>-702700</v>
+        <v>-707600</v>
       </c>
       <c r="J27" s="3">
-        <v>-55900</v>
+        <v>-56300</v>
       </c>
       <c r="K27" s="3">
         <v>-67100</v>
@@ -1524,19 +1524,19 @@
         <v>2400</v>
       </c>
       <c r="E32" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="F32" s="3">
         <v>-6600</v>
       </c>
       <c r="G32" s="3">
-        <v>-48300</v>
+        <v>-48600</v>
       </c>
       <c r="H32" s="3">
         <v>10900</v>
       </c>
       <c r="I32" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="J32" s="3">
         <v>-2600</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="E33" s="3">
-        <v>-68500</v>
+        <v>-69000</v>
       </c>
       <c r="F33" s="3">
-        <v>-286300</v>
+        <v>-288200</v>
       </c>
       <c r="G33" s="3">
-        <v>262700</v>
+        <v>264500</v>
       </c>
       <c r="H33" s="3">
-        <v>908500</v>
+        <v>914800</v>
       </c>
       <c r="I33" s="3">
-        <v>-702700</v>
+        <v>-707600</v>
       </c>
       <c r="J33" s="3">
-        <v>-55900</v>
+        <v>-56300</v>
       </c>
       <c r="K33" s="3">
         <v>-45500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="E35" s="3">
-        <v>-68500</v>
+        <v>-69000</v>
       </c>
       <c r="F35" s="3">
-        <v>-286300</v>
+        <v>-288200</v>
       </c>
       <c r="G35" s="3">
-        <v>262700</v>
+        <v>264500</v>
       </c>
       <c r="H35" s="3">
-        <v>908500</v>
+        <v>914800</v>
       </c>
       <c r="I35" s="3">
-        <v>-702700</v>
+        <v>-707600</v>
       </c>
       <c r="J35" s="3">
-        <v>-55900</v>
+        <v>-56300</v>
       </c>
       <c r="K35" s="3">
         <v>-45500</v>
@@ -1744,19 +1744,19 @@
         <v>4700</v>
       </c>
       <c r="F41" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="G41" s="3">
-        <v>96200</v>
+        <v>96800</v>
       </c>
       <c r="H41" s="3">
-        <v>484900</v>
+        <v>488200</v>
       </c>
       <c r="I41" s="3">
-        <v>9300</v>
+        <v>9400</v>
       </c>
       <c r="J41" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="K41" s="3">
         <v>8200</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>92800</v>
+        <v>93400</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>24</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>78000</v>
+        <v>78500</v>
       </c>
       <c r="E43" s="3">
-        <v>92500</v>
+        <v>93100</v>
       </c>
       <c r="F43" s="3">
-        <v>94600</v>
+        <v>95300</v>
       </c>
       <c r="G43" s="3">
-        <v>132800</v>
+        <v>133700</v>
       </c>
       <c r="H43" s="3">
-        <v>18600</v>
+        <v>18800</v>
       </c>
       <c r="I43" s="3">
-        <v>38000</v>
+        <v>38300</v>
       </c>
       <c r="J43" s="3">
-        <v>44500</v>
+        <v>44800</v>
       </c>
       <c r="K43" s="3">
         <v>30300</v>
@@ -1885,10 +1885,10 @@
         <v>8100</v>
       </c>
       <c r="E45" s="3">
-        <v>13300</v>
+        <v>13400</v>
       </c>
       <c r="F45" s="3">
-        <v>57800</v>
+        <v>58200</v>
       </c>
       <c r="G45" s="3">
         <v>7100</v>
@@ -1897,7 +1897,7 @@
         <v>1300</v>
       </c>
       <c r="I45" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="J45" s="3">
         <v>3800</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>89600</v>
+        <v>90200</v>
       </c>
       <c r="E46" s="3">
-        <v>110500</v>
+        <v>111200</v>
       </c>
       <c r="F46" s="3">
-        <v>167400</v>
+        <v>168600</v>
       </c>
       <c r="G46" s="3">
-        <v>236000</v>
+        <v>237600</v>
       </c>
       <c r="H46" s="3">
-        <v>597600</v>
+        <v>601700</v>
       </c>
       <c r="I46" s="3">
-        <v>82600</v>
+        <v>83200</v>
       </c>
       <c r="J46" s="3">
-        <v>62600</v>
+        <v>63000</v>
       </c>
       <c r="K46" s="3">
         <v>40200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>118100</v>
+        <v>119000</v>
       </c>
       <c r="E47" s="3">
-        <v>126000</v>
+        <v>126900</v>
       </c>
       <c r="F47" s="3">
-        <v>180700</v>
+        <v>181900</v>
       </c>
       <c r="G47" s="3">
-        <v>41600</v>
+        <v>41900</v>
       </c>
       <c r="H47" s="3">
-        <v>84400</v>
+        <v>85000</v>
       </c>
       <c r="I47" s="3">
-        <v>92800</v>
+        <v>93500</v>
       </c>
       <c r="J47" s="3">
-        <v>144500</v>
+        <v>145500</v>
       </c>
       <c r="K47" s="3">
         <v>192400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2005100</v>
+        <v>2018900</v>
       </c>
       <c r="E48" s="3">
-        <v>1999500</v>
+        <v>2013300</v>
       </c>
       <c r="F48" s="3">
-        <v>2259600</v>
+        <v>2275100</v>
       </c>
       <c r="G48" s="3">
-        <v>2760400</v>
+        <v>2779500</v>
       </c>
       <c r="H48" s="3">
-        <v>923300</v>
+        <v>929700</v>
       </c>
       <c r="I48" s="3">
-        <v>1869700</v>
+        <v>1882600</v>
       </c>
       <c r="J48" s="3">
-        <v>2133200</v>
+        <v>2147900</v>
       </c>
       <c r="K48" s="3">
         <v>1541900</v>
@@ -2041,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J49" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="K49" s="3">
         <v>2400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>513700</v>
+        <v>517200</v>
       </c>
       <c r="E52" s="3">
-        <v>517300</v>
+        <v>520900</v>
       </c>
       <c r="F52" s="3">
-        <v>603100</v>
+        <v>607300</v>
       </c>
       <c r="G52" s="3">
-        <v>455400</v>
+        <v>458500</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>120700</v>
+        <v>121500</v>
       </c>
       <c r="J52" s="3">
-        <v>135000</v>
+        <v>135900</v>
       </c>
       <c r="K52" s="3">
         <v>107400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2726500</v>
+        <v>2745300</v>
       </c>
       <c r="E54" s="3">
-        <v>2753300</v>
+        <v>2772300</v>
       </c>
       <c r="F54" s="3">
-        <v>3210800</v>
+        <v>3232900</v>
       </c>
       <c r="G54" s="3">
-        <v>3493400</v>
+        <v>3517500</v>
       </c>
       <c r="H54" s="3">
-        <v>1605300</v>
+        <v>1616400</v>
       </c>
       <c r="I54" s="3">
-        <v>2168300</v>
+        <v>2183300</v>
       </c>
       <c r="J54" s="3">
-        <v>2494500</v>
+        <v>2511700</v>
       </c>
       <c r="K54" s="3">
         <v>1884400</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>110100</v>
+        <v>110900</v>
       </c>
       <c r="E57" s="3">
-        <v>138900</v>
+        <v>139800</v>
       </c>
       <c r="F57" s="3">
-        <v>146300</v>
+        <v>147300</v>
       </c>
       <c r="G57" s="3">
-        <v>173000</v>
+        <v>174200</v>
       </c>
       <c r="H57" s="3">
-        <v>63100</v>
+        <v>63500</v>
       </c>
       <c r="I57" s="3">
-        <v>76300</v>
+        <v>76800</v>
       </c>
       <c r="J57" s="3">
-        <v>196700</v>
+        <v>198100</v>
       </c>
       <c r="K57" s="3">
         <v>147600</v>
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>78700</v>
+        <v>79200</v>
       </c>
       <c r="J58" s="3">
-        <v>63600</v>
+        <v>64000</v>
       </c>
       <c r="K58" s="3">
         <v>58200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>51500</v>
+        <v>51900</v>
       </c>
       <c r="E59" s="3">
-        <v>45900</v>
+        <v>46200</v>
       </c>
       <c r="F59" s="3">
-        <v>58900</v>
+        <v>59300</v>
       </c>
       <c r="G59" s="3">
-        <v>48600</v>
+        <v>49000</v>
       </c>
       <c r="H59" s="3">
-        <v>103500</v>
+        <v>104200</v>
       </c>
       <c r="I59" s="3">
         <v>7600</v>
       </c>
       <c r="J59" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="K59" s="3">
         <v>19800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>169400</v>
+        <v>170600</v>
       </c>
       <c r="E60" s="3">
-        <v>192500</v>
+        <v>193800</v>
       </c>
       <c r="F60" s="3">
-        <v>205200</v>
+        <v>206600</v>
       </c>
       <c r="G60" s="3">
-        <v>221600</v>
+        <v>223100</v>
       </c>
       <c r="H60" s="3">
-        <v>166600</v>
+        <v>167700</v>
       </c>
       <c r="I60" s="3">
-        <v>162600</v>
+        <v>163700</v>
       </c>
       <c r="J60" s="3">
-        <v>271600</v>
+        <v>273500</v>
       </c>
       <c r="K60" s="3">
         <v>225600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>643400</v>
+        <v>647800</v>
       </c>
       <c r="E61" s="3">
-        <v>510000</v>
+        <v>513500</v>
       </c>
       <c r="F61" s="3">
-        <v>635400</v>
+        <v>639800</v>
       </c>
       <c r="G61" s="3">
-        <v>547100</v>
+        <v>550900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1364600</v>
+        <v>1374000</v>
       </c>
       <c r="J61" s="3">
-        <v>943700</v>
+        <v>950200</v>
       </c>
       <c r="K61" s="3">
         <v>679400</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>324900</v>
+        <v>327100</v>
       </c>
       <c r="E62" s="3">
-        <v>426600</v>
+        <v>429600</v>
       </c>
       <c r="F62" s="3">
-        <v>615400</v>
+        <v>619700</v>
       </c>
       <c r="G62" s="3">
-        <v>645800</v>
+        <v>650300</v>
       </c>
       <c r="H62" s="3">
-        <v>164200</v>
+        <v>165300</v>
       </c>
       <c r="I62" s="3">
-        <v>213300</v>
+        <v>214800</v>
       </c>
       <c r="J62" s="3">
-        <v>224100</v>
+        <v>225600</v>
       </c>
       <c r="K62" s="3">
         <v>184600</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1137700</v>
+        <v>1145600</v>
       </c>
       <c r="E66" s="3">
-        <v>1129100</v>
+        <v>1136900</v>
       </c>
       <c r="F66" s="3">
-        <v>1456100</v>
+        <v>1466100</v>
       </c>
       <c r="G66" s="3">
-        <v>1414600</v>
+        <v>1424300</v>
       </c>
       <c r="H66" s="3">
-        <v>330700</v>
+        <v>333000</v>
       </c>
       <c r="I66" s="3">
-        <v>1740500</v>
+        <v>1752500</v>
       </c>
       <c r="J66" s="3">
-        <v>1439400</v>
+        <v>1449300</v>
       </c>
       <c r="K66" s="3">
         <v>1089700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-183300</v>
+        <v>-184500</v>
       </c>
       <c r="E72" s="3">
-        <v>-100200</v>
+        <v>-100900</v>
       </c>
       <c r="F72" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="G72" s="3">
-        <v>212800</v>
+        <v>214300</v>
       </c>
       <c r="H72" s="3">
-        <v>-118700</v>
+        <v>-119500</v>
       </c>
       <c r="I72" s="3">
-        <v>-933800</v>
+        <v>-940200</v>
       </c>
       <c r="J72" s="3">
-        <v>-231000</v>
+        <v>-232600</v>
       </c>
       <c r="K72" s="3">
         <v>-172900</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1588800</v>
+        <v>1599800</v>
       </c>
       <c r="E76" s="3">
-        <v>1624200</v>
+        <v>1635400</v>
       </c>
       <c r="F76" s="3">
-        <v>1754700</v>
+        <v>1766800</v>
       </c>
       <c r="G76" s="3">
-        <v>2078800</v>
+        <v>2093100</v>
       </c>
       <c r="H76" s="3">
-        <v>1274600</v>
+        <v>1283400</v>
       </c>
       <c r="I76" s="3">
-        <v>427800</v>
+        <v>430800</v>
       </c>
       <c r="J76" s="3">
-        <v>1055100</v>
+        <v>1062400</v>
       </c>
       <c r="K76" s="3">
         <v>794600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="E81" s="3">
-        <v>-68500</v>
+        <v>-69000</v>
       </c>
       <c r="F81" s="3">
-        <v>-286300</v>
+        <v>-288200</v>
       </c>
       <c r="G81" s="3">
-        <v>262700</v>
+        <v>264500</v>
       </c>
       <c r="H81" s="3">
-        <v>908500</v>
+        <v>914800</v>
       </c>
       <c r="I81" s="3">
-        <v>-702700</v>
+        <v>-707600</v>
       </c>
       <c r="J81" s="3">
-        <v>-55900</v>
+        <v>-56300</v>
       </c>
       <c r="K81" s="3">
         <v>-45500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>87400</v>
+        <v>88000</v>
       </c>
       <c r="E83" s="3">
-        <v>284400</v>
+        <v>286400</v>
       </c>
       <c r="F83" s="3">
-        <v>762000</v>
+        <v>767200</v>
       </c>
       <c r="G83" s="3">
-        <v>297400</v>
+        <v>299500</v>
       </c>
       <c r="H83" s="3">
-        <v>59600</v>
+        <v>60000</v>
       </c>
       <c r="I83" s="3">
-        <v>486400</v>
+        <v>489800</v>
       </c>
       <c r="J83" s="3">
-        <v>179200</v>
+        <v>180400</v>
       </c>
       <c r="K83" s="3">
         <v>117700</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>63100</v>
+        <v>63500</v>
       </c>
       <c r="E89" s="3">
-        <v>199400</v>
+        <v>200700</v>
       </c>
       <c r="F89" s="3">
-        <v>174200</v>
+        <v>175400</v>
       </c>
       <c r="G89" s="3">
-        <v>98500</v>
+        <v>99100</v>
       </c>
       <c r="H89" s="3">
-        <v>35700</v>
+        <v>35900</v>
       </c>
       <c r="I89" s="3">
-        <v>65700</v>
+        <v>66200</v>
       </c>
       <c r="J89" s="3">
-        <v>92400</v>
+        <v>93000</v>
       </c>
       <c r="K89" s="3">
         <v>34600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-172500</v>
+        <v>-173700</v>
       </c>
       <c r="E91" s="3">
-        <v>-315100</v>
+        <v>-317300</v>
       </c>
       <c r="F91" s="3">
-        <v>-452400</v>
+        <v>-455500</v>
       </c>
       <c r="G91" s="3">
-        <v>-425000</v>
+        <v>-427900</v>
       </c>
       <c r="H91" s="3">
-        <v>-156700</v>
+        <v>-157800</v>
       </c>
       <c r="I91" s="3">
-        <v>-385100</v>
+        <v>-387800</v>
       </c>
       <c r="J91" s="3">
-        <v>-734000</v>
+        <v>-739100</v>
       </c>
       <c r="K91" s="3">
         <v>-566700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-194900</v>
+        <v>-196300</v>
       </c>
       <c r="E94" s="3">
-        <v>-76800</v>
+        <v>-77300</v>
       </c>
       <c r="F94" s="3">
-        <v>-289600</v>
+        <v>-291600</v>
       </c>
       <c r="G94" s="3">
-        <v>-666800</v>
+        <v>-671400</v>
       </c>
       <c r="H94" s="3">
-        <v>1429400</v>
+        <v>1439300</v>
       </c>
       <c r="I94" s="3">
-        <v>-483300</v>
+        <v>-486600</v>
       </c>
       <c r="J94" s="3">
-        <v>-618700</v>
+        <v>-623000</v>
       </c>
       <c r="K94" s="3">
         <v>-500600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>131300</v>
+        <v>132200</v>
       </c>
       <c r="E100" s="3">
-        <v>-132700</v>
+        <v>-133600</v>
       </c>
       <c r="F100" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="G100" s="3">
-        <v>180800</v>
+        <v>182000</v>
       </c>
       <c r="H100" s="3">
-        <v>-989300</v>
+        <v>-996200</v>
       </c>
       <c r="I100" s="3">
-        <v>409900</v>
+        <v>412700</v>
       </c>
       <c r="J100" s="3">
-        <v>532200</v>
+        <v>535900</v>
       </c>
       <c r="K100" s="3">
         <v>360700</v>
@@ -3753,19 +3753,19 @@
         <v>-10400</v>
       </c>
       <c r="F102" s="3">
-        <v>-81100</v>
+        <v>-81700</v>
       </c>
       <c r="G102" s="3">
-        <v>-388700</v>
+        <v>-391400</v>
       </c>
       <c r="H102" s="3">
-        <v>475500</v>
+        <v>478800</v>
       </c>
       <c r="I102" s="3">
         <v>-5000</v>
       </c>
       <c r="J102" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K102" s="3">
         <v>-104700</v>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>PRMRF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>473800</v>
+        <v>836700</v>
       </c>
       <c r="E8" s="3">
-        <v>633100</v>
+        <v>473700</v>
       </c>
       <c r="F8" s="3">
-        <v>709100</v>
+        <v>632800</v>
       </c>
       <c r="G8" s="3">
-        <v>363300</v>
+        <v>708900</v>
       </c>
       <c r="H8" s="3">
-        <v>193800</v>
+        <v>363100</v>
       </c>
       <c r="I8" s="3">
-        <v>329100</v>
+        <v>193700</v>
       </c>
       <c r="J8" s="3">
+        <v>328900</v>
+      </c>
+      <c r="K8" s="3">
         <v>263200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>166200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>121600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>149200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>312700</v>
+        <v>357000</v>
       </c>
       <c r="E9" s="3">
-        <v>369500</v>
+        <v>312600</v>
       </c>
       <c r="F9" s="3">
-        <v>372100</v>
+        <v>369300</v>
       </c>
       <c r="G9" s="3">
-        <v>170300</v>
+        <v>372000</v>
       </c>
       <c r="H9" s="3">
+        <v>170200</v>
+      </c>
+      <c r="I9" s="3">
         <v>120500</v>
       </c>
-      <c r="I9" s="3">
-        <v>122300</v>
-      </c>
       <c r="J9" s="3">
+        <v>122200</v>
+      </c>
+      <c r="K9" s="3">
         <v>84100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>71100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>57100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>63700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>479700</v>
+      </c>
+      <c r="E10" s="3">
         <v>161100</v>
       </c>
-      <c r="E10" s="3">
-        <v>263600</v>
-      </c>
       <c r="F10" s="3">
-        <v>337100</v>
+        <v>263500</v>
       </c>
       <c r="G10" s="3">
-        <v>193000</v>
+        <v>336900</v>
       </c>
       <c r="H10" s="3">
+        <v>192900</v>
+      </c>
+      <c r="I10" s="3">
         <v>73300</v>
       </c>
-      <c r="I10" s="3">
-        <v>206800</v>
-      </c>
       <c r="J10" s="3">
+        <v>206700</v>
+      </c>
+      <c r="K10" s="3">
         <v>179100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>95100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>85500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E12" s="3">
         <v>26700</v>
       </c>
-      <c r="E12" s="3">
-        <v>8600</v>
-      </c>
       <c r="F12" s="3">
-        <v>9800</v>
+        <v>17600</v>
       </c>
       <c r="G12" s="3">
+        <v>21400</v>
+      </c>
+      <c r="H12" s="3">
         <v>7300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20900</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-196200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-105300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3800</v>
       </c>
-      <c r="F14" s="3">
-        <v>396400</v>
-      </c>
       <c r="G14" s="3">
+        <v>396300</v>
+      </c>
+      <c r="H14" s="3">
         <v>-55500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-71800</v>
       </c>
-      <c r="I14" s="3">
-        <v>425200</v>
-      </c>
       <c r="J14" s="3">
+        <v>425100</v>
+      </c>
+      <c r="K14" s="3">
         <v>38000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>79900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8900</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>235800</v>
+      </c>
+      <c r="E15" s="3">
         <v>199300</v>
       </c>
-      <c r="E15" s="3">
-        <v>286400</v>
-      </c>
       <c r="F15" s="3">
-        <v>372700</v>
+        <v>286200</v>
       </c>
       <c r="G15" s="3">
-        <v>237000</v>
+        <v>372500</v>
       </c>
       <c r="H15" s="3">
+        <v>236900</v>
+      </c>
+      <c r="I15" s="3">
         <v>169600</v>
       </c>
-      <c r="I15" s="3">
-        <v>287000</v>
-      </c>
       <c r="J15" s="3">
+        <v>286900</v>
+      </c>
+      <c r="K15" s="3">
         <v>164200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>119900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>224100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>114000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>481200</v>
+        <v>589700</v>
       </c>
       <c r="E17" s="3">
-        <v>602800</v>
+        <v>481100</v>
       </c>
       <c r="F17" s="3">
-        <v>1155900</v>
+        <v>602600</v>
       </c>
       <c r="G17" s="3">
-        <v>211800</v>
+        <v>1155400</v>
       </c>
       <c r="H17" s="3">
-        <v>-854500</v>
+        <v>211700</v>
       </c>
       <c r="I17" s="3">
-        <v>1031000</v>
+        <v>-854100</v>
       </c>
       <c r="J17" s="3">
+        <v>1030600</v>
+      </c>
+      <c r="K17" s="3">
         <v>324500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>272100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>314900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>426900</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7400</v>
       </c>
-      <c r="E18" s="3">
-        <v>30300</v>
-      </c>
       <c r="F18" s="3">
-        <v>-446700</v>
+        <v>30200</v>
       </c>
       <c r="G18" s="3">
+        <v>-446600</v>
+      </c>
+      <c r="H18" s="3">
         <v>151400</v>
       </c>
-      <c r="H18" s="3">
-        <v>1048300</v>
-      </c>
       <c r="I18" s="3">
-        <v>-702000</v>
+        <v>1047900</v>
       </c>
       <c r="J18" s="3">
+        <v>-701700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-61200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-105800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-193200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-277700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-11100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>48600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-15400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>24500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>126200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>77900</v>
+        <v>357000</v>
       </c>
       <c r="E21" s="3">
-        <v>304500</v>
+        <v>77700</v>
       </c>
       <c r="F21" s="3">
-        <v>324200</v>
+        <v>304000</v>
       </c>
       <c r="G21" s="3">
-        <v>498400</v>
+        <v>323300</v>
       </c>
       <c r="H21" s="3">
-        <v>1097100</v>
+        <v>497900</v>
       </c>
       <c r="I21" s="3">
-        <v>-229400</v>
+        <v>1096600</v>
       </c>
       <c r="J21" s="3">
+        <v>-229800</v>
+      </c>
+      <c r="K21" s="3">
         <v>121100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>36100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>147000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>253100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>19200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-440100</v>
-      </c>
       <c r="G23" s="3">
-        <v>200100</v>
+        <v>-439900</v>
       </c>
       <c r="H23" s="3">
-        <v>1037300</v>
+        <v>200000</v>
       </c>
       <c r="I23" s="3">
-        <v>-717400</v>
+        <v>1036900</v>
       </c>
       <c r="J23" s="3">
+        <v>-717100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-58700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-81400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-67000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-258000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E24" s="3">
         <v>8000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>88100</v>
       </c>
-      <c r="F24" s="3">
-        <v>-151900</v>
-      </c>
       <c r="G24" s="3">
+        <v>-151800</v>
+      </c>
+      <c r="H24" s="3">
         <v>-64400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>122500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-14300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-18300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-61100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>185900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17800</v>
       </c>
-      <c r="E26" s="3">
-        <v>-69000</v>
-      </c>
       <c r="F26" s="3">
-        <v>-288200</v>
+        <v>-68900</v>
       </c>
       <c r="G26" s="3">
-        <v>264500</v>
+        <v>-288100</v>
       </c>
       <c r="H26" s="3">
-        <v>914800</v>
+        <v>264400</v>
       </c>
       <c r="I26" s="3">
-        <v>-707600</v>
+        <v>914400</v>
       </c>
       <c r="J26" s="3">
+        <v>-707300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-56300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-67100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-48700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-196900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>185900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17800</v>
       </c>
-      <c r="E27" s="3">
-        <v>-69000</v>
-      </c>
       <c r="F27" s="3">
-        <v>-288200</v>
+        <v>-68900</v>
       </c>
       <c r="G27" s="3">
-        <v>264500</v>
+        <v>-288100</v>
       </c>
       <c r="H27" s="3">
-        <v>914800</v>
+        <v>264400</v>
       </c>
       <c r="I27" s="3">
-        <v>-707600</v>
+        <v>914400</v>
       </c>
       <c r="J27" s="3">
+        <v>-707300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-56300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-67100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-48700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-196900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>21600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>2100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>18700</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E32" s="3">
         <v>2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>11100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-48600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>15400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-24500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-126200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>185900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17800</v>
       </c>
-      <c r="E33" s="3">
-        <v>-69000</v>
-      </c>
       <c r="F33" s="3">
-        <v>-288200</v>
+        <v>-68900</v>
       </c>
       <c r="G33" s="3">
-        <v>264500</v>
+        <v>-288100</v>
       </c>
       <c r="H33" s="3">
-        <v>914800</v>
+        <v>264400</v>
       </c>
       <c r="I33" s="3">
-        <v>-707600</v>
+        <v>914400</v>
       </c>
       <c r="J33" s="3">
+        <v>-707300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-56300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-46600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-178200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>185900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17800</v>
       </c>
-      <c r="E35" s="3">
-        <v>-69000</v>
-      </c>
       <c r="F35" s="3">
-        <v>-288200</v>
+        <v>-68900</v>
       </c>
       <c r="G35" s="3">
-        <v>264500</v>
+        <v>-288100</v>
       </c>
       <c r="H35" s="3">
-        <v>914800</v>
+        <v>264400</v>
       </c>
       <c r="I35" s="3">
-        <v>-707600</v>
+        <v>914400</v>
       </c>
       <c r="J35" s="3">
+        <v>-707300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-56300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-46600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-178200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>96800</v>
       </c>
-      <c r="H41" s="3">
-        <v>488200</v>
-      </c>
       <c r="I41" s="3">
+        <v>488000</v>
+      </c>
+      <c r="J41" s="3">
         <v>9400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>110400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1779,17 +1868,17 @@
       <c r="E42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>93400</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>24</v>
@@ -1803,45 +1892,51 @@
       <c r="M42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>111400</v>
+      </c>
+      <c r="E43" s="3">
         <v>78500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>93100</v>
       </c>
-      <c r="F43" s="3">
-        <v>95300</v>
-      </c>
       <c r="G43" s="3">
+        <v>95200</v>
+      </c>
+      <c r="H43" s="3">
         <v>133700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18800</v>
       </c>
-      <c r="I43" s="3">
-        <v>38300</v>
-      </c>
       <c r="J43" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K43" s="3">
         <v>44800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,153 +1970,168 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E45" s="3">
         <v>8100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13400</v>
       </c>
-      <c r="F45" s="3">
-        <v>58200</v>
-      </c>
       <c r="G45" s="3">
+        <v>58100</v>
+      </c>
+      <c r="H45" s="3">
         <v>7100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>35500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46700</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E46" s="3">
         <v>90200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>111200</v>
       </c>
-      <c r="F46" s="3">
-        <v>168600</v>
-      </c>
       <c r="G46" s="3">
-        <v>237600</v>
+        <v>168500</v>
       </c>
       <c r="H46" s="3">
-        <v>601700</v>
+        <v>237500</v>
       </c>
       <c r="I46" s="3">
-        <v>83200</v>
+        <v>601500</v>
       </c>
       <c r="J46" s="3">
+        <v>83100</v>
+      </c>
+      <c r="K46" s="3">
         <v>63000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>146400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>99800</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>119000</v>
+        <v>292400</v>
       </c>
       <c r="E47" s="3">
+        <v>118900</v>
+      </c>
+      <c r="F47" s="3">
         <v>126900</v>
       </c>
-      <c r="F47" s="3">
-        <v>181900</v>
-      </c>
       <c r="G47" s="3">
-        <v>41900</v>
+        <v>181800</v>
       </c>
       <c r="H47" s="3">
-        <v>85000</v>
+        <v>41800</v>
       </c>
       <c r="I47" s="3">
-        <v>93500</v>
+        <v>84900</v>
       </c>
       <c r="J47" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K47" s="3">
         <v>145500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>192400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>164700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>196200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2018900</v>
+        <v>2204800</v>
       </c>
       <c r="E48" s="3">
-        <v>2013300</v>
+        <v>2018100</v>
       </c>
       <c r="F48" s="3">
-        <v>2275100</v>
+        <v>2012500</v>
       </c>
       <c r="G48" s="3">
-        <v>2779500</v>
+        <v>2274200</v>
       </c>
       <c r="H48" s="3">
-        <v>929700</v>
+        <v>2778400</v>
       </c>
       <c r="I48" s="3">
-        <v>1882600</v>
+        <v>929300</v>
       </c>
       <c r="J48" s="3">
+        <v>1881900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2147900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1541900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1116800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>921400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2037,27 +2147,30 @@
       <c r="G49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
         <v>2500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>19400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2400</v>
       </c>
       <c r="L49" s="3">
         <v>2400</v>
       </c>
       <c r="M49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N49" s="3">
         <v>2600</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>517200</v>
+        <v>428600</v>
       </c>
       <c r="E52" s="3">
-        <v>520900</v>
+        <v>517000</v>
       </c>
       <c r="F52" s="3">
-        <v>607300</v>
+        <v>520700</v>
       </c>
       <c r="G52" s="3">
-        <v>458500</v>
+        <v>607100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>458300</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>121500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>135900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>107400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>103200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>105700</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2745300</v>
+        <v>3048800</v>
       </c>
       <c r="E54" s="3">
-        <v>2772300</v>
+        <v>2744200</v>
       </c>
       <c r="F54" s="3">
-        <v>3232900</v>
+        <v>2771200</v>
       </c>
       <c r="G54" s="3">
-        <v>3517500</v>
+        <v>3231600</v>
       </c>
       <c r="H54" s="3">
-        <v>1616400</v>
+        <v>3516100</v>
       </c>
       <c r="I54" s="3">
-        <v>2183300</v>
+        <v>1615700</v>
       </c>
       <c r="J54" s="3">
+        <v>2182400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2511700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1884400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1533400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1325700</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,44 +2397,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>110900</v>
+        <v>164700</v>
       </c>
       <c r="E57" s="3">
+        <v>110800</v>
+      </c>
+      <c r="F57" s="3">
         <v>139800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>147300</v>
       </c>
-      <c r="G57" s="3">
-        <v>174200</v>
-      </c>
       <c r="H57" s="3">
+        <v>174100</v>
+      </c>
+      <c r="I57" s="3">
         <v>63500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>76800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>198100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>147600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>127600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>93400</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2313,179 +2446,194 @@
         <v>7800</v>
       </c>
       <c r="E58" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F58" s="3">
         <v>7700</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>79200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>64000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>58200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>30600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17500</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>51900</v>
+        <v>28300</v>
       </c>
       <c r="E59" s="3">
+        <v>51800</v>
+      </c>
+      <c r="F59" s="3">
         <v>46200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>59300</v>
       </c>
-      <c r="G59" s="3">
-        <v>49000</v>
-      </c>
       <c r="H59" s="3">
+        <v>48900</v>
+      </c>
+      <c r="I59" s="3">
         <v>104200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>170600</v>
+        <v>200900</v>
       </c>
       <c r="E60" s="3">
-        <v>193800</v>
+        <v>170500</v>
       </c>
       <c r="F60" s="3">
+        <v>193700</v>
+      </c>
+      <c r="G60" s="3">
         <v>206600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>223100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>167700</v>
       </c>
-      <c r="I60" s="3">
-        <v>163700</v>
-      </c>
       <c r="J60" s="3">
+        <v>163600</v>
+      </c>
+      <c r="K60" s="3">
         <v>273500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>225600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>169100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>134800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>647800</v>
+        <v>305200</v>
       </c>
       <c r="E61" s="3">
-        <v>513500</v>
+        <v>647600</v>
       </c>
       <c r="F61" s="3">
-        <v>639800</v>
+        <v>513300</v>
       </c>
       <c r="G61" s="3">
-        <v>550900</v>
+        <v>639600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>550700</v>
       </c>
       <c r="I61" s="3">
-        <v>1374000</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>1373500</v>
+      </c>
+      <c r="K61" s="3">
         <v>950200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>679400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>497400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>328200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>327100</v>
+        <v>497400</v>
       </c>
       <c r="E62" s="3">
-        <v>429600</v>
+        <v>327000</v>
       </c>
       <c r="F62" s="3">
-        <v>619700</v>
+        <v>429400</v>
       </c>
       <c r="G62" s="3">
-        <v>650300</v>
+        <v>619400</v>
       </c>
       <c r="H62" s="3">
-        <v>165300</v>
+        <v>650000</v>
       </c>
       <c r="I62" s="3">
-        <v>214800</v>
+        <v>165200</v>
       </c>
       <c r="J62" s="3">
+        <v>214700</v>
+      </c>
+      <c r="K62" s="3">
         <v>225600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>184600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>226200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>229900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1145600</v>
+        <v>1003400</v>
       </c>
       <c r="E66" s="3">
-        <v>1136900</v>
+        <v>1145100</v>
       </c>
       <c r="F66" s="3">
-        <v>1466100</v>
+        <v>1136400</v>
       </c>
       <c r="G66" s="3">
-        <v>1424300</v>
+        <v>1465600</v>
       </c>
       <c r="H66" s="3">
-        <v>333000</v>
+        <v>1423800</v>
       </c>
       <c r="I66" s="3">
-        <v>1752500</v>
+        <v>332900</v>
       </c>
       <c r="J66" s="3">
+        <v>1751800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1449300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1089700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>892700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>692800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-184500</v>
       </c>
-      <c r="E72" s="3">
-        <v>-100900</v>
-      </c>
       <c r="F72" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="G72" s="3">
         <v>16600</v>
       </c>
-      <c r="G72" s="3">
-        <v>214300</v>
-      </c>
       <c r="H72" s="3">
-        <v>-119500</v>
+        <v>214200</v>
       </c>
       <c r="I72" s="3">
-        <v>-940200</v>
+        <v>-119400</v>
       </c>
       <c r="J72" s="3">
+        <v>-939800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-232600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-172900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-124600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-79600</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1599800</v>
+        <v>2045300</v>
       </c>
       <c r="E76" s="3">
-        <v>1635400</v>
+        <v>1599100</v>
       </c>
       <c r="F76" s="3">
-        <v>1766800</v>
+        <v>1634800</v>
       </c>
       <c r="G76" s="3">
-        <v>2093100</v>
+        <v>1766100</v>
       </c>
       <c r="H76" s="3">
-        <v>1283400</v>
+        <v>2092300</v>
       </c>
       <c r="I76" s="3">
-        <v>430800</v>
+        <v>1282900</v>
       </c>
       <c r="J76" s="3">
+        <v>430600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1062400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>794600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>640700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>632900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>185900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17800</v>
       </c>
-      <c r="E81" s="3">
-        <v>-69000</v>
-      </c>
       <c r="F81" s="3">
-        <v>-288200</v>
+        <v>-68900</v>
       </c>
       <c r="G81" s="3">
-        <v>264500</v>
+        <v>-288100</v>
       </c>
       <c r="H81" s="3">
-        <v>914800</v>
+        <v>264400</v>
       </c>
       <c r="I81" s="3">
-        <v>-707600</v>
+        <v>914400</v>
       </c>
       <c r="J81" s="3">
+        <v>-707300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-56300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-46600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-178200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>88000</v>
+        <v>104400</v>
       </c>
       <c r="E83" s="3">
-        <v>286400</v>
+        <v>87900</v>
       </c>
       <c r="F83" s="3">
-        <v>767200</v>
+        <v>286200</v>
       </c>
       <c r="G83" s="3">
-        <v>299500</v>
+        <v>766900</v>
       </c>
       <c r="H83" s="3">
+        <v>299400</v>
+      </c>
+      <c r="I83" s="3">
         <v>60000</v>
       </c>
-      <c r="I83" s="3">
-        <v>489800</v>
-      </c>
       <c r="J83" s="3">
+        <v>489600</v>
+      </c>
+      <c r="K83" s="3">
         <v>180400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>117700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>213900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>284200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>378300</v>
+      </c>
+      <c r="E89" s="3">
         <v>63500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200700</v>
       </c>
-      <c r="F89" s="3">
-        <v>175400</v>
-      </c>
       <c r="G89" s="3">
+        <v>175300</v>
+      </c>
+      <c r="H89" s="3">
         <v>99100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35900</v>
       </c>
-      <c r="I89" s="3">
-        <v>66200</v>
-      </c>
       <c r="J89" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K89" s="3">
         <v>93000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>34600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>41600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>65300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-173700</v>
+        <v>-219700</v>
       </c>
       <c r="E91" s="3">
-        <v>-317300</v>
+        <v>-173600</v>
       </c>
       <c r="F91" s="3">
-        <v>-455500</v>
+        <v>-317100</v>
       </c>
       <c r="G91" s="3">
-        <v>-427900</v>
+        <v>-455300</v>
       </c>
       <c r="H91" s="3">
-        <v>-157800</v>
+        <v>-427800</v>
       </c>
       <c r="I91" s="3">
-        <v>-387800</v>
+        <v>-157700</v>
       </c>
       <c r="J91" s="3">
+        <v>-387600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-739100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-566700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-469500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-403500</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-196300</v>
+        <v>-40600</v>
       </c>
       <c r="E94" s="3">
+        <v>-196200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-77300</v>
       </c>
-      <c r="F94" s="3">
-        <v>-291600</v>
-      </c>
       <c r="G94" s="3">
-        <v>-671400</v>
+        <v>-291500</v>
       </c>
       <c r="H94" s="3">
-        <v>1439300</v>
+        <v>-671100</v>
       </c>
       <c r="I94" s="3">
-        <v>-486600</v>
+        <v>1438700</v>
       </c>
       <c r="J94" s="3">
+        <v>-486400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-623000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-232500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-373900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,13 +3757,14 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-21500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>132200</v>
+        <v>-340000</v>
       </c>
       <c r="E100" s="3">
+        <v>132100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-133600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>32600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>182000</v>
       </c>
-      <c r="H100" s="3">
-        <v>-996200</v>
-      </c>
       <c r="I100" s="3">
-        <v>412700</v>
+        <v>-995800</v>
       </c>
       <c r="J100" s="3">
+        <v>412600</v>
+      </c>
+      <c r="K100" s="3">
         <v>535900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>360700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>280100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>273500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10400</v>
       </c>
-      <c r="F102" s="3">
-        <v>-81700</v>
-      </c>
       <c r="G102" s="3">
-        <v>-391400</v>
+        <v>-81600</v>
       </c>
       <c r="H102" s="3">
-        <v>478800</v>
+        <v>-391200</v>
       </c>
       <c r="I102" s="3">
+        <v>478600</v>
+      </c>
+      <c r="J102" s="3">
         <v>-5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-104700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>88600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-35100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>836700</v>
+        <v>817400</v>
       </c>
       <c r="E8" s="3">
-        <v>473700</v>
+        <v>462700</v>
       </c>
       <c r="F8" s="3">
-        <v>632800</v>
+        <v>618200</v>
       </c>
       <c r="G8" s="3">
-        <v>708900</v>
+        <v>692500</v>
       </c>
       <c r="H8" s="3">
-        <v>363100</v>
+        <v>354700</v>
       </c>
       <c r="I8" s="3">
-        <v>193700</v>
+        <v>189300</v>
       </c>
       <c r="J8" s="3">
-        <v>328900</v>
+        <v>321400</v>
       </c>
       <c r="K8" s="3">
         <v>263200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>357000</v>
+        <v>348700</v>
       </c>
       <c r="E9" s="3">
-        <v>312600</v>
+        <v>305400</v>
       </c>
       <c r="F9" s="3">
-        <v>369300</v>
+        <v>360800</v>
       </c>
       <c r="G9" s="3">
-        <v>372000</v>
+        <v>363400</v>
       </c>
       <c r="H9" s="3">
-        <v>170200</v>
+        <v>166300</v>
       </c>
       <c r="I9" s="3">
-        <v>120500</v>
+        <v>117700</v>
       </c>
       <c r="J9" s="3">
-        <v>122200</v>
+        <v>119400</v>
       </c>
       <c r="K9" s="3">
         <v>84100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>479700</v>
+        <v>468600</v>
       </c>
       <c r="E10" s="3">
-        <v>161100</v>
+        <v>157300</v>
       </c>
       <c r="F10" s="3">
-        <v>263500</v>
+        <v>257400</v>
       </c>
       <c r="G10" s="3">
-        <v>336900</v>
+        <v>329100</v>
       </c>
       <c r="H10" s="3">
-        <v>192900</v>
+        <v>188500</v>
       </c>
       <c r="I10" s="3">
-        <v>73300</v>
+        <v>71600</v>
       </c>
       <c r="J10" s="3">
-        <v>206700</v>
+        <v>201900</v>
       </c>
       <c r="K10" s="3">
         <v>179100</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>30500</v>
+        <v>29800</v>
       </c>
       <c r="E12" s="3">
-        <v>26700</v>
+        <v>26000</v>
       </c>
       <c r="F12" s="3">
-        <v>17600</v>
+        <v>17200</v>
       </c>
       <c r="G12" s="3">
-        <v>21400</v>
+        <v>20900</v>
       </c>
       <c r="H12" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="I12" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="J12" s="3">
-        <v>16600</v>
+        <v>16200</v>
       </c>
       <c r="K12" s="3">
         <v>13500</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-196200</v>
+        <v>-197000</v>
       </c>
       <c r="E14" s="3">
-        <v>-105300</v>
+        <v>-102800</v>
       </c>
       <c r="F14" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G14" s="3">
-        <v>396300</v>
+        <v>387100</v>
       </c>
       <c r="H14" s="3">
-        <v>-55500</v>
+        <v>-54200</v>
       </c>
       <c r="I14" s="3">
-        <v>-71800</v>
+        <v>-70100</v>
       </c>
       <c r="J14" s="3">
-        <v>425100</v>
+        <v>415300</v>
       </c>
       <c r="K14" s="3">
         <v>38000</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>235800</v>
+        <v>230400</v>
       </c>
       <c r="E15" s="3">
-        <v>199300</v>
+        <v>194700</v>
       </c>
       <c r="F15" s="3">
-        <v>286200</v>
+        <v>279600</v>
       </c>
       <c r="G15" s="3">
-        <v>372500</v>
+        <v>364000</v>
       </c>
       <c r="H15" s="3">
-        <v>236900</v>
+        <v>231500</v>
       </c>
       <c r="I15" s="3">
-        <v>169600</v>
+        <v>165700</v>
       </c>
       <c r="J15" s="3">
-        <v>286900</v>
+        <v>280300</v>
       </c>
       <c r="K15" s="3">
         <v>164200</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>589700</v>
+        <v>570800</v>
       </c>
       <c r="E17" s="3">
-        <v>481100</v>
+        <v>470000</v>
       </c>
       <c r="F17" s="3">
-        <v>602600</v>
+        <v>588700</v>
       </c>
       <c r="G17" s="3">
-        <v>1155400</v>
+        <v>1128800</v>
       </c>
       <c r="H17" s="3">
-        <v>211700</v>
+        <v>206900</v>
       </c>
       <c r="I17" s="3">
-        <v>-854100</v>
+        <v>-834400</v>
       </c>
       <c r="J17" s="3">
-        <v>1030600</v>
+        <v>1006900</v>
       </c>
       <c r="K17" s="3">
         <v>324500</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>247000</v>
+        <v>246600</v>
       </c>
       <c r="E18" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="F18" s="3">
-        <v>30200</v>
+        <v>29500</v>
       </c>
       <c r="G18" s="3">
-        <v>-446600</v>
+        <v>-436300</v>
       </c>
       <c r="H18" s="3">
-        <v>151400</v>
+        <v>147900</v>
       </c>
       <c r="I18" s="3">
-        <v>1047900</v>
+        <v>1023700</v>
       </c>
       <c r="J18" s="3">
-        <v>-701700</v>
+        <v>-685500</v>
       </c>
       <c r="K18" s="3">
         <v>-61200</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>6100</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F20" s="3">
-        <v>-11100</v>
+        <v>-10800</v>
       </c>
       <c r="G20" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="H20" s="3">
-        <v>48600</v>
+        <v>47500</v>
       </c>
       <c r="I20" s="3">
-        <v>-10900</v>
+        <v>-10700</v>
       </c>
       <c r="J20" s="3">
-        <v>-15400</v>
+        <v>-15000</v>
       </c>
       <c r="K20" s="3">
         <v>2600</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>357000</v>
+        <v>349700</v>
       </c>
       <c r="E21" s="3">
-        <v>77700</v>
+        <v>76700</v>
       </c>
       <c r="F21" s="3">
-        <v>304000</v>
+        <v>299500</v>
       </c>
       <c r="G21" s="3">
-        <v>323300</v>
+        <v>322400</v>
       </c>
       <c r="H21" s="3">
-        <v>497900</v>
+        <v>489000</v>
       </c>
       <c r="I21" s="3">
-        <v>1096600</v>
+        <v>1071800</v>
       </c>
       <c r="J21" s="3">
-        <v>-229800</v>
+        <v>-220400</v>
       </c>
       <c r="K21" s="3">
         <v>121100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>253100</v>
+        <v>247200</v>
       </c>
       <c r="E23" s="3">
-        <v>-9800</v>
+        <v>-9600</v>
       </c>
       <c r="F23" s="3">
-        <v>19200</v>
+        <v>18700</v>
       </c>
       <c r="G23" s="3">
-        <v>-439900</v>
+        <v>-429800</v>
       </c>
       <c r="H23" s="3">
-        <v>200000</v>
+        <v>195400</v>
       </c>
       <c r="I23" s="3">
-        <v>1036900</v>
+        <v>1013000</v>
       </c>
       <c r="J23" s="3">
-        <v>-717100</v>
+        <v>-700600</v>
       </c>
       <c r="K23" s="3">
         <v>-58700</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>67200</v>
+        <v>65600</v>
       </c>
       <c r="E24" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="F24" s="3">
-        <v>88100</v>
+        <v>86100</v>
       </c>
       <c r="G24" s="3">
-        <v>-151800</v>
+        <v>-148300</v>
       </c>
       <c r="H24" s="3">
-        <v>-64400</v>
+        <v>-62900</v>
       </c>
       <c r="I24" s="3">
-        <v>122500</v>
+        <v>119700</v>
       </c>
       <c r="J24" s="3">
-        <v>-9800</v>
+        <v>-9600</v>
       </c>
       <c r="K24" s="3">
         <v>-2400</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>185900</v>
+        <v>181600</v>
       </c>
       <c r="E26" s="3">
-        <v>-17800</v>
+        <v>-17400</v>
       </c>
       <c r="F26" s="3">
-        <v>-68900</v>
+        <v>-67400</v>
       </c>
       <c r="G26" s="3">
-        <v>-288100</v>
+        <v>-281500</v>
       </c>
       <c r="H26" s="3">
-        <v>264400</v>
+        <v>258300</v>
       </c>
       <c r="I26" s="3">
-        <v>914400</v>
+        <v>893300</v>
       </c>
       <c r="J26" s="3">
-        <v>-707300</v>
+        <v>-691000</v>
       </c>
       <c r="K26" s="3">
         <v>-56300</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>185900</v>
+        <v>181600</v>
       </c>
       <c r="E27" s="3">
-        <v>-17800</v>
+        <v>-17400</v>
       </c>
       <c r="F27" s="3">
-        <v>-68900</v>
+        <v>-67400</v>
       </c>
       <c r="G27" s="3">
-        <v>-288100</v>
+        <v>-281500</v>
       </c>
       <c r="H27" s="3">
-        <v>264400</v>
+        <v>258300</v>
       </c>
       <c r="I27" s="3">
-        <v>914400</v>
+        <v>893300</v>
       </c>
       <c r="J27" s="3">
-        <v>-707300</v>
+        <v>-691000</v>
       </c>
       <c r="K27" s="3">
         <v>-56300</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6100</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F32" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="G32" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="H32" s="3">
-        <v>-48600</v>
+        <v>-47500</v>
       </c>
       <c r="I32" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="J32" s="3">
-        <v>15400</v>
+        <v>15000</v>
       </c>
       <c r="K32" s="3">
         <v>-2600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>185900</v>
+        <v>181600</v>
       </c>
       <c r="E33" s="3">
-        <v>-17800</v>
+        <v>-17400</v>
       </c>
       <c r="F33" s="3">
-        <v>-68900</v>
+        <v>-67400</v>
       </c>
       <c r="G33" s="3">
-        <v>-288100</v>
+        <v>-281500</v>
       </c>
       <c r="H33" s="3">
-        <v>264400</v>
+        <v>258300</v>
       </c>
       <c r="I33" s="3">
-        <v>914400</v>
+        <v>893300</v>
       </c>
       <c r="J33" s="3">
-        <v>-707300</v>
+        <v>-691000</v>
       </c>
       <c r="K33" s="3">
         <v>-56300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>185900</v>
+        <v>181600</v>
       </c>
       <c r="E35" s="3">
-        <v>-17800</v>
+        <v>-17400</v>
       </c>
       <c r="F35" s="3">
-        <v>-68900</v>
+        <v>-67400</v>
       </c>
       <c r="G35" s="3">
-        <v>-288100</v>
+        <v>-281500</v>
       </c>
       <c r="H35" s="3">
-        <v>264400</v>
+        <v>258300</v>
       </c>
       <c r="I35" s="3">
-        <v>914400</v>
+        <v>893300</v>
       </c>
       <c r="J35" s="3">
-        <v>-707300</v>
+        <v>-691000</v>
       </c>
       <c r="K35" s="3">
         <v>-56300</v>
@@ -1827,22 +1827,22 @@
         <v>1300</v>
       </c>
       <c r="E41" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F41" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="G41" s="3">
-        <v>15100</v>
+        <v>14800</v>
       </c>
       <c r="H41" s="3">
-        <v>96800</v>
+        <v>94500</v>
       </c>
       <c r="I41" s="3">
-        <v>488000</v>
+        <v>476800</v>
       </c>
       <c r="J41" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="K41" s="3">
         <v>14400</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>93400</v>
+        <v>91200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>24</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>111400</v>
+        <v>108800</v>
       </c>
       <c r="E43" s="3">
-        <v>78500</v>
+        <v>76700</v>
       </c>
       <c r="F43" s="3">
-        <v>93100</v>
+        <v>90900</v>
       </c>
       <c r="G43" s="3">
-        <v>95200</v>
+        <v>93000</v>
       </c>
       <c r="H43" s="3">
-        <v>133700</v>
+        <v>130600</v>
       </c>
       <c r="I43" s="3">
-        <v>18800</v>
+        <v>18300</v>
       </c>
       <c r="J43" s="3">
-        <v>38200</v>
+        <v>37400</v>
       </c>
       <c r="K43" s="3">
         <v>44800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="E45" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="F45" s="3">
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="G45" s="3">
-        <v>58100</v>
+        <v>56800</v>
       </c>
       <c r="H45" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="I45" s="3">
         <v>1300</v>
       </c>
       <c r="J45" s="3">
-        <v>35500</v>
+        <v>34700</v>
       </c>
       <c r="K45" s="3">
         <v>3800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>123000</v>
+        <v>120100</v>
       </c>
       <c r="E46" s="3">
-        <v>90200</v>
+        <v>88100</v>
       </c>
       <c r="F46" s="3">
-        <v>111200</v>
+        <v>108600</v>
       </c>
       <c r="G46" s="3">
-        <v>168500</v>
+        <v>164600</v>
       </c>
       <c r="H46" s="3">
-        <v>237500</v>
+        <v>232100</v>
       </c>
       <c r="I46" s="3">
-        <v>601500</v>
+        <v>587600</v>
       </c>
       <c r="J46" s="3">
-        <v>83100</v>
+        <v>81200</v>
       </c>
       <c r="K46" s="3">
         <v>63000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>292400</v>
+        <v>285700</v>
       </c>
       <c r="E47" s="3">
-        <v>118900</v>
+        <v>116200</v>
       </c>
       <c r="F47" s="3">
-        <v>126900</v>
+        <v>123900</v>
       </c>
       <c r="G47" s="3">
-        <v>181800</v>
+        <v>177700</v>
       </c>
       <c r="H47" s="3">
-        <v>41800</v>
+        <v>40900</v>
       </c>
       <c r="I47" s="3">
-        <v>84900</v>
+        <v>83000</v>
       </c>
       <c r="J47" s="3">
-        <v>93400</v>
+        <v>91300</v>
       </c>
       <c r="K47" s="3">
         <v>145500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2204800</v>
+        <v>2154000</v>
       </c>
       <c r="E48" s="3">
-        <v>2018100</v>
+        <v>1971600</v>
       </c>
       <c r="F48" s="3">
-        <v>2012500</v>
+        <v>1966000</v>
       </c>
       <c r="G48" s="3">
-        <v>2274200</v>
+        <v>2221800</v>
       </c>
       <c r="H48" s="3">
-        <v>2778400</v>
+        <v>2714300</v>
       </c>
       <c r="I48" s="3">
-        <v>929300</v>
+        <v>907900</v>
       </c>
       <c r="J48" s="3">
-        <v>1881900</v>
+        <v>1838500</v>
       </c>
       <c r="K48" s="3">
         <v>2147900</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K49" s="3">
         <v>19400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>428600</v>
+        <v>418700</v>
       </c>
       <c r="E52" s="3">
-        <v>517000</v>
+        <v>505100</v>
       </c>
       <c r="F52" s="3">
-        <v>520700</v>
+        <v>508600</v>
       </c>
       <c r="G52" s="3">
-        <v>607100</v>
+        <v>593100</v>
       </c>
       <c r="H52" s="3">
-        <v>458300</v>
+        <v>447800</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>121500</v>
+        <v>118700</v>
       </c>
       <c r="K52" s="3">
         <v>135900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3048800</v>
+        <v>2978500</v>
       </c>
       <c r="E54" s="3">
-        <v>2744200</v>
+        <v>2680900</v>
       </c>
       <c r="F54" s="3">
-        <v>2771200</v>
+        <v>2707200</v>
       </c>
       <c r="G54" s="3">
-        <v>3231600</v>
+        <v>3157100</v>
       </c>
       <c r="H54" s="3">
-        <v>3516100</v>
+        <v>3435000</v>
       </c>
       <c r="I54" s="3">
-        <v>1615700</v>
+        <v>1578500</v>
       </c>
       <c r="J54" s="3">
-        <v>2182400</v>
+        <v>2132100</v>
       </c>
       <c r="K54" s="3">
         <v>2511700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>164700</v>
+        <v>160900</v>
       </c>
       <c r="E57" s="3">
-        <v>110800</v>
+        <v>108300</v>
       </c>
       <c r="F57" s="3">
-        <v>139800</v>
+        <v>136500</v>
       </c>
       <c r="G57" s="3">
-        <v>147300</v>
+        <v>143900</v>
       </c>
       <c r="H57" s="3">
-        <v>174100</v>
+        <v>170100</v>
       </c>
       <c r="I57" s="3">
-        <v>63500</v>
+        <v>62000</v>
       </c>
       <c r="J57" s="3">
-        <v>76800</v>
+        <v>75000</v>
       </c>
       <c r="K57" s="3">
         <v>198100</v>
@@ -2443,13 +2443,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="E58" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F58" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>24</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>79200</v>
+        <v>77400</v>
       </c>
       <c r="K58" s="3">
         <v>64000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28300</v>
+        <v>27700</v>
       </c>
       <c r="E59" s="3">
-        <v>51800</v>
+        <v>50600</v>
       </c>
       <c r="F59" s="3">
-        <v>46200</v>
+        <v>45200</v>
       </c>
       <c r="G59" s="3">
-        <v>59300</v>
+        <v>57900</v>
       </c>
       <c r="H59" s="3">
-        <v>48900</v>
+        <v>47800</v>
       </c>
       <c r="I59" s="3">
-        <v>104200</v>
+        <v>101800</v>
       </c>
       <c r="J59" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="K59" s="3">
         <v>11400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200900</v>
+        <v>196300</v>
       </c>
       <c r="E60" s="3">
-        <v>170500</v>
+        <v>166600</v>
       </c>
       <c r="F60" s="3">
-        <v>193700</v>
+        <v>189300</v>
       </c>
       <c r="G60" s="3">
-        <v>206600</v>
+        <v>201800</v>
       </c>
       <c r="H60" s="3">
-        <v>223100</v>
+        <v>217900</v>
       </c>
       <c r="I60" s="3">
-        <v>167700</v>
+        <v>163800</v>
       </c>
       <c r="J60" s="3">
-        <v>163600</v>
+        <v>159900</v>
       </c>
       <c r="K60" s="3">
         <v>273500</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>305200</v>
+        <v>298100</v>
       </c>
       <c r="E61" s="3">
-        <v>647600</v>
+        <v>632700</v>
       </c>
       <c r="F61" s="3">
-        <v>513300</v>
+        <v>501500</v>
       </c>
       <c r="G61" s="3">
-        <v>639600</v>
+        <v>624800</v>
       </c>
       <c r="H61" s="3">
-        <v>550700</v>
+        <v>538000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>1373500</v>
+        <v>1341800</v>
       </c>
       <c r="K61" s="3">
         <v>950200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>497400</v>
+        <v>485900</v>
       </c>
       <c r="E62" s="3">
-        <v>327000</v>
+        <v>319500</v>
       </c>
       <c r="F62" s="3">
-        <v>429400</v>
+        <v>419500</v>
       </c>
       <c r="G62" s="3">
-        <v>619400</v>
+        <v>605100</v>
       </c>
       <c r="H62" s="3">
-        <v>650000</v>
+        <v>635000</v>
       </c>
       <c r="I62" s="3">
-        <v>165200</v>
+        <v>161400</v>
       </c>
       <c r="J62" s="3">
-        <v>214700</v>
+        <v>209700</v>
       </c>
       <c r="K62" s="3">
         <v>225600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1003400</v>
+        <v>980300</v>
       </c>
       <c r="E66" s="3">
-        <v>1145100</v>
+        <v>1118700</v>
       </c>
       <c r="F66" s="3">
-        <v>1136400</v>
+        <v>1110200</v>
       </c>
       <c r="G66" s="3">
-        <v>1465600</v>
+        <v>1431800</v>
       </c>
       <c r="H66" s="3">
-        <v>1423800</v>
+        <v>1390900</v>
       </c>
       <c r="I66" s="3">
-        <v>332900</v>
+        <v>325200</v>
       </c>
       <c r="J66" s="3">
-        <v>1751800</v>
+        <v>1711400</v>
       </c>
       <c r="K66" s="3">
         <v>1449300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12200</v>
+        <v>-11900</v>
       </c>
       <c r="E72" s="3">
-        <v>-184500</v>
+        <v>-180200</v>
       </c>
       <c r="F72" s="3">
-        <v>-100800</v>
+        <v>-98500</v>
       </c>
       <c r="G72" s="3">
-        <v>16600</v>
+        <v>16200</v>
       </c>
       <c r="H72" s="3">
-        <v>214200</v>
+        <v>209200</v>
       </c>
       <c r="I72" s="3">
-        <v>-119400</v>
+        <v>-116700</v>
       </c>
       <c r="J72" s="3">
-        <v>-939800</v>
+        <v>-918100</v>
       </c>
       <c r="K72" s="3">
         <v>-232600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2045300</v>
+        <v>1998200</v>
       </c>
       <c r="E76" s="3">
-        <v>1599100</v>
+        <v>1562200</v>
       </c>
       <c r="F76" s="3">
-        <v>1634800</v>
+        <v>1597000</v>
       </c>
       <c r="G76" s="3">
-        <v>1766100</v>
+        <v>1725300</v>
       </c>
       <c r="H76" s="3">
-        <v>2092300</v>
+        <v>2044100</v>
       </c>
       <c r="I76" s="3">
-        <v>1282900</v>
+        <v>1253300</v>
       </c>
       <c r="J76" s="3">
-        <v>430600</v>
+        <v>420700</v>
       </c>
       <c r="K76" s="3">
         <v>1062400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>185900</v>
+        <v>181600</v>
       </c>
       <c r="E81" s="3">
-        <v>-17800</v>
+        <v>-17400</v>
       </c>
       <c r="F81" s="3">
-        <v>-68900</v>
+        <v>-67400</v>
       </c>
       <c r="G81" s="3">
-        <v>-288100</v>
+        <v>-281500</v>
       </c>
       <c r="H81" s="3">
-        <v>264400</v>
+        <v>258300</v>
       </c>
       <c r="I81" s="3">
-        <v>914400</v>
+        <v>893300</v>
       </c>
       <c r="J81" s="3">
-        <v>-707300</v>
+        <v>-691000</v>
       </c>
       <c r="K81" s="3">
         <v>-56300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>104400</v>
+        <v>102000</v>
       </c>
       <c r="E83" s="3">
-        <v>87900</v>
+        <v>85900</v>
       </c>
       <c r="F83" s="3">
-        <v>286200</v>
+        <v>279600</v>
       </c>
       <c r="G83" s="3">
-        <v>766900</v>
+        <v>749200</v>
       </c>
       <c r="H83" s="3">
-        <v>299400</v>
+        <v>292500</v>
       </c>
       <c r="I83" s="3">
-        <v>60000</v>
+        <v>58600</v>
       </c>
       <c r="J83" s="3">
-        <v>489600</v>
+        <v>478300</v>
       </c>
       <c r="K83" s="3">
         <v>180400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>378300</v>
+        <v>369600</v>
       </c>
       <c r="E89" s="3">
-        <v>63500</v>
+        <v>62000</v>
       </c>
       <c r="F89" s="3">
-        <v>200700</v>
+        <v>196000</v>
       </c>
       <c r="G89" s="3">
-        <v>175300</v>
+        <v>171300</v>
       </c>
       <c r="H89" s="3">
-        <v>99100</v>
+        <v>96800</v>
       </c>
       <c r="I89" s="3">
-        <v>35900</v>
+        <v>35100</v>
       </c>
       <c r="J89" s="3">
-        <v>66100</v>
+        <v>64600</v>
       </c>
       <c r="K89" s="3">
         <v>93000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-219700</v>
+        <v>-214700</v>
       </c>
       <c r="E91" s="3">
-        <v>-173600</v>
+        <v>-169600</v>
       </c>
       <c r="F91" s="3">
-        <v>-317100</v>
+        <v>-309800</v>
       </c>
       <c r="G91" s="3">
-        <v>-455300</v>
+        <v>-444800</v>
       </c>
       <c r="H91" s="3">
-        <v>-427800</v>
+        <v>-417900</v>
       </c>
       <c r="I91" s="3">
-        <v>-157700</v>
+        <v>-154100</v>
       </c>
       <c r="J91" s="3">
-        <v>-387600</v>
+        <v>-378700</v>
       </c>
       <c r="K91" s="3">
         <v>-739100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-40600</v>
+        <v>-39600</v>
       </c>
       <c r="E94" s="3">
-        <v>-196200</v>
+        <v>-191700</v>
       </c>
       <c r="F94" s="3">
-        <v>-77300</v>
+        <v>-75500</v>
       </c>
       <c r="G94" s="3">
-        <v>-291500</v>
+        <v>-284800</v>
       </c>
       <c r="H94" s="3">
-        <v>-671100</v>
+        <v>-655700</v>
       </c>
       <c r="I94" s="3">
-        <v>1438700</v>
+        <v>1405600</v>
       </c>
       <c r="J94" s="3">
-        <v>-486400</v>
+        <v>-475200</v>
       </c>
       <c r="K94" s="3">
         <v>-623000</v>
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21500</v>
+        <v>-21000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-340000</v>
+        <v>-332200</v>
       </c>
       <c r="E100" s="3">
-        <v>132100</v>
+        <v>129100</v>
       </c>
       <c r="F100" s="3">
-        <v>-133600</v>
+        <v>-130500</v>
       </c>
       <c r="G100" s="3">
-        <v>32600</v>
+        <v>31900</v>
       </c>
       <c r="H100" s="3">
-        <v>182000</v>
+        <v>177800</v>
       </c>
       <c r="I100" s="3">
-        <v>-995800</v>
+        <v>-972800</v>
       </c>
       <c r="J100" s="3">
-        <v>412600</v>
+        <v>403000</v>
       </c>
       <c r="K100" s="3">
         <v>535900</v>
@@ -3971,13 +3971,13 @@
         <v>1900</v>
       </c>
       <c r="H101" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I101" s="3">
         <v>-200</v>
       </c>
       <c r="J101" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E102" s="3">
         <v>-1100</v>
       </c>
       <c r="F102" s="3">
-        <v>-10400</v>
+        <v>-10200</v>
       </c>
       <c r="G102" s="3">
-        <v>-81600</v>
+        <v>-79800</v>
       </c>
       <c r="H102" s="3">
-        <v>-391200</v>
+        <v>-382200</v>
       </c>
       <c r="I102" s="3">
-        <v>478600</v>
+        <v>467600</v>
       </c>
       <c r="J102" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="K102" s="3">
         <v>6000</v>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>817400</v>
+        <v>825000</v>
       </c>
       <c r="E8" s="3">
-        <v>462700</v>
+        <v>467000</v>
       </c>
       <c r="F8" s="3">
-        <v>618200</v>
+        <v>623900</v>
       </c>
       <c r="G8" s="3">
-        <v>692500</v>
+        <v>698900</v>
       </c>
       <c r="H8" s="3">
-        <v>354700</v>
+        <v>358000</v>
       </c>
       <c r="I8" s="3">
-        <v>189300</v>
+        <v>191000</v>
       </c>
       <c r="J8" s="3">
-        <v>321400</v>
+        <v>324300</v>
       </c>
       <c r="K8" s="3">
         <v>263200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>348700</v>
+        <v>352000</v>
       </c>
       <c r="E9" s="3">
-        <v>305400</v>
+        <v>308200</v>
       </c>
       <c r="F9" s="3">
-        <v>360800</v>
+        <v>364200</v>
       </c>
       <c r="G9" s="3">
-        <v>363400</v>
+        <v>366700</v>
       </c>
       <c r="H9" s="3">
-        <v>166300</v>
+        <v>167800</v>
       </c>
       <c r="I9" s="3">
-        <v>117700</v>
+        <v>118800</v>
       </c>
       <c r="J9" s="3">
-        <v>119400</v>
+        <v>120500</v>
       </c>
       <c r="K9" s="3">
         <v>84100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>468600</v>
+        <v>473000</v>
       </c>
       <c r="E10" s="3">
-        <v>157300</v>
+        <v>158800</v>
       </c>
       <c r="F10" s="3">
-        <v>257400</v>
+        <v>259800</v>
       </c>
       <c r="G10" s="3">
-        <v>329100</v>
+        <v>332200</v>
       </c>
       <c r="H10" s="3">
-        <v>188500</v>
+        <v>190200</v>
       </c>
       <c r="I10" s="3">
-        <v>71600</v>
+        <v>72200</v>
       </c>
       <c r="J10" s="3">
-        <v>201900</v>
+        <v>203800</v>
       </c>
       <c r="K10" s="3">
         <v>179100</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>29800</v>
+        <v>30100</v>
       </c>
       <c r="E12" s="3">
-        <v>26000</v>
+        <v>26300</v>
       </c>
       <c r="F12" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="G12" s="3">
-        <v>20900</v>
+        <v>21100</v>
       </c>
       <c r="H12" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="I12" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="J12" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="K12" s="3">
         <v>13500</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-197000</v>
+        <v>-198900</v>
       </c>
       <c r="E14" s="3">
-        <v>-102800</v>
+        <v>-103800</v>
       </c>
       <c r="F14" s="3">
         <v>3700</v>
       </c>
       <c r="G14" s="3">
-        <v>387100</v>
+        <v>390700</v>
       </c>
       <c r="H14" s="3">
-        <v>-54200</v>
+        <v>-54700</v>
       </c>
       <c r="I14" s="3">
-        <v>-70100</v>
+        <v>-70800</v>
       </c>
       <c r="J14" s="3">
-        <v>415300</v>
+        <v>419100</v>
       </c>
       <c r="K14" s="3">
         <v>38000</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>230400</v>
+        <v>232500</v>
       </c>
       <c r="E15" s="3">
-        <v>194700</v>
+        <v>196500</v>
       </c>
       <c r="F15" s="3">
-        <v>279600</v>
+        <v>282200</v>
       </c>
       <c r="G15" s="3">
-        <v>364000</v>
+        <v>367300</v>
       </c>
       <c r="H15" s="3">
-        <v>231500</v>
+        <v>233600</v>
       </c>
       <c r="I15" s="3">
-        <v>165700</v>
+        <v>167200</v>
       </c>
       <c r="J15" s="3">
-        <v>280300</v>
+        <v>282900</v>
       </c>
       <c r="K15" s="3">
         <v>164200</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>570800</v>
+        <v>576100</v>
       </c>
       <c r="E17" s="3">
-        <v>470000</v>
+        <v>474300</v>
       </c>
       <c r="F17" s="3">
-        <v>588700</v>
+        <v>594100</v>
       </c>
       <c r="G17" s="3">
-        <v>1128800</v>
+        <v>1139200</v>
       </c>
       <c r="H17" s="3">
-        <v>206900</v>
+        <v>208800</v>
       </c>
       <c r="I17" s="3">
-        <v>-834400</v>
+        <v>-842200</v>
       </c>
       <c r="J17" s="3">
-        <v>1006900</v>
+        <v>1016200</v>
       </c>
       <c r="K17" s="3">
         <v>324500</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>246600</v>
+        <v>248900</v>
       </c>
       <c r="E18" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="F18" s="3">
-        <v>29500</v>
+        <v>29800</v>
       </c>
       <c r="G18" s="3">
-        <v>-436300</v>
+        <v>-440300</v>
       </c>
       <c r="H18" s="3">
-        <v>147900</v>
+        <v>149200</v>
       </c>
       <c r="I18" s="3">
-        <v>1023700</v>
+        <v>1033200</v>
       </c>
       <c r="J18" s="3">
-        <v>-685500</v>
+        <v>-691900</v>
       </c>
       <c r="K18" s="3">
         <v>-61200</v>
@@ -1128,19 +1128,19 @@
         <v>-2300</v>
       </c>
       <c r="F20" s="3">
-        <v>-10800</v>
+        <v>-10900</v>
       </c>
       <c r="G20" s="3">
         <v>6500</v>
       </c>
       <c r="H20" s="3">
-        <v>47500</v>
+        <v>47900</v>
       </c>
       <c r="I20" s="3">
-        <v>-10700</v>
+        <v>-10800</v>
       </c>
       <c r="J20" s="3">
-        <v>-15000</v>
+        <v>-15200</v>
       </c>
       <c r="K20" s="3">
         <v>2600</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>349700</v>
+        <v>352200</v>
       </c>
       <c r="E21" s="3">
-        <v>76700</v>
+        <v>76800</v>
       </c>
       <c r="F21" s="3">
-        <v>299500</v>
+        <v>300200</v>
       </c>
       <c r="G21" s="3">
-        <v>322400</v>
+        <v>320000</v>
       </c>
       <c r="H21" s="3">
-        <v>489000</v>
+        <v>491400</v>
       </c>
       <c r="I21" s="3">
-        <v>1071800</v>
+        <v>1081300</v>
       </c>
       <c r="J21" s="3">
-        <v>-220400</v>
+        <v>-225800</v>
       </c>
       <c r="K21" s="3">
         <v>121100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>247200</v>
+        <v>249500</v>
       </c>
       <c r="E23" s="3">
         <v>-9600</v>
       </c>
       <c r="F23" s="3">
-        <v>18700</v>
+        <v>18900</v>
       </c>
       <c r="G23" s="3">
-        <v>-429800</v>
+        <v>-433800</v>
       </c>
       <c r="H23" s="3">
-        <v>195400</v>
+        <v>197200</v>
       </c>
       <c r="I23" s="3">
-        <v>1013000</v>
+        <v>1022400</v>
       </c>
       <c r="J23" s="3">
-        <v>-700600</v>
+        <v>-707100</v>
       </c>
       <c r="K23" s="3">
         <v>-58700</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>65600</v>
+        <v>66200</v>
       </c>
       <c r="E24" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="F24" s="3">
-        <v>86100</v>
+        <v>86900</v>
       </c>
       <c r="G24" s="3">
-        <v>-148300</v>
+        <v>-149700</v>
       </c>
       <c r="H24" s="3">
-        <v>-62900</v>
+        <v>-63500</v>
       </c>
       <c r="I24" s="3">
-        <v>119700</v>
+        <v>120800</v>
       </c>
       <c r="J24" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="K24" s="3">
         <v>-2400</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>181600</v>
+        <v>183300</v>
       </c>
       <c r="E26" s="3">
-        <v>-17400</v>
+        <v>-17600</v>
       </c>
       <c r="F26" s="3">
-        <v>-67400</v>
+        <v>-68000</v>
       </c>
       <c r="G26" s="3">
-        <v>-281500</v>
+        <v>-284100</v>
       </c>
       <c r="H26" s="3">
-        <v>258300</v>
+        <v>260700</v>
       </c>
       <c r="I26" s="3">
-        <v>893300</v>
+        <v>901600</v>
       </c>
       <c r="J26" s="3">
-        <v>-691000</v>
+        <v>-697400</v>
       </c>
       <c r="K26" s="3">
         <v>-56300</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>181600</v>
+        <v>183300</v>
       </c>
       <c r="E27" s="3">
-        <v>-17400</v>
+        <v>-17600</v>
       </c>
       <c r="F27" s="3">
-        <v>-67400</v>
+        <v>-68000</v>
       </c>
       <c r="G27" s="3">
-        <v>-281500</v>
+        <v>-284100</v>
       </c>
       <c r="H27" s="3">
-        <v>258300</v>
+        <v>260700</v>
       </c>
       <c r="I27" s="3">
-        <v>893300</v>
+        <v>901600</v>
       </c>
       <c r="J27" s="3">
-        <v>-691000</v>
+        <v>-697400</v>
       </c>
       <c r="K27" s="3">
         <v>-56300</v>
@@ -1596,19 +1596,19 @@
         <v>2300</v>
       </c>
       <c r="F32" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="G32" s="3">
         <v>-6500</v>
       </c>
       <c r="H32" s="3">
-        <v>-47500</v>
+        <v>-47900</v>
       </c>
       <c r="I32" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="J32" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="K32" s="3">
         <v>-2600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>181600</v>
+        <v>183300</v>
       </c>
       <c r="E33" s="3">
-        <v>-17400</v>
+        <v>-17600</v>
       </c>
       <c r="F33" s="3">
-        <v>-67400</v>
+        <v>-68000</v>
       </c>
       <c r="G33" s="3">
-        <v>-281500</v>
+        <v>-284100</v>
       </c>
       <c r="H33" s="3">
-        <v>258300</v>
+        <v>260700</v>
       </c>
       <c r="I33" s="3">
-        <v>893300</v>
+        <v>901600</v>
       </c>
       <c r="J33" s="3">
-        <v>-691000</v>
+        <v>-697400</v>
       </c>
       <c r="K33" s="3">
         <v>-56300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>181600</v>
+        <v>183300</v>
       </c>
       <c r="E35" s="3">
-        <v>-17400</v>
+        <v>-17600</v>
       </c>
       <c r="F35" s="3">
-        <v>-67400</v>
+        <v>-68000</v>
       </c>
       <c r="G35" s="3">
-        <v>-281500</v>
+        <v>-284100</v>
       </c>
       <c r="H35" s="3">
-        <v>258300</v>
+        <v>260700</v>
       </c>
       <c r="I35" s="3">
-        <v>893300</v>
+        <v>901600</v>
       </c>
       <c r="J35" s="3">
-        <v>-691000</v>
+        <v>-697400</v>
       </c>
       <c r="K35" s="3">
         <v>-56300</v>
@@ -1827,19 +1827,19 @@
         <v>1300</v>
       </c>
       <c r="E41" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F41" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G41" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="H41" s="3">
-        <v>94500</v>
+        <v>95400</v>
       </c>
       <c r="I41" s="3">
-        <v>476800</v>
+        <v>481200</v>
       </c>
       <c r="J41" s="3">
         <v>9200</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>91200</v>
+        <v>92100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>24</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>108800</v>
+        <v>109800</v>
       </c>
       <c r="E43" s="3">
-        <v>76700</v>
+        <v>77400</v>
       </c>
       <c r="F43" s="3">
-        <v>90900</v>
+        <v>91800</v>
       </c>
       <c r="G43" s="3">
-        <v>93000</v>
+        <v>93900</v>
       </c>
       <c r="H43" s="3">
-        <v>130600</v>
+        <v>131800</v>
       </c>
       <c r="I43" s="3">
-        <v>18300</v>
+        <v>18500</v>
       </c>
       <c r="J43" s="3">
-        <v>37400</v>
+        <v>37700</v>
       </c>
       <c r="K43" s="3">
         <v>44800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="E45" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="F45" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="G45" s="3">
-        <v>56800</v>
+        <v>57300</v>
       </c>
       <c r="H45" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="I45" s="3">
         <v>1300</v>
       </c>
       <c r="J45" s="3">
-        <v>34700</v>
+        <v>35000</v>
       </c>
       <c r="K45" s="3">
         <v>3800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>120100</v>
+        <v>121200</v>
       </c>
       <c r="E46" s="3">
-        <v>88100</v>
+        <v>88900</v>
       </c>
       <c r="F46" s="3">
-        <v>108600</v>
+        <v>109600</v>
       </c>
       <c r="G46" s="3">
-        <v>164600</v>
+        <v>166100</v>
       </c>
       <c r="H46" s="3">
-        <v>232100</v>
+        <v>234200</v>
       </c>
       <c r="I46" s="3">
-        <v>587600</v>
+        <v>593000</v>
       </c>
       <c r="J46" s="3">
-        <v>81200</v>
+        <v>82000</v>
       </c>
       <c r="K46" s="3">
         <v>63000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>285700</v>
+        <v>288300</v>
       </c>
       <c r="E47" s="3">
-        <v>116200</v>
+        <v>117300</v>
       </c>
       <c r="F47" s="3">
-        <v>123900</v>
+        <v>125100</v>
       </c>
       <c r="G47" s="3">
-        <v>177700</v>
+        <v>179300</v>
       </c>
       <c r="H47" s="3">
-        <v>40900</v>
+        <v>41300</v>
       </c>
       <c r="I47" s="3">
-        <v>83000</v>
+        <v>83800</v>
       </c>
       <c r="J47" s="3">
-        <v>91300</v>
+        <v>92100</v>
       </c>
       <c r="K47" s="3">
         <v>145500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2154000</v>
+        <v>2173900</v>
       </c>
       <c r="E48" s="3">
-        <v>1971600</v>
+        <v>1989900</v>
       </c>
       <c r="F48" s="3">
-        <v>1966000</v>
+        <v>1984300</v>
       </c>
       <c r="G48" s="3">
-        <v>2221800</v>
+        <v>2242400</v>
       </c>
       <c r="H48" s="3">
-        <v>2714300</v>
+        <v>2739500</v>
       </c>
       <c r="I48" s="3">
-        <v>907900</v>
+        <v>916300</v>
       </c>
       <c r="J48" s="3">
-        <v>1838500</v>
+        <v>1855500</v>
       </c>
       <c r="K48" s="3">
         <v>2147900</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>418700</v>
+        <v>422600</v>
       </c>
       <c r="E52" s="3">
-        <v>505100</v>
+        <v>509800</v>
       </c>
       <c r="F52" s="3">
-        <v>508600</v>
+        <v>513400</v>
       </c>
       <c r="G52" s="3">
-        <v>593100</v>
+        <v>598600</v>
       </c>
       <c r="H52" s="3">
-        <v>447800</v>
+        <v>451900</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>118700</v>
+        <v>119800</v>
       </c>
       <c r="K52" s="3">
         <v>135900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2978500</v>
+        <v>3006100</v>
       </c>
       <c r="E54" s="3">
-        <v>2680900</v>
+        <v>2705800</v>
       </c>
       <c r="F54" s="3">
-        <v>2707200</v>
+        <v>2732300</v>
       </c>
       <c r="G54" s="3">
-        <v>3157100</v>
+        <v>3186400</v>
       </c>
       <c r="H54" s="3">
-        <v>3435000</v>
+        <v>3466900</v>
       </c>
       <c r="I54" s="3">
-        <v>1578500</v>
+        <v>1593100</v>
       </c>
       <c r="J54" s="3">
-        <v>2132100</v>
+        <v>2151800</v>
       </c>
       <c r="K54" s="3">
         <v>2511700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>160900</v>
+        <v>162400</v>
       </c>
       <c r="E57" s="3">
-        <v>108300</v>
+        <v>109300</v>
       </c>
       <c r="F57" s="3">
-        <v>136500</v>
+        <v>137800</v>
       </c>
       <c r="G57" s="3">
-        <v>143900</v>
+        <v>145200</v>
       </c>
       <c r="H57" s="3">
-        <v>170100</v>
+        <v>171700</v>
       </c>
       <c r="I57" s="3">
-        <v>62000</v>
+        <v>62600</v>
       </c>
       <c r="J57" s="3">
-        <v>75000</v>
+        <v>75700</v>
       </c>
       <c r="K57" s="3">
         <v>198100</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>77400</v>
+        <v>78100</v>
       </c>
       <c r="K58" s="3">
         <v>64000</v>
@@ -2482,22 +2482,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27700</v>
+        <v>27900</v>
       </c>
       <c r="E59" s="3">
-        <v>50600</v>
+        <v>51100</v>
       </c>
       <c r="F59" s="3">
-        <v>45200</v>
+        <v>45600</v>
       </c>
       <c r="G59" s="3">
-        <v>57900</v>
+        <v>58500</v>
       </c>
       <c r="H59" s="3">
-        <v>47800</v>
+        <v>48200</v>
       </c>
       <c r="I59" s="3">
-        <v>101800</v>
+        <v>102700</v>
       </c>
       <c r="J59" s="3">
         <v>7500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>196300</v>
+        <v>198100</v>
       </c>
       <c r="E60" s="3">
-        <v>166600</v>
+        <v>168100</v>
       </c>
       <c r="F60" s="3">
-        <v>189300</v>
+        <v>191000</v>
       </c>
       <c r="G60" s="3">
-        <v>201800</v>
+        <v>203700</v>
       </c>
       <c r="H60" s="3">
-        <v>217900</v>
+        <v>219900</v>
       </c>
       <c r="I60" s="3">
-        <v>163800</v>
+        <v>165300</v>
       </c>
       <c r="J60" s="3">
-        <v>159900</v>
+        <v>161400</v>
       </c>
       <c r="K60" s="3">
         <v>273500</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>298100</v>
+        <v>300900</v>
       </c>
       <c r="E61" s="3">
-        <v>632700</v>
+        <v>638500</v>
       </c>
       <c r="F61" s="3">
-        <v>501500</v>
+        <v>506100</v>
       </c>
       <c r="G61" s="3">
-        <v>624800</v>
+        <v>630600</v>
       </c>
       <c r="H61" s="3">
-        <v>538000</v>
+        <v>543000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>1341800</v>
+        <v>1354200</v>
       </c>
       <c r="K61" s="3">
         <v>950200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>485900</v>
+        <v>490400</v>
       </c>
       <c r="E62" s="3">
-        <v>319500</v>
+        <v>322400</v>
       </c>
       <c r="F62" s="3">
-        <v>419500</v>
+        <v>423400</v>
       </c>
       <c r="G62" s="3">
-        <v>605100</v>
+        <v>610800</v>
       </c>
       <c r="H62" s="3">
-        <v>635000</v>
+        <v>640900</v>
       </c>
       <c r="I62" s="3">
-        <v>161400</v>
+        <v>162900</v>
       </c>
       <c r="J62" s="3">
-        <v>209700</v>
+        <v>211700</v>
       </c>
       <c r="K62" s="3">
         <v>225600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>980300</v>
+        <v>989400</v>
       </c>
       <c r="E66" s="3">
-        <v>1118700</v>
+        <v>1129100</v>
       </c>
       <c r="F66" s="3">
-        <v>1110200</v>
+        <v>1120500</v>
       </c>
       <c r="G66" s="3">
-        <v>1431800</v>
+        <v>1445000</v>
       </c>
       <c r="H66" s="3">
-        <v>1390900</v>
+        <v>1403800</v>
       </c>
       <c r="I66" s="3">
-        <v>325200</v>
+        <v>328200</v>
       </c>
       <c r="J66" s="3">
-        <v>1711400</v>
+        <v>1727300</v>
       </c>
       <c r="K66" s="3">
         <v>1449300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11900</v>
+        <v>-12000</v>
       </c>
       <c r="E72" s="3">
-        <v>-180200</v>
+        <v>-181900</v>
       </c>
       <c r="F72" s="3">
-        <v>-98500</v>
+        <v>-99400</v>
       </c>
       <c r="G72" s="3">
-        <v>16200</v>
+        <v>16400</v>
       </c>
       <c r="H72" s="3">
-        <v>209200</v>
+        <v>211200</v>
       </c>
       <c r="I72" s="3">
-        <v>-116700</v>
+        <v>-117800</v>
       </c>
       <c r="J72" s="3">
-        <v>-918100</v>
+        <v>-926700</v>
       </c>
       <c r="K72" s="3">
         <v>-232600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1998200</v>
+        <v>2016700</v>
       </c>
       <c r="E76" s="3">
-        <v>1562200</v>
+        <v>1576700</v>
       </c>
       <c r="F76" s="3">
-        <v>1597000</v>
+        <v>1611900</v>
       </c>
       <c r="G76" s="3">
-        <v>1725300</v>
+        <v>1741300</v>
       </c>
       <c r="H76" s="3">
-        <v>2044100</v>
+        <v>2063000</v>
       </c>
       <c r="I76" s="3">
-        <v>1253300</v>
+        <v>1264900</v>
       </c>
       <c r="J76" s="3">
-        <v>420700</v>
+        <v>424600</v>
       </c>
       <c r="K76" s="3">
         <v>1062400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>181600</v>
+        <v>183300</v>
       </c>
       <c r="E81" s="3">
-        <v>-17400</v>
+        <v>-17600</v>
       </c>
       <c r="F81" s="3">
-        <v>-67400</v>
+        <v>-68000</v>
       </c>
       <c r="G81" s="3">
-        <v>-281500</v>
+        <v>-284100</v>
       </c>
       <c r="H81" s="3">
-        <v>258300</v>
+        <v>260700</v>
       </c>
       <c r="I81" s="3">
-        <v>893300</v>
+        <v>901600</v>
       </c>
       <c r="J81" s="3">
-        <v>-691000</v>
+        <v>-697400</v>
       </c>
       <c r="K81" s="3">
         <v>-56300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>102000</v>
+        <v>103000</v>
       </c>
       <c r="E83" s="3">
-        <v>85900</v>
+        <v>86700</v>
       </c>
       <c r="F83" s="3">
-        <v>279600</v>
+        <v>282200</v>
       </c>
       <c r="G83" s="3">
-        <v>749200</v>
+        <v>756200</v>
       </c>
       <c r="H83" s="3">
-        <v>292500</v>
+        <v>295200</v>
       </c>
       <c r="I83" s="3">
-        <v>58600</v>
+        <v>59100</v>
       </c>
       <c r="J83" s="3">
-        <v>478300</v>
+        <v>482700</v>
       </c>
       <c r="K83" s="3">
         <v>180400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>369600</v>
+        <v>373000</v>
       </c>
       <c r="E89" s="3">
-        <v>62000</v>
+        <v>62600</v>
       </c>
       <c r="F89" s="3">
-        <v>196000</v>
+        <v>197800</v>
       </c>
       <c r="G89" s="3">
-        <v>171300</v>
+        <v>172900</v>
       </c>
       <c r="H89" s="3">
-        <v>96800</v>
+        <v>97700</v>
       </c>
       <c r="I89" s="3">
-        <v>35100</v>
+        <v>35400</v>
       </c>
       <c r="J89" s="3">
-        <v>64600</v>
+        <v>65200</v>
       </c>
       <c r="K89" s="3">
         <v>93000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-214700</v>
+        <v>-216700</v>
       </c>
       <c r="E91" s="3">
-        <v>-169600</v>
+        <v>-171200</v>
       </c>
       <c r="F91" s="3">
-        <v>-309800</v>
+        <v>-312700</v>
       </c>
       <c r="G91" s="3">
-        <v>-444800</v>
+        <v>-449000</v>
       </c>
       <c r="H91" s="3">
-        <v>-417900</v>
+        <v>-421800</v>
       </c>
       <c r="I91" s="3">
-        <v>-154100</v>
+        <v>-155500</v>
       </c>
       <c r="J91" s="3">
-        <v>-378700</v>
+        <v>-382200</v>
       </c>
       <c r="K91" s="3">
         <v>-739100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39600</v>
+        <v>-40000</v>
       </c>
       <c r="E94" s="3">
-        <v>-191700</v>
+        <v>-193500</v>
       </c>
       <c r="F94" s="3">
-        <v>-75500</v>
+        <v>-76200</v>
       </c>
       <c r="G94" s="3">
-        <v>-284800</v>
+        <v>-287400</v>
       </c>
       <c r="H94" s="3">
-        <v>-655700</v>
+        <v>-661700</v>
       </c>
       <c r="I94" s="3">
-        <v>1405600</v>
+        <v>1418600</v>
       </c>
       <c r="J94" s="3">
-        <v>-475200</v>
+        <v>-479600</v>
       </c>
       <c r="K94" s="3">
         <v>-623000</v>
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21000</v>
+        <v>-21200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-332200</v>
+        <v>-335300</v>
       </c>
       <c r="E100" s="3">
-        <v>129100</v>
+        <v>130300</v>
       </c>
       <c r="F100" s="3">
-        <v>-130500</v>
+        <v>-131700</v>
       </c>
       <c r="G100" s="3">
-        <v>31900</v>
+        <v>32200</v>
       </c>
       <c r="H100" s="3">
-        <v>177800</v>
+        <v>179400</v>
       </c>
       <c r="I100" s="3">
-        <v>-972800</v>
+        <v>-981800</v>
       </c>
       <c r="J100" s="3">
-        <v>403000</v>
+        <v>406800</v>
       </c>
       <c r="K100" s="3">
         <v>535900</v>
@@ -3977,7 +3977,7 @@
         <v>-200</v>
       </c>
       <c r="J101" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -4004,16 +4004,16 @@
         <v>-1100</v>
       </c>
       <c r="F102" s="3">
-        <v>-10200</v>
+        <v>-10300</v>
       </c>
       <c r="G102" s="3">
-        <v>-79800</v>
+        <v>-80500</v>
       </c>
       <c r="H102" s="3">
-        <v>-382200</v>
+        <v>-385700</v>
       </c>
       <c r="I102" s="3">
-        <v>467600</v>
+        <v>471900</v>
       </c>
       <c r="J102" s="3">
         <v>-4900</v>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>825000</v>
+        <v>800600</v>
       </c>
       <c r="E8" s="3">
-        <v>467000</v>
+        <v>453200</v>
       </c>
       <c r="F8" s="3">
-        <v>623900</v>
+        <v>605500</v>
       </c>
       <c r="G8" s="3">
-        <v>698900</v>
+        <v>678300</v>
       </c>
       <c r="H8" s="3">
-        <v>358000</v>
+        <v>347400</v>
       </c>
       <c r="I8" s="3">
-        <v>191000</v>
+        <v>185400</v>
       </c>
       <c r="J8" s="3">
-        <v>324300</v>
+        <v>314700</v>
       </c>
       <c r="K8" s="3">
         <v>263200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>352000</v>
+        <v>341600</v>
       </c>
       <c r="E9" s="3">
-        <v>308200</v>
+        <v>299100</v>
       </c>
       <c r="F9" s="3">
-        <v>364200</v>
+        <v>353400</v>
       </c>
       <c r="G9" s="3">
-        <v>366700</v>
+        <v>355900</v>
       </c>
       <c r="H9" s="3">
-        <v>167800</v>
+        <v>162800</v>
       </c>
       <c r="I9" s="3">
-        <v>118800</v>
+        <v>115300</v>
       </c>
       <c r="J9" s="3">
-        <v>120500</v>
+        <v>117000</v>
       </c>
       <c r="K9" s="3">
         <v>84100</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>473000</v>
+        <v>459000</v>
       </c>
       <c r="E10" s="3">
-        <v>158800</v>
+        <v>154100</v>
       </c>
       <c r="F10" s="3">
-        <v>259800</v>
+        <v>252100</v>
       </c>
       <c r="G10" s="3">
-        <v>332200</v>
+        <v>322400</v>
       </c>
       <c r="H10" s="3">
-        <v>190200</v>
+        <v>184600</v>
       </c>
       <c r="I10" s="3">
-        <v>72200</v>
+        <v>70100</v>
       </c>
       <c r="J10" s="3">
-        <v>203800</v>
+        <v>197800</v>
       </c>
       <c r="K10" s="3">
         <v>179100</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="E12" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="F12" s="3">
-        <v>17300</v>
+        <v>16800</v>
       </c>
       <c r="G12" s="3">
-        <v>21100</v>
+        <v>20500</v>
       </c>
       <c r="H12" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I12" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="J12" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="K12" s="3">
         <v>13500</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-198900</v>
+        <v>-193000</v>
       </c>
       <c r="E14" s="3">
-        <v>-103800</v>
+        <v>-100700</v>
       </c>
       <c r="F14" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G14" s="3">
-        <v>390700</v>
+        <v>379200</v>
       </c>
       <c r="H14" s="3">
-        <v>-54700</v>
+        <v>-53100</v>
       </c>
       <c r="I14" s="3">
-        <v>-70800</v>
+        <v>-68700</v>
       </c>
       <c r="J14" s="3">
-        <v>419100</v>
+        <v>406700</v>
       </c>
       <c r="K14" s="3">
         <v>38000</v>
@@ -974,25 +974,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>232500</v>
+        <v>225600</v>
       </c>
       <c r="E15" s="3">
-        <v>196500</v>
+        <v>190700</v>
       </c>
       <c r="F15" s="3">
-        <v>282200</v>
+        <v>273900</v>
       </c>
       <c r="G15" s="3">
-        <v>367300</v>
+        <v>356500</v>
       </c>
       <c r="H15" s="3">
-        <v>233600</v>
+        <v>226700</v>
       </c>
       <c r="I15" s="3">
-        <v>167200</v>
+        <v>162300</v>
       </c>
       <c r="J15" s="3">
-        <v>282900</v>
+        <v>274500</v>
       </c>
       <c r="K15" s="3">
         <v>164200</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>576100</v>
+        <v>559000</v>
       </c>
       <c r="E17" s="3">
-        <v>474300</v>
+        <v>460300</v>
       </c>
       <c r="F17" s="3">
-        <v>594100</v>
+        <v>576600</v>
       </c>
       <c r="G17" s="3">
-        <v>1139200</v>
+        <v>1105500</v>
       </c>
       <c r="H17" s="3">
-        <v>208800</v>
+        <v>202600</v>
       </c>
       <c r="I17" s="3">
-        <v>-842200</v>
+        <v>-817300</v>
       </c>
       <c r="J17" s="3">
-        <v>1016200</v>
+        <v>986100</v>
       </c>
       <c r="K17" s="3">
         <v>324500</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>248900</v>
+        <v>241600</v>
       </c>
       <c r="E18" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="F18" s="3">
-        <v>29800</v>
+        <v>28900</v>
       </c>
       <c r="G18" s="3">
-        <v>-440300</v>
+        <v>-427300</v>
       </c>
       <c r="H18" s="3">
-        <v>149200</v>
+        <v>144800</v>
       </c>
       <c r="I18" s="3">
-        <v>1033200</v>
+        <v>1002600</v>
       </c>
       <c r="J18" s="3">
-        <v>-691900</v>
+        <v>-671400</v>
       </c>
       <c r="K18" s="3">
         <v>-61200</v>
@@ -1128,19 +1128,19 @@
         <v>-2300</v>
       </c>
       <c r="F20" s="3">
-        <v>-10900</v>
+        <v>-10600</v>
       </c>
       <c r="G20" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="H20" s="3">
-        <v>47900</v>
+        <v>46500</v>
       </c>
       <c r="I20" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="J20" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="K20" s="3">
         <v>2600</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>352200</v>
+        <v>340600</v>
       </c>
       <c r="E21" s="3">
-        <v>76800</v>
+        <v>73500</v>
       </c>
       <c r="F21" s="3">
-        <v>300200</v>
+        <v>288000</v>
       </c>
       <c r="G21" s="3">
-        <v>320000</v>
+        <v>301600</v>
       </c>
       <c r="H21" s="3">
-        <v>491400</v>
+        <v>473400</v>
       </c>
       <c r="I21" s="3">
-        <v>1081300</v>
+        <v>1048700</v>
       </c>
       <c r="J21" s="3">
-        <v>-225800</v>
+        <v>-224900</v>
       </c>
       <c r="K21" s="3">
         <v>121100</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>249500</v>
+        <v>242200</v>
       </c>
       <c r="E23" s="3">
-        <v>-9600</v>
+        <v>-9400</v>
       </c>
       <c r="F23" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="G23" s="3">
-        <v>-433800</v>
+        <v>-420900</v>
       </c>
       <c r="H23" s="3">
-        <v>197200</v>
+        <v>191400</v>
       </c>
       <c r="I23" s="3">
-        <v>1022400</v>
+        <v>992200</v>
       </c>
       <c r="J23" s="3">
-        <v>-707100</v>
+        <v>-686100</v>
       </c>
       <c r="K23" s="3">
         <v>-58700</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>66200</v>
+        <v>64300</v>
       </c>
       <c r="E24" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="F24" s="3">
-        <v>86900</v>
+        <v>84300</v>
       </c>
       <c r="G24" s="3">
-        <v>-149700</v>
+        <v>-145200</v>
       </c>
       <c r="H24" s="3">
-        <v>-63500</v>
+        <v>-61600</v>
       </c>
       <c r="I24" s="3">
-        <v>120800</v>
+        <v>117200</v>
       </c>
       <c r="J24" s="3">
-        <v>-9700</v>
+        <v>-9400</v>
       </c>
       <c r="K24" s="3">
         <v>-2400</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>183300</v>
+        <v>177900</v>
       </c>
       <c r="E26" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="F26" s="3">
-        <v>-68000</v>
+        <v>-66000</v>
       </c>
       <c r="G26" s="3">
-        <v>-284100</v>
+        <v>-275700</v>
       </c>
       <c r="H26" s="3">
-        <v>260700</v>
+        <v>253000</v>
       </c>
       <c r="I26" s="3">
-        <v>901600</v>
+        <v>875000</v>
       </c>
       <c r="J26" s="3">
-        <v>-697400</v>
+        <v>-676800</v>
       </c>
       <c r="K26" s="3">
         <v>-56300</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>183300</v>
+        <v>177900</v>
       </c>
       <c r="E27" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="F27" s="3">
-        <v>-68000</v>
+        <v>-66000</v>
       </c>
       <c r="G27" s="3">
-        <v>-284100</v>
+        <v>-275700</v>
       </c>
       <c r="H27" s="3">
-        <v>260700</v>
+        <v>253000</v>
       </c>
       <c r="I27" s="3">
-        <v>901600</v>
+        <v>875000</v>
       </c>
       <c r="J27" s="3">
-        <v>-697400</v>
+        <v>-676800</v>
       </c>
       <c r="K27" s="3">
         <v>-56300</v>
@@ -1596,19 +1596,19 @@
         <v>2300</v>
       </c>
       <c r="F32" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="G32" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="H32" s="3">
-        <v>-47900</v>
+        <v>-46500</v>
       </c>
       <c r="I32" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="J32" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="K32" s="3">
         <v>-2600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>183300</v>
+        <v>177900</v>
       </c>
       <c r="E33" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="F33" s="3">
-        <v>-68000</v>
+        <v>-66000</v>
       </c>
       <c r="G33" s="3">
-        <v>-284100</v>
+        <v>-275700</v>
       </c>
       <c r="H33" s="3">
-        <v>260700</v>
+        <v>253000</v>
       </c>
       <c r="I33" s="3">
-        <v>901600</v>
+        <v>875000</v>
       </c>
       <c r="J33" s="3">
-        <v>-697400</v>
+        <v>-676800</v>
       </c>
       <c r="K33" s="3">
         <v>-56300</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>183300</v>
+        <v>177900</v>
       </c>
       <c r="E35" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="F35" s="3">
-        <v>-68000</v>
+        <v>-66000</v>
       </c>
       <c r="G35" s="3">
-        <v>-284100</v>
+        <v>-275700</v>
       </c>
       <c r="H35" s="3">
-        <v>260700</v>
+        <v>253000</v>
       </c>
       <c r="I35" s="3">
-        <v>901600</v>
+        <v>875000</v>
       </c>
       <c r="J35" s="3">
-        <v>-697400</v>
+        <v>-676800</v>
       </c>
       <c r="K35" s="3">
         <v>-56300</v>
@@ -1827,22 +1827,22 @@
         <v>1300</v>
       </c>
       <c r="E41" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F41" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="G41" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="H41" s="3">
-        <v>95400</v>
+        <v>92600</v>
       </c>
       <c r="I41" s="3">
-        <v>481200</v>
+        <v>466900</v>
       </c>
       <c r="J41" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="K41" s="3">
         <v>14400</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>92100</v>
+        <v>89300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>24</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>109800</v>
+        <v>106500</v>
       </c>
       <c r="E43" s="3">
-        <v>77400</v>
+        <v>75100</v>
       </c>
       <c r="F43" s="3">
-        <v>91800</v>
+        <v>89100</v>
       </c>
       <c r="G43" s="3">
-        <v>93900</v>
+        <v>91100</v>
       </c>
       <c r="H43" s="3">
-        <v>131800</v>
+        <v>127900</v>
       </c>
       <c r="I43" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="J43" s="3">
-        <v>37700</v>
+        <v>36600</v>
       </c>
       <c r="K43" s="3">
         <v>44800</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="E45" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="F45" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="G45" s="3">
-        <v>57300</v>
+        <v>55600</v>
       </c>
       <c r="H45" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="I45" s="3">
         <v>1300</v>
       </c>
       <c r="J45" s="3">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="K45" s="3">
         <v>3800</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>121200</v>
+        <v>117700</v>
       </c>
       <c r="E46" s="3">
-        <v>88900</v>
+        <v>86300</v>
       </c>
       <c r="F46" s="3">
-        <v>109600</v>
+        <v>106400</v>
       </c>
       <c r="G46" s="3">
-        <v>166100</v>
+        <v>161200</v>
       </c>
       <c r="H46" s="3">
-        <v>234200</v>
+        <v>227300</v>
       </c>
       <c r="I46" s="3">
-        <v>593000</v>
+        <v>575500</v>
       </c>
       <c r="J46" s="3">
-        <v>82000</v>
+        <v>79500</v>
       </c>
       <c r="K46" s="3">
         <v>63000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>288300</v>
+        <v>279800</v>
       </c>
       <c r="E47" s="3">
-        <v>117300</v>
+        <v>113800</v>
       </c>
       <c r="F47" s="3">
-        <v>125100</v>
+        <v>121400</v>
       </c>
       <c r="G47" s="3">
-        <v>179300</v>
+        <v>174000</v>
       </c>
       <c r="H47" s="3">
-        <v>41300</v>
+        <v>40000</v>
       </c>
       <c r="I47" s="3">
-        <v>83800</v>
+        <v>81300</v>
       </c>
       <c r="J47" s="3">
-        <v>92100</v>
+        <v>89400</v>
       </c>
       <c r="K47" s="3">
         <v>145500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2173900</v>
+        <v>2109600</v>
       </c>
       <c r="E48" s="3">
-        <v>1989900</v>
+        <v>1931000</v>
       </c>
       <c r="F48" s="3">
-        <v>1984300</v>
+        <v>1925600</v>
       </c>
       <c r="G48" s="3">
-        <v>2242400</v>
+        <v>2176100</v>
       </c>
       <c r="H48" s="3">
-        <v>2739500</v>
+        <v>2658400</v>
       </c>
       <c r="I48" s="3">
-        <v>916300</v>
+        <v>889200</v>
       </c>
       <c r="J48" s="3">
-        <v>1855500</v>
+        <v>1800600</v>
       </c>
       <c r="K48" s="3">
         <v>2147900</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K49" s="3">
         <v>19400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>422600</v>
+        <v>410100</v>
       </c>
       <c r="E52" s="3">
-        <v>509800</v>
+        <v>494700</v>
       </c>
       <c r="F52" s="3">
-        <v>513400</v>
+        <v>498200</v>
       </c>
       <c r="G52" s="3">
-        <v>598600</v>
+        <v>580800</v>
       </c>
       <c r="H52" s="3">
-        <v>451900</v>
+        <v>438600</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>119800</v>
+        <v>116300</v>
       </c>
       <c r="K52" s="3">
         <v>135900</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3006100</v>
+        <v>2917200</v>
       </c>
       <c r="E54" s="3">
-        <v>2705800</v>
+        <v>2625800</v>
       </c>
       <c r="F54" s="3">
-        <v>2732300</v>
+        <v>2651500</v>
       </c>
       <c r="G54" s="3">
-        <v>3186400</v>
+        <v>3092100</v>
       </c>
       <c r="H54" s="3">
-        <v>3466900</v>
+        <v>3364300</v>
       </c>
       <c r="I54" s="3">
-        <v>1593100</v>
+        <v>1546000</v>
       </c>
       <c r="J54" s="3">
-        <v>2151800</v>
+        <v>2088200</v>
       </c>
       <c r="K54" s="3">
         <v>2511700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>162400</v>
+        <v>157600</v>
       </c>
       <c r="E57" s="3">
-        <v>109300</v>
+        <v>106000</v>
       </c>
       <c r="F57" s="3">
-        <v>137800</v>
+        <v>133700</v>
       </c>
       <c r="G57" s="3">
-        <v>145200</v>
+        <v>140900</v>
       </c>
       <c r="H57" s="3">
-        <v>171700</v>
+        <v>166600</v>
       </c>
       <c r="I57" s="3">
-        <v>62600</v>
+        <v>60700</v>
       </c>
       <c r="J57" s="3">
-        <v>75700</v>
+        <v>73500</v>
       </c>
       <c r="K57" s="3">
         <v>198100</v>
@@ -2443,13 +2443,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="E58" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="F58" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>24</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>78100</v>
+        <v>75800</v>
       </c>
       <c r="K58" s="3">
         <v>64000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27900</v>
+        <v>27100</v>
       </c>
       <c r="E59" s="3">
-        <v>51100</v>
+        <v>49600</v>
       </c>
       <c r="F59" s="3">
-        <v>45600</v>
+        <v>44200</v>
       </c>
       <c r="G59" s="3">
-        <v>58500</v>
+        <v>56700</v>
       </c>
       <c r="H59" s="3">
-        <v>48200</v>
+        <v>46800</v>
       </c>
       <c r="I59" s="3">
-        <v>102700</v>
+        <v>99700</v>
       </c>
       <c r="J59" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="K59" s="3">
         <v>11400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>198100</v>
+        <v>192200</v>
       </c>
       <c r="E60" s="3">
-        <v>168100</v>
+        <v>163100</v>
       </c>
       <c r="F60" s="3">
-        <v>191000</v>
+        <v>185400</v>
       </c>
       <c r="G60" s="3">
-        <v>203700</v>
+        <v>197600</v>
       </c>
       <c r="H60" s="3">
-        <v>219900</v>
+        <v>213400</v>
       </c>
       <c r="I60" s="3">
-        <v>165300</v>
+        <v>160400</v>
       </c>
       <c r="J60" s="3">
-        <v>161400</v>
+        <v>156600</v>
       </c>
       <c r="K60" s="3">
         <v>273500</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300900</v>
+        <v>292000</v>
       </c>
       <c r="E61" s="3">
-        <v>638500</v>
+        <v>619600</v>
       </c>
       <c r="F61" s="3">
-        <v>506100</v>
+        <v>491100</v>
       </c>
       <c r="G61" s="3">
-        <v>630600</v>
+        <v>612000</v>
       </c>
       <c r="H61" s="3">
-        <v>543000</v>
+        <v>526900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>1354200</v>
+        <v>1314200</v>
       </c>
       <c r="K61" s="3">
         <v>950200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>490400</v>
+        <v>475900</v>
       </c>
       <c r="E62" s="3">
-        <v>322400</v>
+        <v>312900</v>
       </c>
       <c r="F62" s="3">
-        <v>423400</v>
+        <v>410800</v>
       </c>
       <c r="G62" s="3">
-        <v>610800</v>
+        <v>592700</v>
       </c>
       <c r="H62" s="3">
-        <v>640900</v>
+        <v>622000</v>
       </c>
       <c r="I62" s="3">
-        <v>162900</v>
+        <v>158100</v>
       </c>
       <c r="J62" s="3">
-        <v>211700</v>
+        <v>205400</v>
       </c>
       <c r="K62" s="3">
         <v>225600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>989400</v>
+        <v>960100</v>
       </c>
       <c r="E66" s="3">
-        <v>1129100</v>
+        <v>1095700</v>
       </c>
       <c r="F66" s="3">
-        <v>1120500</v>
+        <v>1087300</v>
       </c>
       <c r="G66" s="3">
-        <v>1445000</v>
+        <v>1402300</v>
       </c>
       <c r="H66" s="3">
-        <v>1403800</v>
+        <v>1362300</v>
       </c>
       <c r="I66" s="3">
-        <v>328200</v>
+        <v>318500</v>
       </c>
       <c r="J66" s="3">
-        <v>1727300</v>
+        <v>1676200</v>
       </c>
       <c r="K66" s="3">
         <v>1449300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12000</v>
+        <v>-11600</v>
       </c>
       <c r="E72" s="3">
-        <v>-181900</v>
+        <v>-176500</v>
       </c>
       <c r="F72" s="3">
-        <v>-99400</v>
+        <v>-96500</v>
       </c>
       <c r="G72" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="H72" s="3">
-        <v>211200</v>
+        <v>204900</v>
       </c>
       <c r="I72" s="3">
-        <v>-117800</v>
+        <v>-114300</v>
       </c>
       <c r="J72" s="3">
-        <v>-926700</v>
+        <v>-899300</v>
       </c>
       <c r="K72" s="3">
         <v>-232600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2016700</v>
+        <v>1957000</v>
       </c>
       <c r="E76" s="3">
-        <v>1576700</v>
+        <v>1530100</v>
       </c>
       <c r="F76" s="3">
-        <v>1611900</v>
+        <v>1564200</v>
       </c>
       <c r="G76" s="3">
-        <v>1741300</v>
+        <v>1689800</v>
       </c>
       <c r="H76" s="3">
-        <v>2063000</v>
+        <v>2002000</v>
       </c>
       <c r="I76" s="3">
-        <v>1264900</v>
+        <v>1227500</v>
       </c>
       <c r="J76" s="3">
-        <v>424600</v>
+        <v>412000</v>
       </c>
       <c r="K76" s="3">
         <v>1062400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>183300</v>
+        <v>177900</v>
       </c>
       <c r="E81" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="F81" s="3">
-        <v>-68000</v>
+        <v>-66000</v>
       </c>
       <c r="G81" s="3">
-        <v>-284100</v>
+        <v>-275700</v>
       </c>
       <c r="H81" s="3">
-        <v>260700</v>
+        <v>253000</v>
       </c>
       <c r="I81" s="3">
-        <v>901600</v>
+        <v>875000</v>
       </c>
       <c r="J81" s="3">
-        <v>-697400</v>
+        <v>-676800</v>
       </c>
       <c r="K81" s="3">
         <v>-56300</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>103000</v>
+        <v>99900</v>
       </c>
       <c r="E83" s="3">
-        <v>86700</v>
+        <v>84100</v>
       </c>
       <c r="F83" s="3">
-        <v>282200</v>
+        <v>273900</v>
       </c>
       <c r="G83" s="3">
-        <v>756200</v>
+        <v>733800</v>
       </c>
       <c r="H83" s="3">
-        <v>295200</v>
+        <v>286400</v>
       </c>
       <c r="I83" s="3">
-        <v>59100</v>
+        <v>57400</v>
       </c>
       <c r="J83" s="3">
-        <v>482700</v>
+        <v>468500</v>
       </c>
       <c r="K83" s="3">
         <v>180400</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>373000</v>
+        <v>362000</v>
       </c>
       <c r="E89" s="3">
-        <v>62600</v>
+        <v>60800</v>
       </c>
       <c r="F89" s="3">
-        <v>197800</v>
+        <v>192000</v>
       </c>
       <c r="G89" s="3">
-        <v>172900</v>
+        <v>167800</v>
       </c>
       <c r="H89" s="3">
-        <v>97700</v>
+        <v>94800</v>
       </c>
       <c r="I89" s="3">
-        <v>35400</v>
+        <v>34400</v>
       </c>
       <c r="J89" s="3">
-        <v>65200</v>
+        <v>63300</v>
       </c>
       <c r="K89" s="3">
         <v>93000</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-216700</v>
+        <v>-210200</v>
       </c>
       <c r="E91" s="3">
-        <v>-171200</v>
+        <v>-166100</v>
       </c>
       <c r="F91" s="3">
-        <v>-312700</v>
+        <v>-303400</v>
       </c>
       <c r="G91" s="3">
-        <v>-449000</v>
+        <v>-435700</v>
       </c>
       <c r="H91" s="3">
-        <v>-421800</v>
+        <v>-409300</v>
       </c>
       <c r="I91" s="3">
-        <v>-155500</v>
+        <v>-150900</v>
       </c>
       <c r="J91" s="3">
-        <v>-382200</v>
+        <v>-370900</v>
       </c>
       <c r="K91" s="3">
         <v>-739100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-40000</v>
+        <v>-38800</v>
       </c>
       <c r="E94" s="3">
-        <v>-193500</v>
+        <v>-187700</v>
       </c>
       <c r="F94" s="3">
-        <v>-76200</v>
+        <v>-74000</v>
       </c>
       <c r="G94" s="3">
-        <v>-287400</v>
+        <v>-278900</v>
       </c>
       <c r="H94" s="3">
-        <v>-661700</v>
+        <v>-642200</v>
       </c>
       <c r="I94" s="3">
-        <v>1418600</v>
+        <v>1376600</v>
       </c>
       <c r="J94" s="3">
-        <v>-479600</v>
+        <v>-465400</v>
       </c>
       <c r="K94" s="3">
         <v>-623000</v>
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-21200</v>
+        <v>-20600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-335300</v>
+        <v>-325300</v>
       </c>
       <c r="E100" s="3">
-        <v>130300</v>
+        <v>126400</v>
       </c>
       <c r="F100" s="3">
-        <v>-131700</v>
+        <v>-127800</v>
       </c>
       <c r="G100" s="3">
-        <v>32200</v>
+        <v>31200</v>
       </c>
       <c r="H100" s="3">
-        <v>179400</v>
+        <v>174100</v>
       </c>
       <c r="I100" s="3">
-        <v>-981800</v>
+        <v>-952800</v>
       </c>
       <c r="J100" s="3">
-        <v>406800</v>
+        <v>394700</v>
       </c>
       <c r="K100" s="3">
         <v>535900</v>
@@ -3968,7 +3968,7 @@
         <v>-200</v>
       </c>
       <c r="G101" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H101" s="3">
         <v>-1100</v>
@@ -3977,7 +3977,7 @@
         <v>-200</v>
       </c>
       <c r="J101" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -4004,19 +4004,19 @@
         <v>-1100</v>
       </c>
       <c r="F102" s="3">
-        <v>-10300</v>
+        <v>-10000</v>
       </c>
       <c r="G102" s="3">
-        <v>-80500</v>
+        <v>-78100</v>
       </c>
       <c r="H102" s="3">
-        <v>-385700</v>
+        <v>-374300</v>
       </c>
       <c r="I102" s="3">
-        <v>471900</v>
+        <v>458000</v>
       </c>
       <c r="J102" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="K102" s="3">
         <v>6000</v>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>PRMRF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>800600</v>
+        <v>1583200</v>
       </c>
       <c r="E8" s="3">
-        <v>453200</v>
+        <v>771100</v>
       </c>
       <c r="F8" s="3">
-        <v>605500</v>
+        <v>436500</v>
       </c>
       <c r="G8" s="3">
-        <v>678300</v>
+        <v>583200</v>
       </c>
       <c r="H8" s="3">
-        <v>347400</v>
+        <v>653300</v>
       </c>
       <c r="I8" s="3">
-        <v>185400</v>
+        <v>334600</v>
       </c>
       <c r="J8" s="3">
+        <v>178500</v>
+      </c>
+      <c r="K8" s="3">
         <v>314700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>263200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>166200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>121600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>149200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>341600</v>
+        <v>383900</v>
       </c>
       <c r="E9" s="3">
-        <v>299100</v>
+        <v>329000</v>
       </c>
       <c r="F9" s="3">
-        <v>353400</v>
+        <v>288100</v>
       </c>
       <c r="G9" s="3">
-        <v>355900</v>
+        <v>340400</v>
       </c>
       <c r="H9" s="3">
-        <v>162800</v>
+        <v>342800</v>
       </c>
       <c r="I9" s="3">
-        <v>115300</v>
+        <v>156900</v>
       </c>
       <c r="J9" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K9" s="3">
         <v>117000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>84100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>71100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>57100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>63700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>459000</v>
+        <v>1199300</v>
       </c>
       <c r="E10" s="3">
-        <v>154100</v>
+        <v>442100</v>
       </c>
       <c r="F10" s="3">
-        <v>252100</v>
+        <v>148400</v>
       </c>
       <c r="G10" s="3">
-        <v>322400</v>
+        <v>242800</v>
       </c>
       <c r="H10" s="3">
-        <v>184600</v>
+        <v>310500</v>
       </c>
       <c r="I10" s="3">
-        <v>70100</v>
+        <v>177800</v>
       </c>
       <c r="J10" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K10" s="3">
         <v>197800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>179100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>95100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>85500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>29200</v>
+        <v>22100</v>
       </c>
       <c r="E12" s="3">
-        <v>25500</v>
+        <v>28100</v>
       </c>
       <c r="F12" s="3">
-        <v>16800</v>
+        <v>24600</v>
       </c>
       <c r="G12" s="3">
-        <v>20500</v>
+        <v>16200</v>
       </c>
       <c r="H12" s="3">
-        <v>7000</v>
+        <v>19700</v>
       </c>
       <c r="I12" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="L12" s="3">
         <v>13500</v>
       </c>
-      <c r="J12" s="3">
-        <v>15900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>13500</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20900</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-193000</v>
+        <v>-15800</v>
       </c>
       <c r="E14" s="3">
-        <v>-100700</v>
+        <v>-185900</v>
       </c>
       <c r="F14" s="3">
-        <v>3600</v>
+        <v>-97000</v>
       </c>
       <c r="G14" s="3">
-        <v>379200</v>
+        <v>3500</v>
       </c>
       <c r="H14" s="3">
-        <v>-53100</v>
+        <v>365200</v>
       </c>
       <c r="I14" s="3">
-        <v>-68700</v>
+        <v>-51100</v>
       </c>
       <c r="J14" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="K14" s="3">
         <v>406700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>38000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>79900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8900</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>225600</v>
+        <v>242900</v>
       </c>
       <c r="E15" s="3">
-        <v>190700</v>
+        <v>217300</v>
       </c>
       <c r="F15" s="3">
-        <v>273900</v>
+        <v>183600</v>
       </c>
       <c r="G15" s="3">
-        <v>356500</v>
+        <v>263800</v>
       </c>
       <c r="H15" s="3">
-        <v>226700</v>
+        <v>343300</v>
       </c>
       <c r="I15" s="3">
-        <v>162300</v>
+        <v>218400</v>
       </c>
       <c r="J15" s="3">
+        <v>156300</v>
+      </c>
+      <c r="K15" s="3">
         <v>274500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>164200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>119900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>224100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>114000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>559000</v>
+        <v>961100</v>
       </c>
       <c r="E17" s="3">
-        <v>460300</v>
+        <v>538400</v>
       </c>
       <c r="F17" s="3">
-        <v>576600</v>
+        <v>443300</v>
       </c>
       <c r="G17" s="3">
-        <v>1105500</v>
+        <v>555300</v>
       </c>
       <c r="H17" s="3">
-        <v>202600</v>
+        <v>1064800</v>
       </c>
       <c r="I17" s="3">
-        <v>-817300</v>
+        <v>195100</v>
       </c>
       <c r="J17" s="3">
+        <v>-787200</v>
+      </c>
+      <c r="K17" s="3">
         <v>986100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>324500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>272100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>314900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>426900</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>241600</v>
+        <v>622100</v>
       </c>
       <c r="E18" s="3">
-        <v>-7100</v>
+        <v>232700</v>
       </c>
       <c r="F18" s="3">
-        <v>28900</v>
+        <v>-6800</v>
       </c>
       <c r="G18" s="3">
-        <v>-427300</v>
+        <v>27900</v>
       </c>
       <c r="H18" s="3">
-        <v>144800</v>
+        <v>-411500</v>
       </c>
       <c r="I18" s="3">
-        <v>1002600</v>
+        <v>139500</v>
       </c>
       <c r="J18" s="3">
+        <v>965700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-671400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-61200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-105800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-193200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-277700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
-        <v>-2300</v>
-      </c>
       <c r="F20" s="3">
-        <v>-10600</v>
+        <v>-2200</v>
       </c>
       <c r="G20" s="3">
-        <v>6300</v>
+        <v>-10200</v>
       </c>
       <c r="H20" s="3">
-        <v>46500</v>
+        <v>6100</v>
       </c>
       <c r="I20" s="3">
-        <v>-10500</v>
+        <v>44800</v>
       </c>
       <c r="J20" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>24500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>126200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19700</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>340600</v>
+        <v>833400</v>
       </c>
       <c r="E21" s="3">
-        <v>73500</v>
+        <v>329700</v>
       </c>
       <c r="F21" s="3">
-        <v>288000</v>
+        <v>72200</v>
       </c>
       <c r="G21" s="3">
-        <v>301600</v>
+        <v>281900</v>
       </c>
       <c r="H21" s="3">
-        <v>473400</v>
+        <v>302500</v>
       </c>
       <c r="I21" s="3">
-        <v>1048700</v>
+        <v>460700</v>
       </c>
       <c r="J21" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-224900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>121100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>36100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>147000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27600</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>242200</v>
+        <v>626200</v>
       </c>
       <c r="E23" s="3">
-        <v>-9400</v>
+        <v>233200</v>
       </c>
       <c r="F23" s="3">
-        <v>18300</v>
+        <v>-9000</v>
       </c>
       <c r="G23" s="3">
-        <v>-420900</v>
+        <v>17700</v>
       </c>
       <c r="H23" s="3">
-        <v>191400</v>
+        <v>-405400</v>
       </c>
       <c r="I23" s="3">
-        <v>992200</v>
+        <v>184300</v>
       </c>
       <c r="J23" s="3">
+        <v>955600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-686100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-58700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-81400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-67000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-258000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>64300</v>
+        <v>133900</v>
       </c>
       <c r="E24" s="3">
-        <v>7700</v>
+        <v>61900</v>
       </c>
       <c r="F24" s="3">
-        <v>84300</v>
+        <v>7400</v>
       </c>
       <c r="G24" s="3">
-        <v>-145200</v>
+        <v>81200</v>
       </c>
       <c r="H24" s="3">
-        <v>-61600</v>
+        <v>-139900</v>
       </c>
       <c r="I24" s="3">
-        <v>117200</v>
+        <v>-59300</v>
       </c>
       <c r="J24" s="3">
+        <v>112900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-9400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-14300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-18300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-61100</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>177900</v>
+        <v>492200</v>
       </c>
       <c r="E26" s="3">
-        <v>-17000</v>
+        <v>171300</v>
       </c>
       <c r="F26" s="3">
-        <v>-66000</v>
+        <v>-16400</v>
       </c>
       <c r="G26" s="3">
-        <v>-275700</v>
+        <v>-63500</v>
       </c>
       <c r="H26" s="3">
-        <v>253000</v>
+        <v>-265500</v>
       </c>
       <c r="I26" s="3">
-        <v>875000</v>
+        <v>243600</v>
       </c>
       <c r="J26" s="3">
+        <v>842800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-676800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-56300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-67100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-48700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-196900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>177900</v>
+        <v>492200</v>
       </c>
       <c r="E27" s="3">
-        <v>-17000</v>
+        <v>171300</v>
       </c>
       <c r="F27" s="3">
-        <v>-66000</v>
+        <v>-16400</v>
       </c>
       <c r="G27" s="3">
-        <v>-275700</v>
+        <v>-63500</v>
       </c>
       <c r="H27" s="3">
-        <v>253000</v>
+        <v>-265500</v>
       </c>
       <c r="I27" s="3">
-        <v>875000</v>
+        <v>243600</v>
       </c>
       <c r="J27" s="3">
+        <v>842800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-676800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-56300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-67100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-48700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-196900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1497,17 +1557,20 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>21600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>2100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>18700</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
-        <v>2300</v>
-      </c>
       <c r="F32" s="3">
-        <v>10600</v>
+        <v>2200</v>
       </c>
       <c r="G32" s="3">
-        <v>-6300</v>
+        <v>10200</v>
       </c>
       <c r="H32" s="3">
-        <v>-46500</v>
+        <v>-6100</v>
       </c>
       <c r="I32" s="3">
-        <v>10500</v>
+        <v>-44800</v>
       </c>
       <c r="J32" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K32" s="3">
         <v>14700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-24500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-126200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19700</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>177900</v>
+        <v>492200</v>
       </c>
       <c r="E33" s="3">
-        <v>-17000</v>
+        <v>171300</v>
       </c>
       <c r="F33" s="3">
-        <v>-66000</v>
+        <v>-16400</v>
       </c>
       <c r="G33" s="3">
-        <v>-275700</v>
+        <v>-63500</v>
       </c>
       <c r="H33" s="3">
-        <v>253000</v>
+        <v>-265500</v>
       </c>
       <c r="I33" s="3">
-        <v>875000</v>
+        <v>243600</v>
       </c>
       <c r="J33" s="3">
+        <v>842800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-676800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-56300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-45500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-46600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-178200</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>177900</v>
+        <v>492200</v>
       </c>
       <c r="E35" s="3">
-        <v>-17000</v>
+        <v>171300</v>
       </c>
       <c r="F35" s="3">
-        <v>-66000</v>
+        <v>-16400</v>
       </c>
       <c r="G35" s="3">
-        <v>-275700</v>
+        <v>-63500</v>
       </c>
       <c r="H35" s="3">
-        <v>253000</v>
+        <v>-265500</v>
       </c>
       <c r="I35" s="3">
-        <v>875000</v>
+        <v>243600</v>
       </c>
       <c r="J35" s="3">
+        <v>842800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-676800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-56300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-45500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-46600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-178200</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="E41" s="3">
-        <v>3400</v>
+        <v>1200</v>
       </c>
       <c r="F41" s="3">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="G41" s="3">
-        <v>14500</v>
+        <v>4400</v>
       </c>
       <c r="H41" s="3">
-        <v>92600</v>
+        <v>14000</v>
       </c>
       <c r="I41" s="3">
-        <v>466900</v>
+        <v>89200</v>
       </c>
       <c r="J41" s="3">
+        <v>449800</v>
+      </c>
+      <c r="K41" s="3">
         <v>9000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>110400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,17 +1960,17 @@
       <c r="F42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>89300</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>86000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>24</v>
@@ -1895,48 +1984,54 @@
       <c r="N42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>106500</v>
+        <v>161400</v>
       </c>
       <c r="E43" s="3">
-        <v>75100</v>
+        <v>102600</v>
       </c>
       <c r="F43" s="3">
-        <v>89100</v>
+        <v>72300</v>
       </c>
       <c r="G43" s="3">
-        <v>91100</v>
+        <v>85800</v>
       </c>
       <c r="H43" s="3">
-        <v>127900</v>
+        <v>87700</v>
       </c>
       <c r="I43" s="3">
-        <v>17900</v>
+        <v>123200</v>
       </c>
       <c r="J43" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K43" s="3">
         <v>36600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>44800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,204 +2068,222 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9800</v>
+        <v>202900</v>
       </c>
       <c r="E45" s="3">
-        <v>7800</v>
+        <v>9500</v>
       </c>
       <c r="F45" s="3">
-        <v>12800</v>
+        <v>7500</v>
       </c>
       <c r="G45" s="3">
-        <v>55600</v>
+        <v>12300</v>
       </c>
       <c r="H45" s="3">
-        <v>6800</v>
+        <v>53600</v>
       </c>
       <c r="I45" s="3">
-        <v>1300</v>
+        <v>6500</v>
       </c>
       <c r="J45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K45" s="3">
         <v>34000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>46700</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>117700</v>
+        <v>366100</v>
       </c>
       <c r="E46" s="3">
-        <v>86300</v>
+        <v>113300</v>
       </c>
       <c r="F46" s="3">
-        <v>106400</v>
+        <v>83100</v>
       </c>
       <c r="G46" s="3">
-        <v>161200</v>
+        <v>102500</v>
       </c>
       <c r="H46" s="3">
-        <v>227300</v>
+        <v>155300</v>
       </c>
       <c r="I46" s="3">
-        <v>575500</v>
+        <v>218900</v>
       </c>
       <c r="J46" s="3">
+        <v>554300</v>
+      </c>
+      <c r="K46" s="3">
         <v>79500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>63000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>146400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>99800</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>279800</v>
+        <v>402900</v>
       </c>
       <c r="E47" s="3">
-        <v>113800</v>
+        <v>269500</v>
       </c>
       <c r="F47" s="3">
-        <v>121400</v>
+        <v>109600</v>
       </c>
       <c r="G47" s="3">
-        <v>174000</v>
+        <v>116900</v>
       </c>
       <c r="H47" s="3">
-        <v>40000</v>
+        <v>167600</v>
       </c>
       <c r="I47" s="3">
-        <v>81300</v>
+        <v>38600</v>
       </c>
       <c r="J47" s="3">
+        <v>78300</v>
+      </c>
+      <c r="K47" s="3">
         <v>89400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>145500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>192400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>164700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>196200</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2109600</v>
+        <v>2127700</v>
       </c>
       <c r="E48" s="3">
-        <v>1931000</v>
+        <v>2032000</v>
       </c>
       <c r="F48" s="3">
-        <v>1925600</v>
+        <v>1859900</v>
       </c>
       <c r="G48" s="3">
-        <v>2176100</v>
+        <v>1854700</v>
       </c>
       <c r="H48" s="3">
-        <v>2658400</v>
+        <v>2096000</v>
       </c>
       <c r="I48" s="3">
-        <v>889200</v>
+        <v>2560600</v>
       </c>
       <c r="J48" s="3">
+        <v>856500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1800600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2147900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1541900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1116800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>921400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>24</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>2300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2400</v>
       </c>
       <c r="M49" s="3">
         <v>2400</v>
       </c>
       <c r="N49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O49" s="3">
         <v>2600</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>410100</v>
+        <v>240100</v>
       </c>
       <c r="E52" s="3">
-        <v>494700</v>
+        <v>395000</v>
       </c>
       <c r="F52" s="3">
-        <v>498200</v>
+        <v>476500</v>
       </c>
       <c r="G52" s="3">
-        <v>580800</v>
+        <v>479800</v>
       </c>
       <c r="H52" s="3">
-        <v>438600</v>
+        <v>559500</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>422400</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>116300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>135900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>107400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>103200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>105700</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2917200</v>
+        <v>3136800</v>
       </c>
       <c r="E54" s="3">
-        <v>2625800</v>
+        <v>2809800</v>
       </c>
       <c r="F54" s="3">
-        <v>2651500</v>
+        <v>2529100</v>
       </c>
       <c r="G54" s="3">
-        <v>3092100</v>
+        <v>2553900</v>
       </c>
       <c r="H54" s="3">
-        <v>3364300</v>
+        <v>2978300</v>
       </c>
       <c r="I54" s="3">
-        <v>1546000</v>
+        <v>3240500</v>
       </c>
       <c r="J54" s="3">
+        <v>1489100</v>
+      </c>
+      <c r="K54" s="3">
         <v>2088200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2511700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1884400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1533400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1325700</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>157600</v>
+        <v>161100</v>
       </c>
       <c r="E57" s="3">
-        <v>106000</v>
+        <v>151800</v>
       </c>
       <c r="F57" s="3">
-        <v>133700</v>
+        <v>102100</v>
       </c>
       <c r="G57" s="3">
-        <v>140900</v>
+        <v>128800</v>
       </c>
       <c r="H57" s="3">
-        <v>166600</v>
+        <v>135700</v>
       </c>
       <c r="I57" s="3">
-        <v>60700</v>
+        <v>160500</v>
       </c>
       <c r="J57" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K57" s="3">
         <v>73500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>198100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>147600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>127600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>93400</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7500</v>
+        <v>2200</v>
       </c>
       <c r="E58" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="F58" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>24</v>
+        <v>7200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>7100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>75800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>64000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>58200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>30600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>17500</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27100</v>
+        <v>40900</v>
       </c>
       <c r="E59" s="3">
-        <v>49600</v>
+        <v>26100</v>
       </c>
       <c r="F59" s="3">
-        <v>44200</v>
+        <v>47800</v>
       </c>
       <c r="G59" s="3">
-        <v>56700</v>
+        <v>42600</v>
       </c>
       <c r="H59" s="3">
-        <v>46800</v>
+        <v>54700</v>
       </c>
       <c r="I59" s="3">
-        <v>99700</v>
+        <v>45100</v>
       </c>
       <c r="J59" s="3">
+        <v>96000</v>
+      </c>
+      <c r="K59" s="3">
         <v>7300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>23900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>192200</v>
+        <v>204200</v>
       </c>
       <c r="E60" s="3">
-        <v>163100</v>
+        <v>185100</v>
       </c>
       <c r="F60" s="3">
-        <v>185400</v>
+        <v>157100</v>
       </c>
       <c r="G60" s="3">
-        <v>197600</v>
+        <v>178500</v>
       </c>
       <c r="H60" s="3">
-        <v>213400</v>
+        <v>190400</v>
       </c>
       <c r="I60" s="3">
-        <v>160400</v>
+        <v>205600</v>
       </c>
       <c r="J60" s="3">
+        <v>154500</v>
+      </c>
+      <c r="K60" s="3">
         <v>156600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>273500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>225600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>169100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>134800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>292000</v>
+        <v>126100</v>
       </c>
       <c r="E61" s="3">
-        <v>619600</v>
+        <v>281300</v>
       </c>
       <c r="F61" s="3">
-        <v>491100</v>
+        <v>596800</v>
       </c>
       <c r="G61" s="3">
-        <v>612000</v>
+        <v>473100</v>
       </c>
       <c r="H61" s="3">
-        <v>526900</v>
+        <v>589400</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>507500</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1314200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>950200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>679400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>497400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>328200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>475900</v>
+        <v>363300</v>
       </c>
       <c r="E62" s="3">
-        <v>312900</v>
+        <v>458400</v>
       </c>
       <c r="F62" s="3">
-        <v>410800</v>
+        <v>301400</v>
       </c>
       <c r="G62" s="3">
-        <v>592700</v>
+        <v>395700</v>
       </c>
       <c r="H62" s="3">
-        <v>622000</v>
+        <v>570900</v>
       </c>
       <c r="I62" s="3">
-        <v>158100</v>
+        <v>599100</v>
       </c>
       <c r="J62" s="3">
+        <v>152300</v>
+      </c>
+      <c r="K62" s="3">
         <v>205400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>225600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>184600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>226200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>229900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>960100</v>
+        <v>693700</v>
       </c>
       <c r="E66" s="3">
-        <v>1095700</v>
+        <v>924800</v>
       </c>
       <c r="F66" s="3">
-        <v>1087300</v>
+        <v>1055300</v>
       </c>
       <c r="G66" s="3">
-        <v>1402300</v>
+        <v>1047300</v>
       </c>
       <c r="H66" s="3">
-        <v>1362300</v>
+        <v>1350700</v>
       </c>
       <c r="I66" s="3">
-        <v>318500</v>
+        <v>1312200</v>
       </c>
       <c r="J66" s="3">
+        <v>306800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1676200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1449300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1089700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>892700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>692800</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11600</v>
+        <v>374300</v>
       </c>
       <c r="E72" s="3">
-        <v>-176500</v>
+        <v>-11200</v>
       </c>
       <c r="F72" s="3">
-        <v>-96500</v>
+        <v>-170000</v>
       </c>
       <c r="G72" s="3">
-        <v>15900</v>
+        <v>-92900</v>
       </c>
       <c r="H72" s="3">
-        <v>204900</v>
+        <v>15300</v>
       </c>
       <c r="I72" s="3">
-        <v>-114300</v>
+        <v>197400</v>
       </c>
       <c r="J72" s="3">
+        <v>-110100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-899300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-232600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-172900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-124600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-79600</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1957000</v>
+        <v>2443100</v>
       </c>
       <c r="E76" s="3">
-        <v>1530100</v>
+        <v>1885000</v>
       </c>
       <c r="F76" s="3">
-        <v>1564200</v>
+        <v>1473800</v>
       </c>
       <c r="G76" s="3">
-        <v>1689800</v>
+        <v>1506600</v>
       </c>
       <c r="H76" s="3">
-        <v>2002000</v>
+        <v>1627600</v>
       </c>
       <c r="I76" s="3">
-        <v>1227500</v>
+        <v>1928300</v>
       </c>
       <c r="J76" s="3">
+        <v>1182300</v>
+      </c>
+      <c r="K76" s="3">
         <v>412000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1062400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>794600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>640700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>632900</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>177900</v>
+        <v>492200</v>
       </c>
       <c r="E81" s="3">
-        <v>-17000</v>
+        <v>171300</v>
       </c>
       <c r="F81" s="3">
-        <v>-66000</v>
+        <v>-16400</v>
       </c>
       <c r="G81" s="3">
-        <v>-275700</v>
+        <v>-63500</v>
       </c>
       <c r="H81" s="3">
-        <v>253000</v>
+        <v>-265500</v>
       </c>
       <c r="I81" s="3">
-        <v>875000</v>
+        <v>243600</v>
       </c>
       <c r="J81" s="3">
+        <v>842800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-676800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-56300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-45500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-46600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-178200</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99900</v>
+        <v>206800</v>
       </c>
       <c r="E83" s="3">
-        <v>84100</v>
+        <v>96300</v>
       </c>
       <c r="F83" s="3">
-        <v>273900</v>
+        <v>81000</v>
       </c>
       <c r="G83" s="3">
-        <v>733800</v>
+        <v>263800</v>
       </c>
       <c r="H83" s="3">
-        <v>286400</v>
+        <v>706800</v>
       </c>
       <c r="I83" s="3">
-        <v>57400</v>
+        <v>275900</v>
       </c>
       <c r="J83" s="3">
+        <v>55300</v>
+      </c>
+      <c r="K83" s="3">
         <v>468500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>180400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>117700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>213900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>284200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>362000</v>
+        <v>759100</v>
       </c>
       <c r="E89" s="3">
-        <v>60800</v>
+        <v>348700</v>
       </c>
       <c r="F89" s="3">
-        <v>192000</v>
+        <v>58500</v>
       </c>
       <c r="G89" s="3">
-        <v>167800</v>
+        <v>184900</v>
       </c>
       <c r="H89" s="3">
-        <v>94800</v>
+        <v>161600</v>
       </c>
       <c r="I89" s="3">
-        <v>34400</v>
+        <v>91300</v>
       </c>
       <c r="J89" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K89" s="3">
         <v>63300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>93000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>34600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>65300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-210200</v>
+        <v>-579200</v>
       </c>
       <c r="E91" s="3">
-        <v>-166100</v>
+        <v>-202500</v>
       </c>
       <c r="F91" s="3">
-        <v>-303400</v>
+        <v>-160000</v>
       </c>
       <c r="G91" s="3">
-        <v>-435700</v>
+        <v>-292300</v>
       </c>
       <c r="H91" s="3">
-        <v>-409300</v>
+        <v>-419600</v>
       </c>
       <c r="I91" s="3">
-        <v>-150900</v>
+        <v>-394200</v>
       </c>
       <c r="J91" s="3">
+        <v>-145400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-370900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-739100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-566700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-469500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-403500</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-38800</v>
+        <v>-473000</v>
       </c>
       <c r="E94" s="3">
-        <v>-187700</v>
+        <v>-37400</v>
       </c>
       <c r="F94" s="3">
-        <v>-74000</v>
+        <v>-180800</v>
       </c>
       <c r="G94" s="3">
-        <v>-278900</v>
+        <v>-71200</v>
       </c>
       <c r="H94" s="3">
-        <v>-642200</v>
+        <v>-268600</v>
       </c>
       <c r="I94" s="3">
-        <v>1376600</v>
+        <v>-618500</v>
       </c>
       <c r="J94" s="3">
+        <v>1326000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-465400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-623000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-232500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-373900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,16 +3990,17 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-20600</v>
+        <v>-116000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-19800</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-325300</v>
+        <v>-284400</v>
       </c>
       <c r="E100" s="3">
-        <v>126400</v>
+        <v>-313400</v>
       </c>
       <c r="F100" s="3">
-        <v>-127800</v>
+        <v>121800</v>
       </c>
       <c r="G100" s="3">
-        <v>31200</v>
+        <v>-123100</v>
       </c>
       <c r="H100" s="3">
-        <v>174100</v>
+        <v>30100</v>
       </c>
       <c r="I100" s="3">
-        <v>-952800</v>
+        <v>167700</v>
       </c>
       <c r="J100" s="3">
+        <v>-917700</v>
+      </c>
+      <c r="K100" s="3">
         <v>394700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>535900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>360700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>280100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>273500</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2200</v>
+        <v>600</v>
       </c>
       <c r="E102" s="3">
-        <v>-1100</v>
+        <v>-2100</v>
       </c>
       <c r="F102" s="3">
-        <v>-10000</v>
+        <v>-1000</v>
       </c>
       <c r="G102" s="3">
-        <v>-78100</v>
+        <v>-9600</v>
       </c>
       <c r="H102" s="3">
-        <v>-374300</v>
+        <v>-75200</v>
       </c>
       <c r="I102" s="3">
-        <v>458000</v>
+        <v>-360600</v>
       </c>
       <c r="J102" s="3">
+        <v>441100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-104700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>88600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-35100</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1583200</v>
+        <v>1621600</v>
       </c>
       <c r="E8" s="3">
-        <v>771100</v>
+        <v>789800</v>
       </c>
       <c r="F8" s="3">
-        <v>436500</v>
+        <v>447100</v>
       </c>
       <c r="G8" s="3">
-        <v>583200</v>
+        <v>597300</v>
       </c>
       <c r="H8" s="3">
-        <v>653300</v>
+        <v>669100</v>
       </c>
       <c r="I8" s="3">
-        <v>334600</v>
+        <v>342800</v>
       </c>
       <c r="J8" s="3">
-        <v>178500</v>
+        <v>182900</v>
       </c>
       <c r="K8" s="3">
         <v>314700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>383900</v>
+        <v>393200</v>
       </c>
       <c r="E9" s="3">
-        <v>329000</v>
+        <v>337000</v>
       </c>
       <c r="F9" s="3">
-        <v>288100</v>
+        <v>295100</v>
       </c>
       <c r="G9" s="3">
-        <v>340400</v>
+        <v>348600</v>
       </c>
       <c r="H9" s="3">
-        <v>342800</v>
+        <v>351100</v>
       </c>
       <c r="I9" s="3">
-        <v>156900</v>
+        <v>160700</v>
       </c>
       <c r="J9" s="3">
-        <v>111000</v>
+        <v>113700</v>
       </c>
       <c r="K9" s="3">
         <v>117000</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1199300</v>
+        <v>1228400</v>
       </c>
       <c r="E10" s="3">
-        <v>442100</v>
+        <v>452800</v>
       </c>
       <c r="F10" s="3">
-        <v>148400</v>
+        <v>152000</v>
       </c>
       <c r="G10" s="3">
-        <v>242800</v>
+        <v>248700</v>
       </c>
       <c r="H10" s="3">
-        <v>310500</v>
+        <v>318000</v>
       </c>
       <c r="I10" s="3">
-        <v>177800</v>
+        <v>182100</v>
       </c>
       <c r="J10" s="3">
-        <v>67500</v>
+        <v>69200</v>
       </c>
       <c r="K10" s="3">
         <v>197800</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>22100</v>
+        <v>22700</v>
       </c>
       <c r="E12" s="3">
-        <v>28100</v>
+        <v>28800</v>
       </c>
       <c r="F12" s="3">
-        <v>24600</v>
+        <v>25200</v>
       </c>
       <c r="G12" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="H12" s="3">
-        <v>19700</v>
+        <v>20200</v>
       </c>
       <c r="I12" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="J12" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="K12" s="3">
         <v>15900</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-15800</v>
+        <v>-16200</v>
       </c>
       <c r="E14" s="3">
-        <v>-185900</v>
+        <v>-190400</v>
       </c>
       <c r="F14" s="3">
-        <v>-97000</v>
+        <v>-99400</v>
       </c>
       <c r="G14" s="3">
         <v>3500</v>
       </c>
       <c r="H14" s="3">
-        <v>365200</v>
+        <v>374100</v>
       </c>
       <c r="I14" s="3">
-        <v>-51100</v>
+        <v>-52400</v>
       </c>
       <c r="J14" s="3">
-        <v>-66200</v>
+        <v>-67800</v>
       </c>
       <c r="K14" s="3">
         <v>406700</v>
@@ -996,25 +996,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>242900</v>
+        <v>248700</v>
       </c>
       <c r="E15" s="3">
-        <v>217300</v>
+        <v>222600</v>
       </c>
       <c r="F15" s="3">
-        <v>183600</v>
+        <v>188100</v>
       </c>
       <c r="G15" s="3">
-        <v>263800</v>
+        <v>270200</v>
       </c>
       <c r="H15" s="3">
-        <v>343300</v>
+        <v>351700</v>
       </c>
       <c r="I15" s="3">
-        <v>218400</v>
+        <v>223600</v>
       </c>
       <c r="J15" s="3">
-        <v>156300</v>
+        <v>160100</v>
       </c>
       <c r="K15" s="3">
         <v>274500</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>961100</v>
+        <v>984400</v>
       </c>
       <c r="E17" s="3">
-        <v>538400</v>
+        <v>551500</v>
       </c>
       <c r="F17" s="3">
-        <v>443300</v>
+        <v>454100</v>
       </c>
       <c r="G17" s="3">
-        <v>555300</v>
+        <v>568800</v>
       </c>
       <c r="H17" s="3">
-        <v>1064800</v>
+        <v>1090600</v>
       </c>
       <c r="I17" s="3">
-        <v>195100</v>
+        <v>199900</v>
       </c>
       <c r="J17" s="3">
-        <v>-787200</v>
+        <v>-806300</v>
       </c>
       <c r="K17" s="3">
         <v>986100</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>622100</v>
+        <v>637200</v>
       </c>
       <c r="E18" s="3">
-        <v>232700</v>
+        <v>238300</v>
       </c>
       <c r="F18" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="G18" s="3">
-        <v>27900</v>
+        <v>28500</v>
       </c>
       <c r="H18" s="3">
-        <v>-411500</v>
+        <v>-421500</v>
       </c>
       <c r="I18" s="3">
-        <v>139500</v>
+        <v>142900</v>
       </c>
       <c r="J18" s="3">
-        <v>965700</v>
+        <v>989100</v>
       </c>
       <c r="K18" s="3">
         <v>-671400</v>
@@ -1164,16 +1164,16 @@
         <v>-2200</v>
       </c>
       <c r="G20" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="H20" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="I20" s="3">
-        <v>44800</v>
+        <v>45900</v>
       </c>
       <c r="J20" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="K20" s="3">
         <v>-14700</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>833400</v>
+        <v>854000</v>
       </c>
       <c r="E21" s="3">
-        <v>329700</v>
+        <v>337800</v>
       </c>
       <c r="F21" s="3">
-        <v>72200</v>
+        <v>74100</v>
       </c>
       <c r="G21" s="3">
-        <v>281900</v>
+        <v>289300</v>
       </c>
       <c r="H21" s="3">
-        <v>302500</v>
+        <v>311300</v>
       </c>
       <c r="I21" s="3">
-        <v>460700</v>
+        <v>472400</v>
       </c>
       <c r="J21" s="3">
-        <v>1011000</v>
+        <v>1035600</v>
       </c>
       <c r="K21" s="3">
         <v>-224900</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>626200</v>
+        <v>641300</v>
       </c>
       <c r="E23" s="3">
-        <v>233200</v>
+        <v>238900</v>
       </c>
       <c r="F23" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="G23" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="H23" s="3">
-        <v>-405400</v>
+        <v>-415300</v>
       </c>
       <c r="I23" s="3">
-        <v>184300</v>
+        <v>188800</v>
       </c>
       <c r="J23" s="3">
-        <v>955600</v>
+        <v>978800</v>
       </c>
       <c r="K23" s="3">
         <v>-686100</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>133900</v>
+        <v>137200</v>
       </c>
       <c r="E24" s="3">
-        <v>61900</v>
+        <v>63400</v>
       </c>
       <c r="F24" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="G24" s="3">
-        <v>81200</v>
+        <v>83200</v>
       </c>
       <c r="H24" s="3">
-        <v>-139900</v>
+        <v>-143300</v>
       </c>
       <c r="I24" s="3">
-        <v>-59300</v>
+        <v>-60800</v>
       </c>
       <c r="J24" s="3">
-        <v>112900</v>
+        <v>115600</v>
       </c>
       <c r="K24" s="3">
         <v>-9400</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>492200</v>
+        <v>504100</v>
       </c>
       <c r="E26" s="3">
-        <v>171300</v>
+        <v>175500</v>
       </c>
       <c r="F26" s="3">
-        <v>-16400</v>
+        <v>-16800</v>
       </c>
       <c r="G26" s="3">
-        <v>-63500</v>
+        <v>-65100</v>
       </c>
       <c r="H26" s="3">
-        <v>-265500</v>
+        <v>-272000</v>
       </c>
       <c r="I26" s="3">
-        <v>243600</v>
+        <v>249600</v>
       </c>
       <c r="J26" s="3">
-        <v>842800</v>
+        <v>863200</v>
       </c>
       <c r="K26" s="3">
         <v>-676800</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>492200</v>
+        <v>504100</v>
       </c>
       <c r="E27" s="3">
-        <v>171300</v>
+        <v>175500</v>
       </c>
       <c r="F27" s="3">
-        <v>-16400</v>
+        <v>-16800</v>
       </c>
       <c r="G27" s="3">
-        <v>-63500</v>
+        <v>-65100</v>
       </c>
       <c r="H27" s="3">
-        <v>-265500</v>
+        <v>-272000</v>
       </c>
       <c r="I27" s="3">
-        <v>243600</v>
+        <v>249600</v>
       </c>
       <c r="J27" s="3">
-        <v>842800</v>
+        <v>863200</v>
       </c>
       <c r="K27" s="3">
         <v>-676800</v>
@@ -1668,16 +1668,16 @@
         <v>2200</v>
       </c>
       <c r="G32" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="H32" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="I32" s="3">
-        <v>-44800</v>
+        <v>-45900</v>
       </c>
       <c r="J32" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="K32" s="3">
         <v>14700</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>492200</v>
+        <v>504100</v>
       </c>
       <c r="E33" s="3">
-        <v>171300</v>
+        <v>175500</v>
       </c>
       <c r="F33" s="3">
-        <v>-16400</v>
+        <v>-16800</v>
       </c>
       <c r="G33" s="3">
-        <v>-63500</v>
+        <v>-65100</v>
       </c>
       <c r="H33" s="3">
-        <v>-265500</v>
+        <v>-272000</v>
       </c>
       <c r="I33" s="3">
-        <v>243600</v>
+        <v>249600</v>
       </c>
       <c r="J33" s="3">
-        <v>842800</v>
+        <v>863200</v>
       </c>
       <c r="K33" s="3">
         <v>-676800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>492200</v>
+        <v>504100</v>
       </c>
       <c r="E35" s="3">
-        <v>171300</v>
+        <v>175500</v>
       </c>
       <c r="F35" s="3">
-        <v>-16400</v>
+        <v>-16800</v>
       </c>
       <c r="G35" s="3">
-        <v>-63500</v>
+        <v>-65100</v>
       </c>
       <c r="H35" s="3">
-        <v>-265500</v>
+        <v>-272000</v>
       </c>
       <c r="I35" s="3">
-        <v>243600</v>
+        <v>249600</v>
       </c>
       <c r="J35" s="3">
-        <v>842800</v>
+        <v>863200</v>
       </c>
       <c r="K35" s="3">
         <v>-676800</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E41" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F41" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G41" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H41" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="I41" s="3">
-        <v>89200</v>
+        <v>91400</v>
       </c>
       <c r="J41" s="3">
-        <v>449800</v>
+        <v>460600</v>
       </c>
       <c r="K41" s="3">
         <v>9000</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>86000</v>
+        <v>88100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>24</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>161400</v>
+        <v>165300</v>
       </c>
       <c r="E43" s="3">
-        <v>102600</v>
+        <v>105100</v>
       </c>
       <c r="F43" s="3">
-        <v>72300</v>
+        <v>74100</v>
       </c>
       <c r="G43" s="3">
-        <v>85800</v>
+        <v>87900</v>
       </c>
       <c r="H43" s="3">
-        <v>87700</v>
+        <v>89900</v>
       </c>
       <c r="I43" s="3">
-        <v>123200</v>
+        <v>126200</v>
       </c>
       <c r="J43" s="3">
-        <v>17300</v>
+        <v>17700</v>
       </c>
       <c r="K43" s="3">
         <v>36600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>202900</v>
+        <v>207800</v>
       </c>
       <c r="E45" s="3">
-        <v>9500</v>
+        <v>9700</v>
       </c>
       <c r="F45" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="G45" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="H45" s="3">
-        <v>53600</v>
+        <v>54900</v>
       </c>
       <c r="I45" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="J45" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K45" s="3">
         <v>34000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>366100</v>
+        <v>375000</v>
       </c>
       <c r="E46" s="3">
-        <v>113300</v>
+        <v>116100</v>
       </c>
       <c r="F46" s="3">
-        <v>83100</v>
+        <v>85100</v>
       </c>
       <c r="G46" s="3">
-        <v>102500</v>
+        <v>105000</v>
       </c>
       <c r="H46" s="3">
-        <v>155300</v>
+        <v>159000</v>
       </c>
       <c r="I46" s="3">
-        <v>218900</v>
+        <v>224200</v>
       </c>
       <c r="J46" s="3">
-        <v>554300</v>
+        <v>567700</v>
       </c>
       <c r="K46" s="3">
         <v>79500</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>402900</v>
+        <v>412700</v>
       </c>
       <c r="E47" s="3">
-        <v>269500</v>
+        <v>276000</v>
       </c>
       <c r="F47" s="3">
-        <v>109600</v>
+        <v>112200</v>
       </c>
       <c r="G47" s="3">
-        <v>116900</v>
+        <v>119700</v>
       </c>
       <c r="H47" s="3">
-        <v>167600</v>
+        <v>171700</v>
       </c>
       <c r="I47" s="3">
-        <v>38600</v>
+        <v>39500</v>
       </c>
       <c r="J47" s="3">
-        <v>78300</v>
+        <v>80200</v>
       </c>
       <c r="K47" s="3">
         <v>89400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2127700</v>
+        <v>2179300</v>
       </c>
       <c r="E48" s="3">
-        <v>2032000</v>
+        <v>2081200</v>
       </c>
       <c r="F48" s="3">
-        <v>1859900</v>
+        <v>1905000</v>
       </c>
       <c r="G48" s="3">
-        <v>1854700</v>
+        <v>1899600</v>
       </c>
       <c r="H48" s="3">
-        <v>2096000</v>
+        <v>2146700</v>
       </c>
       <c r="I48" s="3">
-        <v>2560600</v>
+        <v>2622600</v>
       </c>
       <c r="J48" s="3">
-        <v>856500</v>
+        <v>877200</v>
       </c>
       <c r="K48" s="3">
         <v>1800600</v>
@@ -2372,22 +2372,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>240100</v>
+        <v>245900</v>
       </c>
       <c r="E52" s="3">
-        <v>395000</v>
+        <v>404600</v>
       </c>
       <c r="F52" s="3">
-        <v>476500</v>
+        <v>488000</v>
       </c>
       <c r="G52" s="3">
-        <v>479800</v>
+        <v>491500</v>
       </c>
       <c r="H52" s="3">
-        <v>559500</v>
+        <v>573000</v>
       </c>
       <c r="I52" s="3">
-        <v>422400</v>
+        <v>432600</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3136800</v>
+        <v>3212800</v>
       </c>
       <c r="E54" s="3">
-        <v>2809800</v>
+        <v>2877800</v>
       </c>
       <c r="F54" s="3">
-        <v>2529100</v>
+        <v>2590400</v>
       </c>
       <c r="G54" s="3">
-        <v>2553900</v>
+        <v>2615800</v>
       </c>
       <c r="H54" s="3">
-        <v>2978300</v>
+        <v>3050400</v>
       </c>
       <c r="I54" s="3">
-        <v>3240500</v>
+        <v>3319000</v>
       </c>
       <c r="J54" s="3">
-        <v>1489100</v>
+        <v>1525200</v>
       </c>
       <c r="K54" s="3">
         <v>2088200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>161100</v>
+        <v>165000</v>
       </c>
       <c r="E57" s="3">
-        <v>151800</v>
+        <v>155500</v>
       </c>
       <c r="F57" s="3">
-        <v>102100</v>
+        <v>104600</v>
       </c>
       <c r="G57" s="3">
-        <v>128800</v>
+        <v>131900</v>
       </c>
       <c r="H57" s="3">
-        <v>135700</v>
+        <v>139000</v>
       </c>
       <c r="I57" s="3">
-        <v>160500</v>
+        <v>164400</v>
       </c>
       <c r="J57" s="3">
-        <v>58500</v>
+        <v>59900</v>
       </c>
       <c r="K57" s="3">
         <v>73500</v>
@@ -2579,13 +2579,13 @@
         <v>2200</v>
       </c>
       <c r="E58" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F58" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="G58" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>24</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>40900</v>
+        <v>41900</v>
       </c>
       <c r="E59" s="3">
-        <v>26100</v>
+        <v>26700</v>
       </c>
       <c r="F59" s="3">
-        <v>47800</v>
+        <v>48900</v>
       </c>
       <c r="G59" s="3">
-        <v>42600</v>
+        <v>43600</v>
       </c>
       <c r="H59" s="3">
-        <v>54700</v>
+        <v>56000</v>
       </c>
       <c r="I59" s="3">
-        <v>45100</v>
+        <v>46200</v>
       </c>
       <c r="J59" s="3">
-        <v>96000</v>
+        <v>98300</v>
       </c>
       <c r="K59" s="3">
         <v>7300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>204200</v>
+        <v>209200</v>
       </c>
       <c r="E60" s="3">
-        <v>185100</v>
+        <v>189600</v>
       </c>
       <c r="F60" s="3">
-        <v>157100</v>
+        <v>160900</v>
       </c>
       <c r="G60" s="3">
-        <v>178500</v>
+        <v>182900</v>
       </c>
       <c r="H60" s="3">
-        <v>190400</v>
+        <v>195000</v>
       </c>
       <c r="I60" s="3">
-        <v>205600</v>
+        <v>210500</v>
       </c>
       <c r="J60" s="3">
-        <v>154500</v>
+        <v>158300</v>
       </c>
       <c r="K60" s="3">
         <v>156600</v>
@@ -2702,22 +2702,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>126100</v>
+        <v>129200</v>
       </c>
       <c r="E61" s="3">
-        <v>281300</v>
+        <v>288100</v>
       </c>
       <c r="F61" s="3">
-        <v>596800</v>
+        <v>611300</v>
       </c>
       <c r="G61" s="3">
-        <v>473100</v>
+        <v>484500</v>
       </c>
       <c r="H61" s="3">
-        <v>589400</v>
+        <v>603700</v>
       </c>
       <c r="I61" s="3">
-        <v>507500</v>
+        <v>519800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>363300</v>
+        <v>372100</v>
       </c>
       <c r="E62" s="3">
-        <v>458400</v>
+        <v>469500</v>
       </c>
       <c r="F62" s="3">
-        <v>301400</v>
+        <v>308700</v>
       </c>
       <c r="G62" s="3">
-        <v>395700</v>
+        <v>405300</v>
       </c>
       <c r="H62" s="3">
-        <v>570900</v>
+        <v>584700</v>
       </c>
       <c r="I62" s="3">
-        <v>599100</v>
+        <v>613600</v>
       </c>
       <c r="J62" s="3">
-        <v>152300</v>
+        <v>156000</v>
       </c>
       <c r="K62" s="3">
         <v>205400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>693700</v>
+        <v>710500</v>
       </c>
       <c r="E66" s="3">
-        <v>924800</v>
+        <v>947200</v>
       </c>
       <c r="F66" s="3">
-        <v>1055300</v>
+        <v>1080900</v>
       </c>
       <c r="G66" s="3">
-        <v>1047300</v>
+        <v>1072700</v>
       </c>
       <c r="H66" s="3">
-        <v>1350700</v>
+        <v>1383400</v>
       </c>
       <c r="I66" s="3">
-        <v>1312200</v>
+        <v>1343900</v>
       </c>
       <c r="J66" s="3">
-        <v>306800</v>
+        <v>314200</v>
       </c>
       <c r="K66" s="3">
         <v>1676200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>374300</v>
+        <v>383400</v>
       </c>
       <c r="E72" s="3">
-        <v>-11200</v>
+        <v>-11500</v>
       </c>
       <c r="F72" s="3">
-        <v>-170000</v>
+        <v>-174100</v>
       </c>
       <c r="G72" s="3">
-        <v>-92900</v>
+        <v>-95200</v>
       </c>
       <c r="H72" s="3">
-        <v>15300</v>
+        <v>15700</v>
       </c>
       <c r="I72" s="3">
-        <v>197400</v>
+        <v>202200</v>
       </c>
       <c r="J72" s="3">
-        <v>-110100</v>
+        <v>-112700</v>
       </c>
       <c r="K72" s="3">
         <v>-899300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2443100</v>
+        <v>2502300</v>
       </c>
       <c r="E76" s="3">
-        <v>1885000</v>
+        <v>1930700</v>
       </c>
       <c r="F76" s="3">
-        <v>1473800</v>
+        <v>1509500</v>
       </c>
       <c r="G76" s="3">
-        <v>1506600</v>
+        <v>1543100</v>
       </c>
       <c r="H76" s="3">
-        <v>1627600</v>
+        <v>1667100</v>
       </c>
       <c r="I76" s="3">
-        <v>1928300</v>
+        <v>1975000</v>
       </c>
       <c r="J76" s="3">
-        <v>1182300</v>
+        <v>1210900</v>
       </c>
       <c r="K76" s="3">
         <v>412000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>492200</v>
+        <v>504100</v>
       </c>
       <c r="E81" s="3">
-        <v>171300</v>
+        <v>175500</v>
       </c>
       <c r="F81" s="3">
-        <v>-16400</v>
+        <v>-16800</v>
       </c>
       <c r="G81" s="3">
-        <v>-63500</v>
+        <v>-65100</v>
       </c>
       <c r="H81" s="3">
-        <v>-265500</v>
+        <v>-272000</v>
       </c>
       <c r="I81" s="3">
-        <v>243600</v>
+        <v>249600</v>
       </c>
       <c r="J81" s="3">
-        <v>842800</v>
+        <v>863200</v>
       </c>
       <c r="K81" s="3">
         <v>-676800</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>206800</v>
+        <v>211900</v>
       </c>
       <c r="E83" s="3">
-        <v>96300</v>
+        <v>98600</v>
       </c>
       <c r="F83" s="3">
-        <v>81000</v>
+        <v>83000</v>
       </c>
       <c r="G83" s="3">
-        <v>263800</v>
+        <v>270200</v>
       </c>
       <c r="H83" s="3">
-        <v>706800</v>
+        <v>723900</v>
       </c>
       <c r="I83" s="3">
-        <v>275900</v>
+        <v>282600</v>
       </c>
       <c r="J83" s="3">
-        <v>55300</v>
+        <v>56600</v>
       </c>
       <c r="K83" s="3">
         <v>468500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>759100</v>
+        <v>777500</v>
       </c>
       <c r="E89" s="3">
-        <v>348700</v>
+        <v>357100</v>
       </c>
       <c r="F89" s="3">
-        <v>58500</v>
+        <v>59900</v>
       </c>
       <c r="G89" s="3">
-        <v>184900</v>
+        <v>189400</v>
       </c>
       <c r="H89" s="3">
-        <v>161600</v>
+        <v>165500</v>
       </c>
       <c r="I89" s="3">
-        <v>91300</v>
+        <v>93600</v>
       </c>
       <c r="J89" s="3">
-        <v>33100</v>
+        <v>33900</v>
       </c>
       <c r="K89" s="3">
         <v>63300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-579200</v>
+        <v>-593200</v>
       </c>
       <c r="E91" s="3">
-        <v>-202500</v>
+        <v>-207400</v>
       </c>
       <c r="F91" s="3">
-        <v>-160000</v>
+        <v>-163900</v>
       </c>
       <c r="G91" s="3">
-        <v>-292300</v>
+        <v>-299300</v>
       </c>
       <c r="H91" s="3">
-        <v>-419600</v>
+        <v>-429800</v>
       </c>
       <c r="I91" s="3">
-        <v>-394200</v>
+        <v>-403800</v>
       </c>
       <c r="J91" s="3">
-        <v>-145400</v>
+        <v>-148900</v>
       </c>
       <c r="K91" s="3">
         <v>-370900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-473000</v>
+        <v>-484400</v>
       </c>
       <c r="E94" s="3">
-        <v>-37400</v>
+        <v>-38300</v>
       </c>
       <c r="F94" s="3">
-        <v>-180800</v>
+        <v>-185200</v>
       </c>
       <c r="G94" s="3">
-        <v>-71200</v>
+        <v>-73000</v>
       </c>
       <c r="H94" s="3">
-        <v>-268600</v>
+        <v>-275200</v>
       </c>
       <c r="I94" s="3">
-        <v>-618500</v>
+        <v>-633500</v>
       </c>
       <c r="J94" s="3">
-        <v>1326000</v>
+        <v>1358100</v>
       </c>
       <c r="K94" s="3">
         <v>-465400</v>
@@ -3997,10 +3997,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-116000</v>
+        <v>-118800</v>
       </c>
       <c r="E96" s="3">
-        <v>-19800</v>
+        <v>-20300</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-284400</v>
+        <v>-291300</v>
       </c>
       <c r="E100" s="3">
-        <v>-313400</v>
+        <v>-321000</v>
       </c>
       <c r="F100" s="3">
-        <v>121800</v>
+        <v>124700</v>
       </c>
       <c r="G100" s="3">
-        <v>-123100</v>
+        <v>-126100</v>
       </c>
       <c r="H100" s="3">
-        <v>30100</v>
+        <v>30800</v>
       </c>
       <c r="I100" s="3">
-        <v>167700</v>
+        <v>171800</v>
       </c>
       <c r="J100" s="3">
-        <v>-917700</v>
+        <v>-939900</v>
       </c>
       <c r="K100" s="3">
         <v>394700</v>
@@ -4255,19 +4255,19 @@
         <v>-2100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G102" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="H102" s="3">
-        <v>-75200</v>
+        <v>-77100</v>
       </c>
       <c r="I102" s="3">
-        <v>-360600</v>
+        <v>-369300</v>
       </c>
       <c r="J102" s="3">
-        <v>441100</v>
+        <v>451800</v>
       </c>
       <c r="K102" s="3">
         <v>-4800</v>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1621600</v>
+        <v>1620700</v>
       </c>
       <c r="E8" s="3">
-        <v>789800</v>
+        <v>789400</v>
       </c>
       <c r="F8" s="3">
-        <v>447100</v>
+        <v>446900</v>
       </c>
       <c r="G8" s="3">
-        <v>597300</v>
+        <v>597000</v>
       </c>
       <c r="H8" s="3">
-        <v>669100</v>
+        <v>668800</v>
       </c>
       <c r="I8" s="3">
-        <v>342800</v>
+        <v>342600</v>
       </c>
       <c r="J8" s="3">
-        <v>182900</v>
+        <v>182800</v>
       </c>
       <c r="K8" s="3">
         <v>314700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>393200</v>
+        <v>393000</v>
       </c>
       <c r="E9" s="3">
-        <v>337000</v>
+        <v>336800</v>
       </c>
       <c r="F9" s="3">
-        <v>295100</v>
+        <v>294900</v>
       </c>
       <c r="G9" s="3">
-        <v>348600</v>
+        <v>348500</v>
       </c>
       <c r="H9" s="3">
-        <v>351100</v>
+        <v>350900</v>
       </c>
       <c r="I9" s="3">
-        <v>160700</v>
+        <v>160600</v>
       </c>
       <c r="J9" s="3">
-        <v>113700</v>
+        <v>113600</v>
       </c>
       <c r="K9" s="3">
         <v>117000</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1228400</v>
+        <v>1227700</v>
       </c>
       <c r="E10" s="3">
-        <v>452800</v>
+        <v>452600</v>
       </c>
       <c r="F10" s="3">
-        <v>152000</v>
+        <v>151900</v>
       </c>
       <c r="G10" s="3">
-        <v>248700</v>
+        <v>248600</v>
       </c>
       <c r="H10" s="3">
-        <v>318000</v>
+        <v>317900</v>
       </c>
       <c r="I10" s="3">
-        <v>182100</v>
+        <v>182000</v>
       </c>
       <c r="J10" s="3">
-        <v>69200</v>
+        <v>69100</v>
       </c>
       <c r="K10" s="3">
         <v>197800</v>
@@ -876,7 +876,7 @@
         <v>28800</v>
       </c>
       <c r="F12" s="3">
-        <v>25200</v>
+        <v>25100</v>
       </c>
       <c r="G12" s="3">
         <v>16600</v>
@@ -957,22 +957,22 @@
         <v>-16200</v>
       </c>
       <c r="E14" s="3">
-        <v>-190400</v>
+        <v>-190300</v>
       </c>
       <c r="F14" s="3">
-        <v>-99400</v>
+        <v>-99300</v>
       </c>
       <c r="G14" s="3">
         <v>3500</v>
       </c>
       <c r="H14" s="3">
-        <v>374100</v>
+        <v>373900</v>
       </c>
       <c r="I14" s="3">
         <v>-52400</v>
       </c>
       <c r="J14" s="3">
-        <v>-67800</v>
+        <v>-67700</v>
       </c>
       <c r="K14" s="3">
         <v>406700</v>
@@ -996,25 +996,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>248700</v>
+        <v>248600</v>
       </c>
       <c r="E15" s="3">
-        <v>222600</v>
+        <v>222500</v>
       </c>
       <c r="F15" s="3">
-        <v>188100</v>
+        <v>188000</v>
       </c>
       <c r="G15" s="3">
-        <v>270200</v>
+        <v>270100</v>
       </c>
       <c r="H15" s="3">
-        <v>351700</v>
+        <v>351500</v>
       </c>
       <c r="I15" s="3">
-        <v>223600</v>
+        <v>223500</v>
       </c>
       <c r="J15" s="3">
-        <v>160100</v>
+        <v>160000</v>
       </c>
       <c r="K15" s="3">
         <v>274500</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>984400</v>
+        <v>983900</v>
       </c>
       <c r="E17" s="3">
-        <v>551500</v>
+        <v>551200</v>
       </c>
       <c r="F17" s="3">
-        <v>454100</v>
+        <v>453900</v>
       </c>
       <c r="G17" s="3">
-        <v>568800</v>
+        <v>568500</v>
       </c>
       <c r="H17" s="3">
-        <v>1090600</v>
+        <v>1090100</v>
       </c>
       <c r="I17" s="3">
-        <v>199900</v>
+        <v>199800</v>
       </c>
       <c r="J17" s="3">
-        <v>-806300</v>
+        <v>-805800</v>
       </c>
       <c r="K17" s="3">
         <v>986100</v>
@@ -1095,10 +1095,10 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>637200</v>
+        <v>636900</v>
       </c>
       <c r="E18" s="3">
-        <v>238300</v>
+        <v>238200</v>
       </c>
       <c r="F18" s="3">
         <v>-7000</v>
@@ -1107,13 +1107,13 @@
         <v>28500</v>
       </c>
       <c r="H18" s="3">
-        <v>-421500</v>
+        <v>-421300</v>
       </c>
       <c r="I18" s="3">
-        <v>142900</v>
+        <v>142800</v>
       </c>
       <c r="J18" s="3">
-        <v>989100</v>
+        <v>988600</v>
       </c>
       <c r="K18" s="3">
         <v>-671400</v>
@@ -1164,10 +1164,10 @@
         <v>-2200</v>
       </c>
       <c r="G20" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="H20" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I20" s="3">
         <v>45900</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>854000</v>
+        <v>852700</v>
       </c>
       <c r="E21" s="3">
-        <v>337800</v>
+        <v>337300</v>
       </c>
       <c r="F21" s="3">
-        <v>74100</v>
+        <v>73700</v>
       </c>
       <c r="G21" s="3">
-        <v>289300</v>
+        <v>288100</v>
       </c>
       <c r="H21" s="3">
-        <v>311300</v>
+        <v>308500</v>
       </c>
       <c r="I21" s="3">
-        <v>472400</v>
+        <v>471100</v>
       </c>
       <c r="J21" s="3">
-        <v>1035600</v>
+        <v>1034900</v>
       </c>
       <c r="K21" s="3">
         <v>-224900</v>
@@ -1281,10 +1281,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>641300</v>
+        <v>641000</v>
       </c>
       <c r="E23" s="3">
-        <v>238900</v>
+        <v>238800</v>
       </c>
       <c r="F23" s="3">
         <v>-9200</v>
@@ -1293,13 +1293,13 @@
         <v>18100</v>
       </c>
       <c r="H23" s="3">
-        <v>-415300</v>
+        <v>-415000</v>
       </c>
       <c r="I23" s="3">
-        <v>188800</v>
+        <v>188700</v>
       </c>
       <c r="J23" s="3">
-        <v>978800</v>
+        <v>978300</v>
       </c>
       <c r="K23" s="3">
         <v>-686100</v>
@@ -1323,7 +1323,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>137200</v>
+        <v>137100</v>
       </c>
       <c r="E24" s="3">
         <v>63400</v>
@@ -1332,13 +1332,13 @@
         <v>7600</v>
       </c>
       <c r="G24" s="3">
-        <v>83200</v>
+        <v>83100</v>
       </c>
       <c r="H24" s="3">
-        <v>-143300</v>
+        <v>-143200</v>
       </c>
       <c r="I24" s="3">
-        <v>-60800</v>
+        <v>-60700</v>
       </c>
       <c r="J24" s="3">
         <v>115600</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>504100</v>
+        <v>503900</v>
       </c>
       <c r="E26" s="3">
-        <v>175500</v>
+        <v>175400</v>
       </c>
       <c r="F26" s="3">
         <v>-16800</v>
       </c>
       <c r="G26" s="3">
-        <v>-65100</v>
+        <v>-65000</v>
       </c>
       <c r="H26" s="3">
-        <v>-272000</v>
+        <v>-271800</v>
       </c>
       <c r="I26" s="3">
-        <v>249600</v>
+        <v>249400</v>
       </c>
       <c r="J26" s="3">
-        <v>863200</v>
+        <v>862700</v>
       </c>
       <c r="K26" s="3">
         <v>-676800</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>504100</v>
+        <v>503900</v>
       </c>
       <c r="E27" s="3">
-        <v>175500</v>
+        <v>175400</v>
       </c>
       <c r="F27" s="3">
         <v>-16800</v>
       </c>
       <c r="G27" s="3">
-        <v>-65100</v>
+        <v>-65000</v>
       </c>
       <c r="H27" s="3">
-        <v>-272000</v>
+        <v>-271800</v>
       </c>
       <c r="I27" s="3">
-        <v>249600</v>
+        <v>249400</v>
       </c>
       <c r="J27" s="3">
-        <v>863200</v>
+        <v>862700</v>
       </c>
       <c r="K27" s="3">
         <v>-676800</v>
@@ -1668,10 +1668,10 @@
         <v>2200</v>
       </c>
       <c r="G32" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="H32" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="I32" s="3">
         <v>-45900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>504100</v>
+        <v>503900</v>
       </c>
       <c r="E33" s="3">
-        <v>175500</v>
+        <v>175400</v>
       </c>
       <c r="F33" s="3">
         <v>-16800</v>
       </c>
       <c r="G33" s="3">
-        <v>-65100</v>
+        <v>-65000</v>
       </c>
       <c r="H33" s="3">
-        <v>-272000</v>
+        <v>-271800</v>
       </c>
       <c r="I33" s="3">
-        <v>249600</v>
+        <v>249400</v>
       </c>
       <c r="J33" s="3">
-        <v>863200</v>
+        <v>862700</v>
       </c>
       <c r="K33" s="3">
         <v>-676800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>504100</v>
+        <v>503900</v>
       </c>
       <c r="E35" s="3">
-        <v>175500</v>
+        <v>175400</v>
       </c>
       <c r="F35" s="3">
         <v>-16800</v>
       </c>
       <c r="G35" s="3">
-        <v>-65100</v>
+        <v>-65000</v>
       </c>
       <c r="H35" s="3">
-        <v>-272000</v>
+        <v>-271800</v>
       </c>
       <c r="I35" s="3">
-        <v>249600</v>
+        <v>249400</v>
       </c>
       <c r="J35" s="3">
-        <v>863200</v>
+        <v>862700</v>
       </c>
       <c r="K35" s="3">
         <v>-676800</v>
@@ -1925,10 +1925,10 @@
         <v>14300</v>
       </c>
       <c r="I41" s="3">
-        <v>91400</v>
+        <v>91300</v>
       </c>
       <c r="J41" s="3">
-        <v>460600</v>
+        <v>460400</v>
       </c>
       <c r="K41" s="3">
         <v>9000</v>
@@ -1994,22 +1994,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>165300</v>
+        <v>165200</v>
       </c>
       <c r="E43" s="3">
         <v>105100</v>
       </c>
       <c r="F43" s="3">
-        <v>74100</v>
+        <v>74000</v>
       </c>
       <c r="G43" s="3">
-        <v>87900</v>
+        <v>87800</v>
       </c>
       <c r="H43" s="3">
-        <v>89900</v>
+        <v>89800</v>
       </c>
       <c r="I43" s="3">
-        <v>126200</v>
+        <v>126100</v>
       </c>
       <c r="J43" s="3">
         <v>17700</v>
@@ -2078,7 +2078,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>207800</v>
+        <v>207700</v>
       </c>
       <c r="E45" s="3">
         <v>9700</v>
@@ -2090,7 +2090,7 @@
         <v>12600</v>
       </c>
       <c r="H45" s="3">
-        <v>54900</v>
+        <v>54800</v>
       </c>
       <c r="I45" s="3">
         <v>6700</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>375000</v>
+        <v>374800</v>
       </c>
       <c r="E46" s="3">
-        <v>116100</v>
+        <v>116000</v>
       </c>
       <c r="F46" s="3">
         <v>85100</v>
       </c>
       <c r="G46" s="3">
-        <v>105000</v>
+        <v>104900</v>
       </c>
       <c r="H46" s="3">
         <v>159000</v>
       </c>
       <c r="I46" s="3">
-        <v>224200</v>
+        <v>224100</v>
       </c>
       <c r="J46" s="3">
-        <v>567700</v>
+        <v>567500</v>
       </c>
       <c r="K46" s="3">
         <v>79500</v>
@@ -2162,10 +2162,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>412700</v>
+        <v>412500</v>
       </c>
       <c r="E47" s="3">
-        <v>276000</v>
+        <v>275900</v>
       </c>
       <c r="F47" s="3">
         <v>112200</v>
@@ -2174,13 +2174,13 @@
         <v>119700</v>
       </c>
       <c r="H47" s="3">
-        <v>171700</v>
+        <v>171600</v>
       </c>
       <c r="I47" s="3">
         <v>39500</v>
       </c>
       <c r="J47" s="3">
-        <v>80200</v>
+        <v>80100</v>
       </c>
       <c r="K47" s="3">
         <v>89400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2179300</v>
+        <v>2178100</v>
       </c>
       <c r="E48" s="3">
-        <v>2081200</v>
+        <v>2080100</v>
       </c>
       <c r="F48" s="3">
-        <v>1905000</v>
+        <v>1904000</v>
       </c>
       <c r="G48" s="3">
-        <v>1899600</v>
+        <v>1898600</v>
       </c>
       <c r="H48" s="3">
-        <v>2146700</v>
+        <v>2145600</v>
       </c>
       <c r="I48" s="3">
-        <v>2622600</v>
+        <v>2621300</v>
       </c>
       <c r="J48" s="3">
-        <v>877200</v>
+        <v>876800</v>
       </c>
       <c r="K48" s="3">
         <v>1800600</v>
@@ -2372,22 +2372,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>245900</v>
+        <v>245800</v>
       </c>
       <c r="E52" s="3">
-        <v>404600</v>
+        <v>404400</v>
       </c>
       <c r="F52" s="3">
-        <v>488000</v>
+        <v>487800</v>
       </c>
       <c r="G52" s="3">
-        <v>491500</v>
+        <v>491200</v>
       </c>
       <c r="H52" s="3">
-        <v>573000</v>
+        <v>572700</v>
       </c>
       <c r="I52" s="3">
-        <v>432600</v>
+        <v>432400</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3212800</v>
+        <v>3211200</v>
       </c>
       <c r="E54" s="3">
-        <v>2877800</v>
+        <v>2876400</v>
       </c>
       <c r="F54" s="3">
-        <v>2590400</v>
+        <v>2589000</v>
       </c>
       <c r="G54" s="3">
-        <v>2615800</v>
+        <v>2614400</v>
       </c>
       <c r="H54" s="3">
-        <v>3050400</v>
+        <v>3048900</v>
       </c>
       <c r="I54" s="3">
-        <v>3319000</v>
+        <v>3317200</v>
       </c>
       <c r="J54" s="3">
-        <v>1525200</v>
+        <v>1524400</v>
       </c>
       <c r="K54" s="3">
         <v>2088200</v>
@@ -2537,7 +2537,7 @@
         <v>165000</v>
       </c>
       <c r="E57" s="3">
-        <v>155500</v>
+        <v>155400</v>
       </c>
       <c r="F57" s="3">
         <v>104600</v>
@@ -2546,10 +2546,10 @@
         <v>131900</v>
       </c>
       <c r="H57" s="3">
-        <v>139000</v>
+        <v>138900</v>
       </c>
       <c r="I57" s="3">
-        <v>164400</v>
+        <v>164300</v>
       </c>
       <c r="J57" s="3">
         <v>59900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>209200</v>
+        <v>209100</v>
       </c>
       <c r="E60" s="3">
-        <v>189600</v>
+        <v>189500</v>
       </c>
       <c r="F60" s="3">
         <v>160900</v>
       </c>
       <c r="G60" s="3">
-        <v>182900</v>
+        <v>182800</v>
       </c>
       <c r="H60" s="3">
-        <v>195000</v>
+        <v>194900</v>
       </c>
       <c r="I60" s="3">
-        <v>210500</v>
+        <v>210400</v>
       </c>
       <c r="J60" s="3">
-        <v>158300</v>
+        <v>158200</v>
       </c>
       <c r="K60" s="3">
         <v>156600</v>
@@ -2702,22 +2702,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>129200</v>
+        <v>129100</v>
       </c>
       <c r="E61" s="3">
-        <v>288100</v>
+        <v>287900</v>
       </c>
       <c r="F61" s="3">
-        <v>611300</v>
+        <v>611000</v>
       </c>
       <c r="G61" s="3">
-        <v>484500</v>
+        <v>484300</v>
       </c>
       <c r="H61" s="3">
-        <v>603700</v>
+        <v>603400</v>
       </c>
       <c r="I61" s="3">
-        <v>519800</v>
+        <v>519500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>372100</v>
+        <v>372000</v>
       </c>
       <c r="E62" s="3">
-        <v>469500</v>
+        <v>469200</v>
       </c>
       <c r="F62" s="3">
-        <v>308700</v>
+        <v>308500</v>
       </c>
       <c r="G62" s="3">
-        <v>405300</v>
+        <v>405100</v>
       </c>
       <c r="H62" s="3">
-        <v>584700</v>
+        <v>584400</v>
       </c>
       <c r="I62" s="3">
-        <v>613600</v>
+        <v>613300</v>
       </c>
       <c r="J62" s="3">
-        <v>156000</v>
+        <v>155900</v>
       </c>
       <c r="K62" s="3">
         <v>205400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>710500</v>
+        <v>710200</v>
       </c>
       <c r="E66" s="3">
-        <v>947200</v>
+        <v>946700</v>
       </c>
       <c r="F66" s="3">
-        <v>1080900</v>
+        <v>1080300</v>
       </c>
       <c r="G66" s="3">
-        <v>1072700</v>
+        <v>1072100</v>
       </c>
       <c r="H66" s="3">
-        <v>1383400</v>
+        <v>1382700</v>
       </c>
       <c r="I66" s="3">
-        <v>1343900</v>
+        <v>1343300</v>
       </c>
       <c r="J66" s="3">
-        <v>314200</v>
+        <v>314000</v>
       </c>
       <c r="K66" s="3">
         <v>1676200</v>
@@ -3140,22 +3140,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>383400</v>
+        <v>383200</v>
       </c>
       <c r="E72" s="3">
         <v>-11500</v>
       </c>
       <c r="F72" s="3">
-        <v>-174100</v>
+        <v>-174000</v>
       </c>
       <c r="G72" s="3">
-        <v>-95200</v>
+        <v>-95100</v>
       </c>
       <c r="H72" s="3">
         <v>15700</v>
       </c>
       <c r="I72" s="3">
-        <v>202200</v>
+        <v>202100</v>
       </c>
       <c r="J72" s="3">
         <v>-112700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2502300</v>
+        <v>2501000</v>
       </c>
       <c r="E76" s="3">
-        <v>1930700</v>
+        <v>1929700</v>
       </c>
       <c r="F76" s="3">
-        <v>1509500</v>
+        <v>1508700</v>
       </c>
       <c r="G76" s="3">
-        <v>1543100</v>
+        <v>1542300</v>
       </c>
       <c r="H76" s="3">
-        <v>1667100</v>
+        <v>1666200</v>
       </c>
       <c r="I76" s="3">
-        <v>1975000</v>
+        <v>1974000</v>
       </c>
       <c r="J76" s="3">
-        <v>1210900</v>
+        <v>1210300</v>
       </c>
       <c r="K76" s="3">
         <v>412000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>504100</v>
+        <v>503900</v>
       </c>
       <c r="E81" s="3">
-        <v>175500</v>
+        <v>175400</v>
       </c>
       <c r="F81" s="3">
         <v>-16800</v>
       </c>
       <c r="G81" s="3">
-        <v>-65100</v>
+        <v>-65000</v>
       </c>
       <c r="H81" s="3">
-        <v>-272000</v>
+        <v>-271800</v>
       </c>
       <c r="I81" s="3">
-        <v>249600</v>
+        <v>249400</v>
       </c>
       <c r="J81" s="3">
-        <v>863200</v>
+        <v>862700</v>
       </c>
       <c r="K81" s="3">
         <v>-676800</v>
@@ -3499,22 +3499,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>211900</v>
+        <v>211700</v>
       </c>
       <c r="E83" s="3">
-        <v>98600</v>
+        <v>98500</v>
       </c>
       <c r="F83" s="3">
         <v>83000</v>
       </c>
       <c r="G83" s="3">
-        <v>270200</v>
+        <v>270100</v>
       </c>
       <c r="H83" s="3">
-        <v>723900</v>
+        <v>723500</v>
       </c>
       <c r="I83" s="3">
-        <v>282600</v>
+        <v>282400</v>
       </c>
       <c r="J83" s="3">
         <v>56600</v>
@@ -3751,22 +3751,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>777500</v>
+        <v>777100</v>
       </c>
       <c r="E89" s="3">
-        <v>357100</v>
+        <v>356900</v>
       </c>
       <c r="F89" s="3">
         <v>59900</v>
       </c>
       <c r="G89" s="3">
-        <v>189400</v>
+        <v>189300</v>
       </c>
       <c r="H89" s="3">
-        <v>165500</v>
+        <v>165400</v>
       </c>
       <c r="I89" s="3">
-        <v>93600</v>
+        <v>93500</v>
       </c>
       <c r="J89" s="3">
         <v>33900</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-593200</v>
+        <v>-592900</v>
       </c>
       <c r="E91" s="3">
-        <v>-207400</v>
+        <v>-207300</v>
       </c>
       <c r="F91" s="3">
-        <v>-163900</v>
+        <v>-163800</v>
       </c>
       <c r="G91" s="3">
-        <v>-299300</v>
+        <v>-299200</v>
       </c>
       <c r="H91" s="3">
-        <v>-429800</v>
+        <v>-429600</v>
       </c>
       <c r="I91" s="3">
-        <v>-403800</v>
+        <v>-403600</v>
       </c>
       <c r="J91" s="3">
-        <v>-148900</v>
+        <v>-148800</v>
       </c>
       <c r="K91" s="3">
         <v>-370900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-484400</v>
+        <v>-484200</v>
       </c>
       <c r="E94" s="3">
         <v>-38300</v>
       </c>
       <c r="F94" s="3">
-        <v>-185200</v>
+        <v>-185100</v>
       </c>
       <c r="G94" s="3">
-        <v>-73000</v>
+        <v>-72900</v>
       </c>
       <c r="H94" s="3">
-        <v>-275200</v>
+        <v>-275000</v>
       </c>
       <c r="I94" s="3">
-        <v>-633500</v>
+        <v>-633200</v>
       </c>
       <c r="J94" s="3">
-        <v>1358100</v>
+        <v>1357400</v>
       </c>
       <c r="K94" s="3">
         <v>-465400</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-291300</v>
+        <v>-291100</v>
       </c>
       <c r="E100" s="3">
-        <v>-321000</v>
+        <v>-320800</v>
       </c>
       <c r="F100" s="3">
         <v>124700</v>
       </c>
       <c r="G100" s="3">
-        <v>-126100</v>
+        <v>-126000</v>
       </c>
       <c r="H100" s="3">
         <v>30800</v>
       </c>
       <c r="I100" s="3">
-        <v>171800</v>
+        <v>171700</v>
       </c>
       <c r="J100" s="3">
-        <v>-939900</v>
+        <v>-939500</v>
       </c>
       <c r="K100" s="3">
         <v>394700</v>
@@ -4261,13 +4261,13 @@
         <v>-9800</v>
       </c>
       <c r="H102" s="3">
-        <v>-77100</v>
+        <v>-77000</v>
       </c>
       <c r="I102" s="3">
-        <v>-369300</v>
+        <v>-369100</v>
       </c>
       <c r="J102" s="3">
-        <v>451800</v>
+        <v>451600</v>
       </c>
       <c r="K102" s="3">
         <v>-4800</v>

--- a/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PRMRF_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1620700</v>
+        <v>1591500</v>
       </c>
       <c r="E8" s="3">
-        <v>789400</v>
+        <v>775100</v>
       </c>
       <c r="F8" s="3">
-        <v>446900</v>
+        <v>438800</v>
       </c>
       <c r="G8" s="3">
-        <v>597000</v>
+        <v>586300</v>
       </c>
       <c r="H8" s="3">
-        <v>668800</v>
+        <v>656700</v>
       </c>
       <c r="I8" s="3">
-        <v>342600</v>
+        <v>336400</v>
       </c>
       <c r="J8" s="3">
-        <v>182800</v>
+        <v>179500</v>
       </c>
       <c r="K8" s="3">
         <v>314700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>393000</v>
+        <v>385900</v>
       </c>
       <c r="E9" s="3">
-        <v>336800</v>
+        <v>330700</v>
       </c>
       <c r="F9" s="3">
-        <v>294900</v>
+        <v>289600</v>
       </c>
       <c r="G9" s="3">
-        <v>348500</v>
+        <v>342200</v>
       </c>
       <c r="H9" s="3">
-        <v>350900</v>
+        <v>344600</v>
       </c>
       <c r="I9" s="3">
-        <v>160600</v>
+        <v>157700</v>
       </c>
       <c r="J9" s="3">
-        <v>113600</v>
+        <v>111600</v>
       </c>
       <c r="K9" s="3">
         <v>117000</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1227700</v>
+        <v>1205600</v>
       </c>
       <c r="E10" s="3">
-        <v>452600</v>
+        <v>444400</v>
       </c>
       <c r="F10" s="3">
-        <v>151900</v>
+        <v>149200</v>
       </c>
       <c r="G10" s="3">
-        <v>248600</v>
+        <v>244100</v>
       </c>
       <c r="H10" s="3">
-        <v>317900</v>
+        <v>312100</v>
       </c>
       <c r="I10" s="3">
-        <v>182000</v>
+        <v>178700</v>
       </c>
       <c r="J10" s="3">
-        <v>69100</v>
+        <v>67900</v>
       </c>
       <c r="K10" s="3">
         <v>197800</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>22700</v>
+        <v>22200</v>
       </c>
       <c r="E12" s="3">
-        <v>28800</v>
+        <v>28300</v>
       </c>
       <c r="F12" s="3">
-        <v>25100</v>
+        <v>24700</v>
       </c>
       <c r="G12" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="H12" s="3">
-        <v>20200</v>
+        <v>19800</v>
       </c>
       <c r="I12" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="J12" s="3">
-        <v>13300</v>
+        <v>13000</v>
       </c>
       <c r="K12" s="3">
         <v>15900</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-16200</v>
+        <v>-15900</v>
       </c>
       <c r="E14" s="3">
-        <v>-190300</v>
+        <v>-186800</v>
       </c>
       <c r="F14" s="3">
-        <v>-99300</v>
+        <v>-97500</v>
       </c>
       <c r="G14" s="3">
         <v>3500</v>
       </c>
       <c r="H14" s="3">
-        <v>373900</v>
+        <v>367100</v>
       </c>
       <c r="I14" s="3">
-        <v>-52400</v>
+        <v>-51400</v>
       </c>
       <c r="J14" s="3">
-        <v>-67700</v>
+        <v>-66500</v>
       </c>
       <c r="K14" s="3">
         <v>406700</v>
@@ -996,25 +996,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>248600</v>
+        <v>244100</v>
       </c>
       <c r="E15" s="3">
-        <v>222500</v>
+        <v>218500</v>
       </c>
       <c r="F15" s="3">
-        <v>188000</v>
+        <v>184600</v>
       </c>
       <c r="G15" s="3">
-        <v>270100</v>
+        <v>265200</v>
       </c>
       <c r="H15" s="3">
-        <v>351500</v>
+        <v>345100</v>
       </c>
       <c r="I15" s="3">
-        <v>223500</v>
+        <v>219500</v>
       </c>
       <c r="J15" s="3">
-        <v>160000</v>
+        <v>157100</v>
       </c>
       <c r="K15" s="3">
         <v>274500</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>983900</v>
+        <v>966100</v>
       </c>
       <c r="E17" s="3">
-        <v>551200</v>
+        <v>541300</v>
       </c>
       <c r="F17" s="3">
-        <v>453900</v>
+        <v>445700</v>
       </c>
       <c r="G17" s="3">
-        <v>568500</v>
+        <v>558200</v>
       </c>
       <c r="H17" s="3">
-        <v>1090100</v>
+        <v>1070400</v>
       </c>
       <c r="I17" s="3">
-        <v>199800</v>
+        <v>196200</v>
       </c>
       <c r="J17" s="3">
-        <v>-805800</v>
+        <v>-791300</v>
       </c>
       <c r="K17" s="3">
         <v>986100</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>636900</v>
+        <v>625400</v>
       </c>
       <c r="E18" s="3">
-        <v>238200</v>
+        <v>233900</v>
       </c>
       <c r="F18" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="G18" s="3">
-        <v>28500</v>
+        <v>28000</v>
       </c>
       <c r="H18" s="3">
-        <v>-421300</v>
+        <v>-413700</v>
       </c>
       <c r="I18" s="3">
-        <v>142800</v>
+        <v>140200</v>
       </c>
       <c r="J18" s="3">
-        <v>988600</v>
+        <v>970800</v>
       </c>
       <c r="K18" s="3">
         <v>-671400</v>
@@ -1164,16 +1164,16 @@
         <v>-2200</v>
       </c>
       <c r="G20" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="H20" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="I20" s="3">
-        <v>45900</v>
+        <v>45000</v>
       </c>
       <c r="J20" s="3">
-        <v>-10300</v>
+        <v>-10100</v>
       </c>
       <c r="K20" s="3">
         <v>-14700</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>852700</v>
+        <v>838500</v>
       </c>
       <c r="E21" s="3">
-        <v>337300</v>
+        <v>331800</v>
       </c>
       <c r="F21" s="3">
-        <v>73700</v>
+        <v>72900</v>
       </c>
       <c r="G21" s="3">
-        <v>288100</v>
+        <v>284400</v>
       </c>
       <c r="H21" s="3">
-        <v>308500</v>
+        <v>306900</v>
       </c>
       <c r="I21" s="3">
-        <v>471100</v>
+        <v>464200</v>
       </c>
       <c r="J21" s="3">
-        <v>1034900</v>
+        <v>1016500</v>
       </c>
       <c r="K21" s="3">
         <v>-224900</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>641000</v>
+        <v>629400</v>
       </c>
       <c r="E23" s="3">
-        <v>238800</v>
+        <v>234500</v>
       </c>
       <c r="F23" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="G23" s="3">
-        <v>18100</v>
+        <v>17800</v>
       </c>
       <c r="H23" s="3">
-        <v>-415000</v>
+        <v>-407600</v>
       </c>
       <c r="I23" s="3">
-        <v>188700</v>
+        <v>185300</v>
       </c>
       <c r="J23" s="3">
-        <v>978300</v>
+        <v>960600</v>
       </c>
       <c r="K23" s="3">
         <v>-686100</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>137100</v>
+        <v>134600</v>
       </c>
       <c r="E24" s="3">
-        <v>63400</v>
+        <v>62200</v>
       </c>
       <c r="F24" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="G24" s="3">
-        <v>83100</v>
+        <v>81600</v>
       </c>
       <c r="H24" s="3">
-        <v>-143200</v>
+        <v>-140600</v>
       </c>
       <c r="I24" s="3">
-        <v>-60700</v>
+        <v>-59600</v>
       </c>
       <c r="J24" s="3">
-        <v>115600</v>
+        <v>113500</v>
       </c>
       <c r="K24" s="3">
         <v>-9400</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>503900</v>
+        <v>494800</v>
       </c>
       <c r="E26" s="3">
-        <v>175400</v>
+        <v>172200</v>
       </c>
       <c r="F26" s="3">
-        <v>-16800</v>
+        <v>-16500</v>
       </c>
       <c r="G26" s="3">
-        <v>-65000</v>
+        <v>-63900</v>
       </c>
       <c r="H26" s="3">
-        <v>-271800</v>
+        <v>-266900</v>
       </c>
       <c r="I26" s="3">
-        <v>249400</v>
+        <v>244900</v>
       </c>
       <c r="J26" s="3">
-        <v>862700</v>
+        <v>847200</v>
       </c>
       <c r="K26" s="3">
         <v>-676800</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>503900</v>
+        <v>494800</v>
       </c>
       <c r="E27" s="3">
-        <v>175400</v>
+        <v>172200</v>
       </c>
       <c r="F27" s="3">
-        <v>-16800</v>
+        <v>-16500</v>
       </c>
       <c r="G27" s="3">
-        <v>-65000</v>
+        <v>-63900</v>
       </c>
       <c r="H27" s="3">
-        <v>-271800</v>
+        <v>-266900</v>
       </c>
       <c r="I27" s="3">
-        <v>249400</v>
+        <v>244900</v>
       </c>
       <c r="J27" s="3">
-        <v>862700</v>
+        <v>847200</v>
       </c>
       <c r="K27" s="3">
         <v>-676800</v>
@@ -1668,16 +1668,16 @@
         <v>2200</v>
       </c>
       <c r="G32" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="H32" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="I32" s="3">
-        <v>-45900</v>
+        <v>-45000</v>
       </c>
       <c r="J32" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="K32" s="3">
         <v>14700</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>503900</v>
+        <v>494800</v>
       </c>
       <c r="E33" s="3">
-        <v>175400</v>
+        <v>172200</v>
       </c>
       <c r="F33" s="3">
-        <v>-16800</v>
+        <v>-16500</v>
       </c>
       <c r="G33" s="3">
-        <v>-65000</v>
+        <v>-63900</v>
       </c>
       <c r="H33" s="3">
-        <v>-271800</v>
+        <v>-266900</v>
       </c>
       <c r="I33" s="3">
-        <v>249400</v>
+        <v>244900</v>
       </c>
       <c r="J33" s="3">
-        <v>862700</v>
+        <v>847200</v>
       </c>
       <c r="K33" s="3">
         <v>-676800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>503900</v>
+        <v>494800</v>
       </c>
       <c r="E35" s="3">
-        <v>175400</v>
+        <v>172200</v>
       </c>
       <c r="F35" s="3">
-        <v>-16800</v>
+        <v>-16500</v>
       </c>
       <c r="G35" s="3">
-        <v>-65000</v>
+        <v>-63900</v>
       </c>
       <c r="H35" s="3">
-        <v>-271800</v>
+        <v>-266900</v>
       </c>
       <c r="I35" s="3">
-        <v>249400</v>
+        <v>244900</v>
       </c>
       <c r="J35" s="3">
-        <v>862700</v>
+        <v>847200</v>
       </c>
       <c r="K35" s="3">
         <v>-676800</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E41" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F41" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G41" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H41" s="3">
-        <v>14300</v>
+        <v>14000</v>
       </c>
       <c r="I41" s="3">
-        <v>91300</v>
+        <v>89700</v>
       </c>
       <c r="J41" s="3">
-        <v>460400</v>
+        <v>452100</v>
       </c>
       <c r="K41" s="3">
         <v>9000</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>88100</v>
+        <v>86500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>24</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>165200</v>
+        <v>162300</v>
       </c>
       <c r="E43" s="3">
-        <v>105100</v>
+        <v>103200</v>
       </c>
       <c r="F43" s="3">
-        <v>74000</v>
+        <v>72700</v>
       </c>
       <c r="G43" s="3">
-        <v>87800</v>
+        <v>86200</v>
       </c>
       <c r="H43" s="3">
-        <v>89800</v>
+        <v>88200</v>
       </c>
       <c r="I43" s="3">
-        <v>126100</v>
+        <v>123800</v>
       </c>
       <c r="J43" s="3">
-        <v>17700</v>
+        <v>17400</v>
       </c>
       <c r="K43" s="3">
         <v>36600</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>207700</v>
+        <v>203900</v>
       </c>
       <c r="E45" s="3">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="F45" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="G45" s="3">
-        <v>12600</v>
+        <v>12400</v>
       </c>
       <c r="H45" s="3">
-        <v>54800</v>
+        <v>53900</v>
       </c>
       <c r="I45" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="J45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K45" s="3">
         <v>34000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>374800</v>
+        <v>368000</v>
       </c>
       <c r="E46" s="3">
-        <v>116000</v>
+        <v>113900</v>
       </c>
       <c r="F46" s="3">
-        <v>85100</v>
+        <v>83500</v>
       </c>
       <c r="G46" s="3">
-        <v>104900</v>
+        <v>103000</v>
       </c>
       <c r="H46" s="3">
-        <v>159000</v>
+        <v>156100</v>
       </c>
       <c r="I46" s="3">
-        <v>224100</v>
+        <v>220100</v>
       </c>
       <c r="J46" s="3">
-        <v>567500</v>
+        <v>557200</v>
       </c>
       <c r="K46" s="3">
         <v>79500</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>412500</v>
+        <v>405000</v>
       </c>
       <c r="E47" s="3">
-        <v>275900</v>
+        <v>270900</v>
       </c>
       <c r="F47" s="3">
-        <v>112200</v>
+        <v>110200</v>
       </c>
       <c r="G47" s="3">
-        <v>119700</v>
+        <v>117500</v>
       </c>
       <c r="H47" s="3">
-        <v>171600</v>
+        <v>168500</v>
       </c>
       <c r="I47" s="3">
-        <v>39500</v>
+        <v>38800</v>
       </c>
       <c r="J47" s="3">
-        <v>80100</v>
+        <v>78700</v>
       </c>
       <c r="K47" s="3">
         <v>89400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2178100</v>
+        <v>2138900</v>
       </c>
       <c r="E48" s="3">
-        <v>2080100</v>
+        <v>2042600</v>
       </c>
       <c r="F48" s="3">
-        <v>1904000</v>
+        <v>1869700</v>
       </c>
       <c r="G48" s="3">
-        <v>1898600</v>
+        <v>1864400</v>
       </c>
       <c r="H48" s="3">
-        <v>2145600</v>
+        <v>2106900</v>
       </c>
       <c r="I48" s="3">
-        <v>2621300</v>
+        <v>2574000</v>
       </c>
       <c r="J48" s="3">
-        <v>876800</v>
+        <v>861000</v>
       </c>
       <c r="K48" s="3">
         <v>1800600</v>
@@ -2372,22 +2372,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>245800</v>
+        <v>241400</v>
       </c>
       <c r="E52" s="3">
-        <v>404400</v>
+        <v>397100</v>
       </c>
       <c r="F52" s="3">
-        <v>487800</v>
+        <v>479000</v>
       </c>
       <c r="G52" s="3">
-        <v>491200</v>
+        <v>482400</v>
       </c>
       <c r="H52" s="3">
-        <v>572700</v>
+        <v>562400</v>
       </c>
       <c r="I52" s="3">
-        <v>432400</v>
+        <v>424600</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3211200</v>
+        <v>3153300</v>
       </c>
       <c r="E54" s="3">
-        <v>2876400</v>
+        <v>2824500</v>
       </c>
       <c r="F54" s="3">
-        <v>2589000</v>
+        <v>2542400</v>
       </c>
       <c r="G54" s="3">
-        <v>2614400</v>
+        <v>2567300</v>
       </c>
       <c r="H54" s="3">
-        <v>3048900</v>
+        <v>2993900</v>
       </c>
       <c r="I54" s="3">
-        <v>3317200</v>
+        <v>3257400</v>
       </c>
       <c r="J54" s="3">
-        <v>1524400</v>
+        <v>1496900</v>
       </c>
       <c r="K54" s="3">
         <v>2088200</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>165000</v>
+        <v>162000</v>
       </c>
       <c r="E57" s="3">
-        <v>155400</v>
+        <v>152600</v>
       </c>
       <c r="F57" s="3">
-        <v>104600</v>
+        <v>102700</v>
       </c>
       <c r="G57" s="3">
-        <v>131900</v>
+        <v>129500</v>
       </c>
       <c r="H57" s="3">
-        <v>138900</v>
+        <v>136400</v>
       </c>
       <c r="I57" s="3">
-        <v>164300</v>
+        <v>161300</v>
       </c>
       <c r="J57" s="3">
-        <v>59900</v>
+        <v>58800</v>
       </c>
       <c r="K57" s="3">
         <v>73500</v>
@@ -2579,13 +2579,13 @@
         <v>2200</v>
       </c>
       <c r="E58" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F58" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G58" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>24</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41900</v>
+        <v>41100</v>
       </c>
       <c r="E59" s="3">
-        <v>26700</v>
+        <v>26200</v>
       </c>
       <c r="F59" s="3">
-        <v>48900</v>
+        <v>48000</v>
       </c>
       <c r="G59" s="3">
-        <v>43600</v>
+        <v>42800</v>
       </c>
       <c r="H59" s="3">
-        <v>56000</v>
+        <v>54900</v>
       </c>
       <c r="I59" s="3">
-        <v>46200</v>
+        <v>45300</v>
       </c>
       <c r="J59" s="3">
-        <v>98300</v>
+        <v>96500</v>
       </c>
       <c r="K59" s="3">
         <v>7300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>209100</v>
+        <v>205300</v>
       </c>
       <c r="E60" s="3">
-        <v>189500</v>
+        <v>186100</v>
       </c>
       <c r="F60" s="3">
-        <v>160900</v>
+        <v>158000</v>
       </c>
       <c r="G60" s="3">
-        <v>182800</v>
+        <v>179500</v>
       </c>
       <c r="H60" s="3">
-        <v>194900</v>
+        <v>191400</v>
       </c>
       <c r="I60" s="3">
-        <v>210400</v>
+        <v>206600</v>
       </c>
       <c r="J60" s="3">
-        <v>158200</v>
+        <v>155300</v>
       </c>
       <c r="K60" s="3">
         <v>156600</v>
@@ -2702,22 +2702,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>129100</v>
+        <v>126800</v>
       </c>
       <c r="E61" s="3">
-        <v>287900</v>
+        <v>282700</v>
       </c>
       <c r="F61" s="3">
-        <v>611000</v>
+        <v>600000</v>
       </c>
       <c r="G61" s="3">
-        <v>484300</v>
+        <v>475500</v>
       </c>
       <c r="H61" s="3">
-        <v>603400</v>
+        <v>592500</v>
       </c>
       <c r="I61" s="3">
-        <v>519500</v>
+        <v>510200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>372000</v>
+        <v>365200</v>
       </c>
       <c r="E62" s="3">
-        <v>469200</v>
+        <v>460800</v>
       </c>
       <c r="F62" s="3">
-        <v>308500</v>
+        <v>303000</v>
       </c>
       <c r="G62" s="3">
-        <v>405100</v>
+        <v>397800</v>
       </c>
       <c r="H62" s="3">
-        <v>584400</v>
+        <v>573900</v>
       </c>
       <c r="I62" s="3">
-        <v>613300</v>
+        <v>602200</v>
       </c>
       <c r="J62" s="3">
-        <v>155900</v>
+        <v>153100</v>
       </c>
       <c r="K62" s="3">
         <v>205400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>710200</v>
+        <v>697300</v>
       </c>
       <c r="E66" s="3">
-        <v>946700</v>
+        <v>929600</v>
       </c>
       <c r="F66" s="3">
-        <v>1080300</v>
+        <v>1060900</v>
       </c>
       <c r="G66" s="3">
-        <v>1072100</v>
+        <v>1052800</v>
       </c>
       <c r="H66" s="3">
-        <v>1382700</v>
+        <v>1357700</v>
       </c>
       <c r="I66" s="3">
-        <v>1343300</v>
+        <v>1319000</v>
       </c>
       <c r="J66" s="3">
-        <v>314000</v>
+        <v>308400</v>
       </c>
       <c r="K66" s="3">
         <v>1676200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>383200</v>
+        <v>376300</v>
       </c>
       <c r="E72" s="3">
-        <v>-11500</v>
+        <v>-11300</v>
       </c>
       <c r="F72" s="3">
-        <v>-174000</v>
+        <v>-170900</v>
       </c>
       <c r="G72" s="3">
-        <v>-95100</v>
+        <v>-93400</v>
       </c>
       <c r="H72" s="3">
-        <v>15700</v>
+        <v>15400</v>
       </c>
       <c r="I72" s="3">
-        <v>202100</v>
+        <v>198400</v>
       </c>
       <c r="J72" s="3">
-        <v>-112700</v>
+        <v>-110600</v>
       </c>
       <c r="K72" s="3">
         <v>-899300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2501000</v>
+        <v>2455900</v>
       </c>
       <c r="E76" s="3">
-        <v>1929700</v>
+        <v>1894900</v>
       </c>
       <c r="F76" s="3">
-        <v>1508700</v>
+        <v>1481500</v>
       </c>
       <c r="G76" s="3">
-        <v>1542300</v>
+        <v>1514500</v>
       </c>
       <c r="H76" s="3">
-        <v>1666200</v>
+        <v>1636200</v>
       </c>
       <c r="I76" s="3">
-        <v>1974000</v>
+        <v>1938400</v>
       </c>
       <c r="J76" s="3">
-        <v>1210300</v>
+        <v>1188500</v>
       </c>
       <c r="K76" s="3">
         <v>412000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>503900</v>
+        <v>494800</v>
       </c>
       <c r="E81" s="3">
-        <v>175400</v>
+        <v>172200</v>
       </c>
       <c r="F81" s="3">
-        <v>-16800</v>
+        <v>-16500</v>
       </c>
       <c r="G81" s="3">
-        <v>-65000</v>
+        <v>-63900</v>
       </c>
       <c r="H81" s="3">
-        <v>-271800</v>
+        <v>-266900</v>
       </c>
       <c r="I81" s="3">
-        <v>249400</v>
+        <v>244900</v>
       </c>
       <c r="J81" s="3">
-        <v>862700</v>
+        <v>847200</v>
       </c>
       <c r="K81" s="3">
         <v>-676800</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>211700</v>
+        <v>207900</v>
       </c>
       <c r="E83" s="3">
-        <v>98500</v>
+        <v>96800</v>
       </c>
       <c r="F83" s="3">
-        <v>83000</v>
+        <v>81500</v>
       </c>
       <c r="G83" s="3">
-        <v>270100</v>
+        <v>265200</v>
       </c>
       <c r="H83" s="3">
-        <v>723500</v>
+        <v>710500</v>
       </c>
       <c r="I83" s="3">
-        <v>282400</v>
+        <v>277400</v>
       </c>
       <c r="J83" s="3">
-        <v>56600</v>
+        <v>55600</v>
       </c>
       <c r="K83" s="3">
         <v>468500</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>777100</v>
+        <v>763100</v>
       </c>
       <c r="E89" s="3">
-        <v>356900</v>
+        <v>350500</v>
       </c>
       <c r="F89" s="3">
-        <v>59900</v>
+        <v>58800</v>
       </c>
       <c r="G89" s="3">
-        <v>189300</v>
+        <v>185900</v>
       </c>
       <c r="H89" s="3">
-        <v>165400</v>
+        <v>162400</v>
       </c>
       <c r="I89" s="3">
-        <v>93500</v>
+        <v>91800</v>
       </c>
       <c r="J89" s="3">
-        <v>33900</v>
+        <v>33300</v>
       </c>
       <c r="K89" s="3">
         <v>63300</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-592900</v>
+        <v>-582200</v>
       </c>
       <c r="E91" s="3">
-        <v>-207300</v>
+        <v>-203600</v>
       </c>
       <c r="F91" s="3">
-        <v>-163800</v>
+        <v>-160900</v>
       </c>
       <c r="G91" s="3">
-        <v>-299200</v>
+        <v>-293800</v>
       </c>
       <c r="H91" s="3">
-        <v>-429600</v>
+        <v>-421800</v>
       </c>
       <c r="I91" s="3">
-        <v>-403600</v>
+        <v>-396300</v>
       </c>
       <c r="J91" s="3">
-        <v>-148800</v>
+        <v>-146100</v>
       </c>
       <c r="K91" s="3">
         <v>-370900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-484200</v>
+        <v>-475500</v>
       </c>
       <c r="E94" s="3">
-        <v>-38300</v>
+        <v>-37600</v>
       </c>
       <c r="F94" s="3">
-        <v>-185100</v>
+        <v>-181800</v>
       </c>
       <c r="G94" s="3">
-        <v>-72900</v>
+        <v>-71600</v>
       </c>
       <c r="H94" s="3">
-        <v>-275000</v>
+        <v>-270100</v>
       </c>
       <c r="I94" s="3">
-        <v>-633200</v>
+        <v>-621800</v>
       </c>
       <c r="J94" s="3">
-        <v>1357400</v>
+        <v>1332900</v>
       </c>
       <c r="K94" s="3">
         <v>-465400</v>
@@ -3997,10 +3997,10 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-118800</v>
+        <v>-116600</v>
       </c>
       <c r="E96" s="3">
-        <v>-20300</v>
+        <v>-19900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-291100</v>
+        <v>-285900</v>
       </c>
       <c r="E100" s="3">
-        <v>-320800</v>
+        <v>-315000</v>
       </c>
       <c r="F100" s="3">
-        <v>124700</v>
+        <v>122400</v>
       </c>
       <c r="G100" s="3">
-        <v>-126000</v>
+        <v>-123800</v>
       </c>
       <c r="H100" s="3">
-        <v>30800</v>
+        <v>30200</v>
       </c>
       <c r="I100" s="3">
-        <v>171700</v>
+        <v>168600</v>
       </c>
       <c r="J100" s="3">
-        <v>-939500</v>
+        <v>-922500</v>
       </c>
       <c r="K100" s="3">
         <v>394700</v>
@@ -4255,19 +4255,19 @@
         <v>-2100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G102" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="H102" s="3">
-        <v>-77000</v>
+        <v>-75600</v>
       </c>
       <c r="I102" s="3">
-        <v>-369100</v>
+        <v>-362400</v>
       </c>
       <c r="J102" s="3">
-        <v>451600</v>
+        <v>443400</v>
       </c>
       <c r="K102" s="3">
         <v>-4800</v>
